--- a/Outputs/5. Budget constrained/Grid Search/Output Files/1750000/Output_24_1.xlsx
+++ b/Outputs/5. Budget constrained/Grid Search/Output Files/1750000/Output_24_1.xlsx
@@ -471,7 +471,7 @@
         </is>
       </c>
       <c r="B3" t="n">
-        <v>0</v>
+        <v>0.001</v>
       </c>
     </row>
     <row r="4">
@@ -501,7 +501,7 @@
         </is>
       </c>
       <c r="B6" t="n">
-        <v>-2577088.491667255</v>
+        <v>-2579687.286637918</v>
       </c>
     </row>
     <row r="7">
@@ -521,7 +521,7 @@
         </is>
       </c>
       <c r="B8" t="n">
-        <v>603248.4937673433</v>
+        <v>603248.4937673432</v>
       </c>
     </row>
     <row r="9">
@@ -656,7 +656,7 @@
         </is>
       </c>
       <c r="B2" t="n">
-        <v>382.7338416634806</v>
+        <v>0</v>
       </c>
       <c r="C2" t="n">
         <v>365.2728917710076</v>
@@ -665,16 +665,16 @@
         <v>354.683041620683</v>
       </c>
       <c r="E2" t="n">
-        <v>381.9303700722618</v>
+        <v>0</v>
       </c>
       <c r="F2" t="n">
-        <v>0</v>
+        <v>142.3511431490443</v>
       </c>
       <c r="G2" t="n">
-        <v>373.8611803770505</v>
+        <v>0</v>
       </c>
       <c r="H2" t="n">
-        <v>0</v>
+        <v>295.2163363185219</v>
       </c>
       <c r="I2" t="n">
         <v>0</v>
@@ -707,10 +707,10 @@
         <v>0</v>
       </c>
       <c r="S2" t="n">
-        <v>0</v>
+        <v>110.5418770458107</v>
       </c>
       <c r="T2" t="n">
-        <v>0</v>
+        <v>204.1780969433633</v>
       </c>
       <c r="U2" t="n">
         <v>250.9999258468059</v>
@@ -725,7 +725,7 @@
         <v>369.731100678469</v>
       </c>
       <c r="Y2" t="n">
-        <v>0</v>
+        <v>386.2379386560536</v>
       </c>
     </row>
     <row r="3">
@@ -741,22 +741,22 @@
         <v>172.7084989883157</v>
       </c>
       <c r="D3" t="n">
-        <v>147.4450655646388</v>
+        <v>95.23181436353522</v>
       </c>
       <c r="E3" t="n">
         <v>157.6450804554009</v>
       </c>
       <c r="F3" t="n">
-        <v>92.85596119227823</v>
+        <v>145.0692123933839</v>
       </c>
       <c r="G3" t="n">
         <v>135.0312635940655</v>
       </c>
       <c r="H3" t="n">
-        <v>89.90394266080568</v>
+        <v>89.90394266080567</v>
       </c>
       <c r="I3" t="n">
-        <v>19.91189527285532</v>
+        <v>19.91189527285528</v>
       </c>
       <c r="J3" t="n">
         <v>0</v>
@@ -783,7 +783,7 @@
         <v>0</v>
       </c>
       <c r="R3" t="n">
-        <v>2.116953416516765</v>
+        <v>2.116953416516679</v>
       </c>
       <c r="S3" t="n">
         <v>128.73407520327</v>
@@ -814,10 +814,10 @@
         </is>
       </c>
       <c r="B4" t="n">
-        <v>179.8319801819373</v>
+        <v>69.66782669642403</v>
       </c>
       <c r="C4" t="n">
-        <v>167.2468210986278</v>
+        <v>0</v>
       </c>
       <c r="D4" t="n">
         <v>148.6154730182124</v>
@@ -829,7 +829,7 @@
         <v>145.4210480229312</v>
       </c>
       <c r="G4" t="n">
-        <v>32.38254137863393</v>
+        <v>0</v>
       </c>
       <c r="H4" t="n">
         <v>0</v>
@@ -862,13 +862,13 @@
         <v>0</v>
       </c>
       <c r="R4" t="n">
-        <v>0</v>
+        <v>90.13067551456427</v>
       </c>
       <c r="S4" t="n">
         <v>0</v>
       </c>
       <c r="T4" t="n">
-        <v>0</v>
+        <v>219.6628404482119</v>
       </c>
       <c r="U4" t="n">
         <v>0</v>
@@ -896,22 +896,22 @@
         <v>382.7338416634806</v>
       </c>
       <c r="C5" t="n">
-        <v>0</v>
+        <v>365.2728917710076</v>
       </c>
       <c r="D5" t="n">
         <v>354.683041620683</v>
       </c>
       <c r="E5" t="n">
-        <v>0</v>
+        <v>381.9303700722618</v>
       </c>
       <c r="F5" t="n">
-        <v>406.8760457417114</v>
+        <v>6.876045741711437</v>
       </c>
       <c r="G5" t="n">
         <v>10.92172565345345</v>
       </c>
       <c r="H5" t="n">
-        <v>294.6077643873205</v>
+        <v>96.75278187232053</v>
       </c>
       <c r="I5" t="n">
         <v>0</v>
@@ -953,13 +953,13 @@
         <v>250.995171958902</v>
       </c>
       <c r="V5" t="n">
-        <v>107.3694371199339</v>
+        <v>327.7522584701349</v>
       </c>
       <c r="W5" t="n">
         <v>349.240968717413</v>
       </c>
       <c r="X5" t="n">
-        <v>369.731100678469</v>
+        <v>0</v>
       </c>
       <c r="Y5" t="n">
         <v>386.2379386560536</v>
@@ -1020,7 +1020,7 @@
         <v>0</v>
       </c>
       <c r="R6" t="n">
-        <v>0.1429098734098397</v>
+        <v>0.1429098734098204</v>
       </c>
       <c r="S6" t="n">
         <v>128.1435076414547</v>
@@ -1054,10 +1054,10 @@
         <v>179.8319801819373</v>
       </c>
       <c r="C7" t="n">
-        <v>0</v>
+        <v>167.2468210986278</v>
       </c>
       <c r="D7" t="n">
-        <v>0</v>
+        <v>148.6154730182124</v>
       </c>
       <c r="E7" t="n">
         <v>0</v>
@@ -1066,13 +1066,13 @@
         <v>0</v>
       </c>
       <c r="G7" t="n">
-        <v>0</v>
+        <v>166.0258082590282</v>
       </c>
       <c r="H7" t="n">
         <v>0</v>
       </c>
       <c r="I7" t="n">
-        <v>96.35242040983809</v>
+        <v>0</v>
       </c>
       <c r="J7" t="n">
         <v>0</v>
@@ -1108,13 +1108,13 @@
         <v>0</v>
       </c>
       <c r="U7" t="n">
-        <v>286.2118382056129</v>
+        <v>0</v>
       </c>
       <c r="V7" t="n">
-        <v>0</v>
+        <v>184.1110579343358</v>
       </c>
       <c r="W7" t="n">
-        <v>283.4349016947532</v>
+        <v>0</v>
       </c>
       <c r="X7" t="n">
         <v>0</v>
@@ -1136,10 +1136,10 @@
         <v>365.2728917710076</v>
       </c>
       <c r="D8" t="n">
-        <v>354.683041620683</v>
+        <v>0</v>
       </c>
       <c r="E8" t="n">
-        <v>0</v>
+        <v>381.9303700722618</v>
       </c>
       <c r="F8" t="n">
         <v>406.8760457417114</v>
@@ -1181,7 +1181,7 @@
         <v>0</v>
       </c>
       <c r="S8" t="n">
-        <v>0</v>
+        <v>109.1877617881758</v>
       </c>
       <c r="T8" t="n">
         <v>203.9179701396201</v>
@@ -1190,16 +1190,16 @@
         <v>250.995171958902</v>
       </c>
       <c r="V8" t="n">
-        <v>128.6794467600586</v>
+        <v>327.7522584701349</v>
       </c>
       <c r="W8" t="n">
-        <v>0</v>
+        <v>50.73003670622202</v>
       </c>
       <c r="X8" t="n">
         <v>0</v>
       </c>
       <c r="Y8" t="n">
-        <v>386.2379386560536</v>
+        <v>0</v>
       </c>
     </row>
     <row r="9">
@@ -1291,13 +1291,13 @@
         <v>0</v>
       </c>
       <c r="C10" t="n">
-        <v>167.2468210986278</v>
+        <v>0</v>
       </c>
       <c r="D10" t="n">
-        <v>148.6154730182124</v>
+        <v>0</v>
       </c>
       <c r="E10" t="n">
-        <v>133.0761881371525</v>
+        <v>0</v>
       </c>
       <c r="F10" t="n">
         <v>0</v>
@@ -1306,7 +1306,7 @@
         <v>0</v>
       </c>
       <c r="H10" t="n">
-        <v>144.7550149143208</v>
+        <v>0</v>
       </c>
       <c r="I10" t="n">
         <v>0</v>
@@ -1351,13 +1351,13 @@
         <v>252.137643323828</v>
       </c>
       <c r="W10" t="n">
-        <v>0</v>
+        <v>286.522998336591</v>
       </c>
       <c r="X10" t="n">
-        <v>0</v>
+        <v>225.7096553890372</v>
       </c>
       <c r="Y10" t="n">
-        <v>0</v>
+        <v>81.46084344268532</v>
       </c>
     </row>
     <row r="11">
@@ -1373,10 +1373,10 @@
         <v>365.2728917710076</v>
       </c>
       <c r="D11" t="n">
-        <v>354.683041620683</v>
+        <v>354.683041620682</v>
       </c>
       <c r="E11" t="n">
-        <v>381.9303700722615</v>
+        <v>381.9303700722618</v>
       </c>
       <c r="F11" t="n">
         <v>406.8760457417114</v>
@@ -1418,7 +1418,7 @@
         <v>0</v>
       </c>
       <c r="S11" t="n">
-        <v>83.7025149569553</v>
+        <v>83.70251495695531</v>
       </c>
       <c r="T11" t="n">
         <v>199.0222304576161</v>
@@ -1464,7 +1464,7 @@
         <v>134.4010792945512</v>
       </c>
       <c r="H12" t="n">
-        <v>83.81768903128545</v>
+        <v>83.81768903128547</v>
       </c>
       <c r="I12" t="n">
         <v>0</v>
@@ -1534,7 +1534,7 @@
         <v>148.6154730182124</v>
       </c>
       <c r="E13" t="n">
-        <v>146.4339626465692</v>
+        <v>0</v>
       </c>
       <c r="F13" t="n">
         <v>145.4210480229312</v>
@@ -1546,7 +1546,7 @@
         <v>140.2947128462239</v>
       </c>
       <c r="I13" t="n">
-        <v>81.26583631856553</v>
+        <v>81.26583631856555</v>
       </c>
       <c r="J13" t="n">
         <v>0</v>
@@ -1573,25 +1573,25 @@
         <v>0</v>
       </c>
       <c r="R13" t="n">
-        <v>66.37524671012169</v>
+        <v>66.3752467101217</v>
       </c>
       <c r="S13" t="n">
-        <v>0</v>
+        <v>181.0262860016446</v>
       </c>
       <c r="T13" t="n">
-        <v>0</v>
+        <v>10.58364443467147</v>
       </c>
       <c r="U13" t="n">
-        <v>286.1844743892441</v>
+        <v>286.1844743892442</v>
       </c>
       <c r="V13" t="n">
-        <v>71.60395572454037</v>
+        <v>252.137643323828</v>
       </c>
       <c r="W13" t="n">
         <v>286.522998336591</v>
       </c>
       <c r="X13" t="n">
-        <v>225.7096553890372</v>
+        <v>0</v>
       </c>
       <c r="Y13" t="n">
         <v>218.5846533520948</v>
@@ -1610,7 +1610,7 @@
         <v>365.2728917710076</v>
       </c>
       <c r="D14" t="n">
-        <v>354.683041620683</v>
+        <v>354.683041620682</v>
       </c>
       <c r="E14" t="n">
         <v>381.9303700722618</v>
@@ -1655,13 +1655,13 @@
         <v>0</v>
       </c>
       <c r="S14" t="n">
-        <v>83.7025149569553</v>
+        <v>83.70251495695531</v>
       </c>
       <c r="T14" t="n">
         <v>199.0222304576161</v>
       </c>
       <c r="U14" t="n">
-        <v>250.9057009881294</v>
+        <v>250.9057009881286</v>
       </c>
       <c r="V14" t="n">
         <v>327.7522584701349</v>
@@ -1701,7 +1701,7 @@
         <v>134.4010792945512</v>
       </c>
       <c r="H15" t="n">
-        <v>83.81768903128545</v>
+        <v>83.81768903128547</v>
       </c>
       <c r="I15" t="n">
         <v>0</v>
@@ -1768,10 +1768,10 @@
         <v>167.2468210986278</v>
       </c>
       <c r="D16" t="n">
-        <v>0</v>
+        <v>7.155999212081468</v>
       </c>
       <c r="E16" t="n">
-        <v>0</v>
+        <v>146.4339626465692</v>
       </c>
       <c r="F16" t="n">
         <v>0</v>
@@ -1780,10 +1780,10 @@
         <v>165.5241382922688</v>
       </c>
       <c r="H16" t="n">
-        <v>1.799772605716562</v>
+        <v>140.2947128462239</v>
       </c>
       <c r="I16" t="n">
-        <v>81.26583631856553</v>
+        <v>81.26583631856555</v>
       </c>
       <c r="J16" t="n">
         <v>0</v>
@@ -1810,7 +1810,7 @@
         <v>0</v>
       </c>
       <c r="R16" t="n">
-        <v>66.37524671012169</v>
+        <v>0</v>
       </c>
       <c r="S16" t="n">
         <v>181.0262860016446</v>
@@ -1819,7 +1819,7 @@
         <v>217.4054503272883</v>
       </c>
       <c r="U16" t="n">
-        <v>286.1844743892437</v>
+        <v>286.1844743892441</v>
       </c>
       <c r="V16" t="n">
         <v>252.137643323828</v>
@@ -1828,7 +1828,7 @@
         <v>286.522998336591</v>
       </c>
       <c r="X16" t="n">
-        <v>225.7096553890372</v>
+        <v>0</v>
       </c>
       <c r="Y16" t="n">
         <v>218.5846533520948</v>
@@ -1844,7 +1844,7 @@
         <v>382.7338416634806</v>
       </c>
       <c r="C17" t="n">
-        <v>365.2728917710076</v>
+        <v>365.2728917710062</v>
       </c>
       <c r="D17" t="n">
         <v>354.683041620683</v>
@@ -1892,7 +1892,7 @@
         <v>0</v>
       </c>
       <c r="S17" t="n">
-        <v>83.7025149569553</v>
+        <v>83.70251495695531</v>
       </c>
       <c r="T17" t="n">
         <v>199.0222304576161</v>
@@ -1938,7 +1938,7 @@
         <v>134.4010792945512</v>
       </c>
       <c r="H18" t="n">
-        <v>83.81768903128545</v>
+        <v>83.81768903128547</v>
       </c>
       <c r="I18" t="n">
         <v>0</v>
@@ -2005,13 +2005,13 @@
         <v>167.2468210986278</v>
       </c>
       <c r="D19" t="n">
-        <v>23.05950344416363</v>
+        <v>148.6154730182124</v>
       </c>
       <c r="E19" t="n">
         <v>0</v>
       </c>
       <c r="F19" t="n">
-        <v>145.4210480229312</v>
+        <v>0</v>
       </c>
       <c r="G19" t="n">
         <v>165.5241382922688</v>
@@ -2020,7 +2020,7 @@
         <v>140.2947128462239</v>
       </c>
       <c r="I19" t="n">
-        <v>0</v>
+        <v>81.26583631856555</v>
       </c>
       <c r="J19" t="n">
         <v>0</v>
@@ -2047,10 +2047,10 @@
         <v>0</v>
       </c>
       <c r="R19" t="n">
-        <v>66.37524671012169</v>
+        <v>66.37524671012207</v>
       </c>
       <c r="S19" t="n">
-        <v>181.0262860016446</v>
+        <v>146.0535160667518</v>
       </c>
       <c r="T19" t="n">
         <v>217.4054503272883</v>
@@ -2059,13 +2059,13 @@
         <v>286.1844743892442</v>
       </c>
       <c r="V19" t="n">
-        <v>252.137643323828</v>
+        <v>0</v>
       </c>
       <c r="W19" t="n">
         <v>286.522998336591</v>
       </c>
       <c r="X19" t="n">
-        <v>0</v>
+        <v>225.7096553890372</v>
       </c>
       <c r="Y19" t="n">
         <v>218.5846533520948</v>
@@ -2135,7 +2135,7 @@
         <v>199.0222304576161</v>
       </c>
       <c r="U20" t="n">
-        <v>250.9057009881286</v>
+        <v>250.9057009881275</v>
       </c>
       <c r="V20" t="n">
         <v>327.7522584701349</v>
@@ -2242,22 +2242,22 @@
         <v>167.2468210986278</v>
       </c>
       <c r="D22" t="n">
-        <v>0</v>
+        <v>148.6154730182124</v>
       </c>
       <c r="E22" t="n">
         <v>146.4339626465692</v>
       </c>
       <c r="F22" t="n">
-        <v>0</v>
+        <v>145.4210480229312</v>
       </c>
       <c r="G22" t="n">
-        <v>165.5241382922686</v>
+        <v>165.5241382922688</v>
       </c>
       <c r="H22" t="n">
         <v>0</v>
       </c>
       <c r="I22" t="n">
-        <v>0</v>
+        <v>81.26583631856546</v>
       </c>
       <c r="J22" t="n">
         <v>0</v>
@@ -2284,19 +2284,19 @@
         <v>0</v>
       </c>
       <c r="R22" t="n">
-        <v>66.37524671012169</v>
+        <v>0</v>
       </c>
       <c r="S22" t="n">
-        <v>117.6579322793577</v>
+        <v>181.0262860016445</v>
       </c>
       <c r="T22" t="n">
-        <v>217.4054503272883</v>
+        <v>0</v>
       </c>
       <c r="U22" t="n">
         <v>286.1844743892441</v>
       </c>
       <c r="V22" t="n">
-        <v>252.137643323828</v>
+        <v>97.2476292792423</v>
       </c>
       <c r="W22" t="n">
         <v>286.522998336591</v>
@@ -2333,7 +2333,7 @@
         <v>409.8033385187866</v>
       </c>
       <c r="H23" t="n">
-        <v>283.1540821444132</v>
+        <v>283.1540821444137</v>
       </c>
       <c r="I23" t="n">
         <v>0</v>
@@ -2479,13 +2479,13 @@
         <v>167.2468210986278</v>
       </c>
       <c r="D25" t="n">
-        <v>147.6895341487365</v>
+        <v>0</v>
       </c>
       <c r="E25" t="n">
         <v>0</v>
       </c>
       <c r="F25" t="n">
-        <v>0</v>
+        <v>145.4210480229312</v>
       </c>
       <c r="G25" t="n">
         <v>165.5241382922688</v>
@@ -2530,19 +2530,19 @@
         <v>217.4054503272883</v>
       </c>
       <c r="U25" t="n">
-        <v>0</v>
+        <v>286.184474389244</v>
       </c>
       <c r="V25" t="n">
         <v>252.137643323828</v>
       </c>
       <c r="W25" t="n">
-        <v>286.522998336591</v>
+        <v>221.1916634252466</v>
       </c>
       <c r="X25" t="n">
         <v>225.7096553890372</v>
       </c>
       <c r="Y25" t="n">
-        <v>218.5846533520948</v>
+        <v>0</v>
       </c>
     </row>
     <row r="26">
@@ -2618,7 +2618,7 @@
         <v>349.240968717413</v>
       </c>
       <c r="X26" t="n">
-        <v>369.731100678469</v>
+        <v>369.7311006784686</v>
       </c>
       <c r="Y26" t="n">
         <v>386.2379386560536</v>
@@ -2728,10 +2728,10 @@
         <v>141.2394908002291</v>
       </c>
       <c r="H28" t="n">
-        <v>116.0100653541842</v>
+        <v>116.0100653541841</v>
       </c>
       <c r="I28" t="n">
-        <v>56.98118882652581</v>
+        <v>56.9811888265258</v>
       </c>
       <c r="J28" t="n">
         <v>0</v>
@@ -2761,7 +2761,7 @@
         <v>42.09059921808196</v>
       </c>
       <c r="S28" t="n">
-        <v>156.7416385096051</v>
+        <v>156.7416385096047</v>
       </c>
       <c r="T28" t="n">
         <v>193.1208028352485</v>
@@ -2947,7 +2947,7 @@
         </is>
       </c>
       <c r="B31" t="n">
-        <v>155.5473326898976</v>
+        <v>155.5473326898975</v>
       </c>
       <c r="C31" t="n">
         <v>142.9621736065881</v>
@@ -2956,19 +2956,19 @@
         <v>124.3308255261726</v>
       </c>
       <c r="E31" t="n">
-        <v>122.1493151545294</v>
+        <v>122.1493151545305</v>
       </c>
       <c r="F31" t="n">
         <v>121.1364005308915</v>
       </c>
       <c r="G31" t="n">
-        <v>141.2394908002293</v>
+        <v>141.2394908002291</v>
       </c>
       <c r="H31" t="n">
-        <v>116.0100653541839</v>
+        <v>116.0100653541841</v>
       </c>
       <c r="I31" t="n">
-        <v>56.98118882652582</v>
+        <v>56.98118882652577</v>
       </c>
       <c r="J31" t="n">
         <v>0</v>
@@ -2995,28 +2995,28 @@
         <v>0</v>
       </c>
       <c r="R31" t="n">
-        <v>42.09059921808196</v>
+        <v>42.09059921808192</v>
       </c>
       <c r="S31" t="n">
-        <v>156.7416385096051</v>
+        <v>156.7416385096048</v>
       </c>
       <c r="T31" t="n">
         <v>193.1208028352485</v>
       </c>
       <c r="U31" t="n">
-        <v>261.8998268972046</v>
+        <v>261.8998268972048</v>
       </c>
       <c r="V31" t="n">
-        <v>227.8529958317883</v>
+        <v>227.8529958317882</v>
       </c>
       <c r="W31" t="n">
-        <v>262.2383508445513</v>
+        <v>262.2383508445512</v>
       </c>
       <c r="X31" t="n">
         <v>201.4250078969974</v>
       </c>
       <c r="Y31" t="n">
-        <v>194.3000058600551</v>
+        <v>194.300005860055</v>
       </c>
     </row>
     <row r="32">
@@ -3041,7 +3041,7 @@
         <v>406.8760457417114</v>
       </c>
       <c r="G32" t="n">
-        <v>409.8033385187861</v>
+        <v>409.8033385187866</v>
       </c>
       <c r="H32" t="n">
         <v>283.1540821444137</v>
@@ -3080,7 +3080,7 @@
         <v>83.7025149569553</v>
       </c>
       <c r="T32" t="n">
-        <v>199.0222304576161</v>
+        <v>199.0222304576155</v>
       </c>
       <c r="U32" t="n">
         <v>250.9057009881286</v>
@@ -3184,7 +3184,7 @@
         </is>
       </c>
       <c r="B34" t="n">
-        <v>155.5473326898976</v>
+        <v>155.5473326898975</v>
       </c>
       <c r="C34" t="n">
         <v>142.9621736065881</v>
@@ -3205,7 +3205,7 @@
         <v>116.0100653541841</v>
       </c>
       <c r="I34" t="n">
-        <v>56.98118882652579</v>
+        <v>56.98118882652577</v>
       </c>
       <c r="J34" t="n">
         <v>0</v>
@@ -3232,28 +3232,28 @@
         <v>0</v>
       </c>
       <c r="R34" t="n">
-        <v>42.09059921808113</v>
+        <v>42.09059921808293</v>
       </c>
       <c r="S34" t="n">
-        <v>156.7416385096047</v>
+        <v>156.7416385096048</v>
       </c>
       <c r="T34" t="n">
         <v>193.1208028352485</v>
       </c>
       <c r="U34" t="n">
-        <v>261.8998268972053</v>
+        <v>261.8998268972048</v>
       </c>
       <c r="V34" t="n">
-        <v>227.8529958317883</v>
+        <v>227.8529958317882</v>
       </c>
       <c r="W34" t="n">
-        <v>262.2383508445513</v>
+        <v>262.2383508445512</v>
       </c>
       <c r="X34" t="n">
         <v>201.4250078969974</v>
       </c>
       <c r="Y34" t="n">
-        <v>194.3000058600551</v>
+        <v>194.300005860055</v>
       </c>
     </row>
     <row r="35">
@@ -3424,25 +3424,25 @@
         <v>155.5473326898976</v>
       </c>
       <c r="C37" t="n">
-        <v>142.9621736065881</v>
+        <v>142.9621736065882</v>
       </c>
       <c r="D37" t="n">
-        <v>124.3308255261726</v>
+        <v>124.3308255261727</v>
       </c>
       <c r="E37" t="n">
-        <v>122.1493151545294</v>
+        <v>122.1493151545295</v>
       </c>
       <c r="F37" t="n">
         <v>121.1364005308915</v>
       </c>
       <c r="G37" t="n">
-        <v>141.2394908002291</v>
+        <v>141.2394908002292</v>
       </c>
       <c r="H37" t="n">
-        <v>116.0100653541841</v>
+        <v>116.0100653541842</v>
       </c>
       <c r="I37" t="n">
-        <v>56.98118882652578</v>
+        <v>56.98118882652584</v>
       </c>
       <c r="J37" t="n">
         <v>0</v>
@@ -3469,25 +3469,25 @@
         <v>0</v>
       </c>
       <c r="R37" t="n">
-        <v>42.09059921808193</v>
+        <v>42.09059921808203</v>
       </c>
       <c r="S37" t="n">
         <v>156.7416385096049</v>
       </c>
       <c r="T37" t="n">
-        <v>193.1208028352485</v>
+        <v>193.1208028352486</v>
       </c>
       <c r="U37" t="n">
-        <v>261.8998268972057</v>
+        <v>261.8998268972039</v>
       </c>
       <c r="V37" t="n">
         <v>227.8529958317883</v>
       </c>
       <c r="W37" t="n">
-        <v>262.2383508445512</v>
+        <v>262.2383508445513</v>
       </c>
       <c r="X37" t="n">
-        <v>201.4250078969974</v>
+        <v>201.4250078969975</v>
       </c>
       <c r="Y37" t="n">
         <v>194.3000058600551</v>
@@ -3679,7 +3679,7 @@
         <v>116.0100653541841</v>
       </c>
       <c r="I40" t="n">
-        <v>56.98118882652579</v>
+        <v>56.98118882652616</v>
       </c>
       <c r="J40" t="n">
         <v>0</v>
@@ -3709,13 +3709,13 @@
         <v>42.09059921808195</v>
       </c>
       <c r="S40" t="n">
-        <v>156.7416385096049</v>
+        <v>156.7416385096051</v>
       </c>
       <c r="T40" t="n">
         <v>193.1208028352485</v>
       </c>
       <c r="U40" t="n">
-        <v>261.8998268972053</v>
+        <v>261.8998268972044</v>
       </c>
       <c r="V40" t="n">
         <v>227.8529958317883</v>
@@ -3904,7 +3904,7 @@
         <v>124.3308255261726</v>
       </c>
       <c r="E43" t="n">
-        <v>122.1493151545295</v>
+        <v>122.1493151545294</v>
       </c>
       <c r="F43" t="n">
         <v>121.1364005308915</v>
@@ -3916,7 +3916,7 @@
         <v>116.0100653541841</v>
       </c>
       <c r="I43" t="n">
-        <v>56.98118882652582</v>
+        <v>56.98118882652579</v>
       </c>
       <c r="J43" t="n">
         <v>0</v>
@@ -3943,7 +3943,7 @@
         <v>0</v>
       </c>
       <c r="R43" t="n">
-        <v>42.09059921808198</v>
+        <v>42.09059921808195</v>
       </c>
       <c r="S43" t="n">
         <v>156.7416385096049</v>
@@ -3952,7 +3952,7 @@
         <v>193.1208028352486</v>
       </c>
       <c r="U43" t="n">
-        <v>261.8998268972051</v>
+        <v>261.8998268972048</v>
       </c>
       <c r="V43" t="n">
         <v>227.8529958317883</v>
@@ -4138,10 +4138,10 @@
         <v>142.9621736065881</v>
       </c>
       <c r="D46" t="n">
-        <v>124.3308255261726</v>
+        <v>124.3308255261727</v>
       </c>
       <c r="E46" t="n">
-        <v>122.1493151545294</v>
+        <v>122.1493151545295</v>
       </c>
       <c r="F46" t="n">
         <v>121.1364005308915</v>
@@ -4153,7 +4153,7 @@
         <v>116.0100653541842</v>
       </c>
       <c r="I46" t="n">
-        <v>56.98118882652581</v>
+        <v>56.98118882652584</v>
       </c>
       <c r="J46" t="n">
         <v>0</v>
@@ -4180,13 +4180,13 @@
         <v>0</v>
       </c>
       <c r="R46" t="n">
-        <v>42.09059921808195</v>
+        <v>42.09059921808248</v>
       </c>
       <c r="S46" t="n">
         <v>156.7416385096049</v>
       </c>
       <c r="T46" t="n">
-        <v>193.1208028352485</v>
+        <v>193.1208028352486</v>
       </c>
       <c r="U46" t="n">
         <v>261.8998268972044</v>
@@ -4304,76 +4304,76 @@
         </is>
       </c>
       <c r="B2" t="n">
-        <v>1555.717012727818</v>
+        <v>1234.278557190701</v>
       </c>
       <c r="C2" t="n">
-        <v>1186.754495787406</v>
+        <v>865.3160402502892</v>
       </c>
       <c r="D2" t="n">
-        <v>828.4887971806559</v>
+        <v>507.0503416435388</v>
       </c>
       <c r="E2" t="n">
-        <v>442.7005445824116</v>
+        <v>507.0503416435386</v>
       </c>
       <c r="F2" t="n">
-        <v>442.7005445824115</v>
+        <v>363.2613081596554</v>
       </c>
       <c r="G2" t="n">
-        <v>65.06298864599684</v>
+        <v>363.2613081596554</v>
       </c>
       <c r="H2" t="n">
-        <v>65.06298864599684</v>
+        <v>65.06298864599685</v>
       </c>
       <c r="I2" t="n">
-        <v>65.06298864599684</v>
+        <v>65.06298864599685</v>
       </c>
       <c r="J2" t="n">
-        <v>248.9490509731313</v>
+        <v>248.9490509731315</v>
       </c>
       <c r="K2" t="n">
-        <v>575.2851091032917</v>
+        <v>575.2851091032921</v>
       </c>
       <c r="L2" t="n">
         <v>1017.035607679883</v>
       </c>
       <c r="M2" t="n">
-        <v>1540.237590999098</v>
+        <v>1540.237590999099</v>
       </c>
       <c r="N2" t="n">
-        <v>2076.519337778083</v>
+        <v>2076.519337778085</v>
       </c>
       <c r="O2" t="n">
-        <v>2569.579722854077</v>
+        <v>2569.579722854078</v>
       </c>
       <c r="P2" t="n">
-        <v>2955.894353302311</v>
+        <v>2955.894353302313</v>
       </c>
       <c r="Q2" t="n">
-        <v>3197.827805704724</v>
+        <v>3197.827805704725</v>
       </c>
       <c r="R2" t="n">
-        <v>3253.149432299842</v>
+        <v>3253.149432299843</v>
       </c>
       <c r="S2" t="n">
-        <v>3253.149432299842</v>
+        <v>3141.490970637408</v>
       </c>
       <c r="T2" t="n">
-        <v>3253.149432299842</v>
+        <v>2935.250468674415</v>
       </c>
       <c r="U2" t="n">
-        <v>2999.614153666705</v>
+        <v>2681.715190041277</v>
       </c>
       <c r="V2" t="n">
-        <v>2668.551266323134</v>
+        <v>2350.652302697707</v>
       </c>
       <c r="W2" t="n">
-        <v>2315.78261105302</v>
+        <v>1997.883647427592</v>
       </c>
       <c r="X2" t="n">
-        <v>1942.31685279194</v>
+        <v>1624.417889166513</v>
       </c>
       <c r="Y2" t="n">
-        <v>1942.31685279194</v>
+        <v>1234.278557190701</v>
       </c>
     </row>
     <row r="3">
@@ -4383,76 +4383,76 @@
         </is>
       </c>
       <c r="B3" t="n">
-        <v>1626.917666771054</v>
+        <v>888.8020873615144</v>
       </c>
       <c r="C3" t="n">
-        <v>1452.464637489928</v>
+        <v>714.3490580803874</v>
       </c>
       <c r="D3" t="n">
-        <v>1303.530227828676</v>
+        <v>618.1553061980285</v>
       </c>
       <c r="E3" t="n">
-        <v>1144.292772823221</v>
+        <v>458.917851192573</v>
       </c>
       <c r="F3" t="n">
-        <v>1050.498872629</v>
+        <v>312.383293219458</v>
       </c>
       <c r="G3" t="n">
-        <v>914.1036568774184</v>
+        <v>175.9880774678766</v>
       </c>
       <c r="H3" t="n">
-        <v>823.2915935836753</v>
+        <v>85.1760141741335</v>
       </c>
       <c r="I3" t="n">
-        <v>803.1785680555387</v>
+        <v>65.06298864599685</v>
       </c>
       <c r="J3" t="n">
-        <v>893.8820000749462</v>
+        <v>155.7664206654047</v>
       </c>
       <c r="K3" t="n">
-        <v>1127.063437151132</v>
+        <v>388.947857741591</v>
       </c>
       <c r="L3" t="n">
-        <v>1486.927196831875</v>
+        <v>748.8116174223343</v>
       </c>
       <c r="M3" t="n">
-        <v>1926.22809887459</v>
+        <v>1188.112519465049</v>
       </c>
       <c r="N3" t="n">
-        <v>2391.564633529492</v>
+        <v>1653.449054119952</v>
       </c>
       <c r="O3" t="n">
-        <v>2795.036856668789</v>
+        <v>2056.921277259249</v>
       </c>
       <c r="P3" t="n">
-        <v>3099.525820234324</v>
+        <v>2361.410240824785</v>
       </c>
       <c r="Q3" t="n">
-        <v>3253.149432299842</v>
+        <v>2515.033852890303</v>
       </c>
       <c r="R3" t="n">
-        <v>3251.011095515481</v>
+        <v>2512.895516105943</v>
       </c>
       <c r="S3" t="n">
-        <v>3120.976676118239</v>
+        <v>2382.8610967087</v>
       </c>
       <c r="T3" t="n">
-        <v>2928.204227454519</v>
+        <v>2190.08864804498</v>
       </c>
       <c r="U3" t="n">
-        <v>2700.134267721553</v>
+        <v>1962.018688312013</v>
       </c>
       <c r="V3" t="n">
-        <v>2464.982159489811</v>
+        <v>1726.866580080271</v>
       </c>
       <c r="W3" t="n">
-        <v>2210.744802761609</v>
+        <v>1472.629223352069</v>
       </c>
       <c r="X3" t="n">
-        <v>2002.893302556076</v>
+        <v>1264.777723146536</v>
       </c>
       <c r="Y3" t="n">
-        <v>1795.133003791123</v>
+        <v>1057.017424381582</v>
       </c>
     </row>
     <row r="4">
@@ -4462,76 +4462,76 @@
         </is>
       </c>
       <c r="B4" t="n">
-        <v>711.6284898227389</v>
+        <v>509.9826691386361</v>
       </c>
       <c r="C4" t="n">
-        <v>542.692306894832</v>
+        <v>509.9826691386361</v>
       </c>
       <c r="D4" t="n">
-        <v>392.5756674824962</v>
+        <v>359.8660297263003</v>
       </c>
       <c r="E4" t="n">
-        <v>244.6625739001031</v>
+        <v>211.9529361439072</v>
       </c>
       <c r="F4" t="n">
-        <v>97.77262640219271</v>
+        <v>65.06298864599685</v>
       </c>
       <c r="G4" t="n">
-        <v>65.06298864599684</v>
+        <v>65.06298864599685</v>
       </c>
       <c r="H4" t="n">
-        <v>65.06298864599684</v>
+        <v>65.06298864599685</v>
       </c>
       <c r="I4" t="n">
-        <v>65.06298864599684</v>
+        <v>65.06298864599685</v>
       </c>
       <c r="J4" t="n">
-        <v>75.02005212274268</v>
+        <v>75.02005212274275</v>
       </c>
       <c r="K4" t="n">
-        <v>170.2650045033532</v>
+        <v>170.2650045033535</v>
       </c>
       <c r="L4" t="n">
-        <v>322.0515495633493</v>
+        <v>322.0515495633497</v>
       </c>
       <c r="M4" t="n">
-        <v>485.3474622992784</v>
+        <v>485.347462299279</v>
       </c>
       <c r="N4" t="n">
-        <v>652.6180891206066</v>
+        <v>652.6180891206072</v>
       </c>
       <c r="O4" t="n">
-        <v>786.8064976079664</v>
+        <v>786.8064976079672</v>
       </c>
       <c r="P4" t="n">
-        <v>882.5658916983273</v>
+        <v>882.5658916983283</v>
       </c>
       <c r="Q4" t="n">
-        <v>893.2769546529786</v>
+        <v>893.2769546529796</v>
       </c>
       <c r="R4" t="n">
-        <v>893.2769546529786</v>
+        <v>802.2358682746319</v>
       </c>
       <c r="S4" t="n">
-        <v>893.2769546529786</v>
+        <v>802.2358682746319</v>
       </c>
       <c r="T4" t="n">
-        <v>893.2769546529786</v>
+        <v>580.3542112562361</v>
       </c>
       <c r="U4" t="n">
-        <v>893.2769546529786</v>
+        <v>580.3542112562361</v>
       </c>
       <c r="V4" t="n">
-        <v>893.2769546529786</v>
+        <v>580.3542112562361</v>
       </c>
       <c r="W4" t="n">
-        <v>893.2769546529786</v>
+        <v>580.3542112562361</v>
       </c>
       <c r="X4" t="n">
-        <v>893.2769546529786</v>
+        <v>580.3542112562361</v>
       </c>
       <c r="Y4" t="n">
-        <v>893.2769546529786</v>
+        <v>580.3542112562361</v>
       </c>
     </row>
     <row r="5">
@@ -4541,76 +4541,76 @@
         </is>
       </c>
       <c r="B5" t="n">
-        <v>1144.379366334374</v>
+        <v>1295.236214140706</v>
       </c>
       <c r="C5" t="n">
-        <v>1144.379366334374</v>
+        <v>926.2736972002947</v>
       </c>
       <c r="D5" t="n">
-        <v>786.1136677276231</v>
+        <v>568.0079985935442</v>
       </c>
       <c r="E5" t="n">
-        <v>786.1136677276231</v>
+        <v>182.2197459953</v>
       </c>
       <c r="F5" t="n">
-        <v>375.1277629380156</v>
+        <v>175.2742452460965</v>
       </c>
       <c r="G5" t="n">
-        <v>364.0957168234162</v>
+        <v>164.2421991314971</v>
       </c>
       <c r="H5" t="n">
-        <v>66.5121164321834</v>
+        <v>66.51211643218343</v>
       </c>
       <c r="I5" t="n">
-        <v>66.5121164321834</v>
+        <v>66.51211643218343</v>
       </c>
       <c r="J5" t="n">
-        <v>255.3912473912089</v>
+        <v>255.3912473912096</v>
       </c>
       <c r="K5" t="n">
-        <v>589.2106210810555</v>
+        <v>589.2106210810564</v>
       </c>
       <c r="L5" t="n">
-        <v>1040.244834329464</v>
+        <v>1040.244834329465</v>
       </c>
       <c r="M5" t="n">
-        <v>1573.776739001388</v>
+        <v>1573.776739001389</v>
       </c>
       <c r="N5" t="n">
-        <v>2120.555556060171</v>
+        <v>2120.555556060172</v>
       </c>
       <c r="O5" t="n">
-        <v>2623.528026939508</v>
+        <v>2623.528026939509</v>
       </c>
       <c r="P5" t="n">
-        <v>3018.302393296686</v>
+        <v>3018.302393296687</v>
       </c>
       <c r="Q5" t="n">
-        <v>3266.588755052368</v>
+        <v>3266.588755052369</v>
       </c>
       <c r="R5" t="n">
-        <v>3325.60582160917</v>
+        <v>3325.605821609171</v>
       </c>
       <c r="S5" t="n">
-        <v>3215.315153136265</v>
+        <v>3215.315153136266</v>
       </c>
       <c r="T5" t="n">
-        <v>3009.337405520487</v>
+        <v>3009.337405520489</v>
       </c>
       <c r="U5" t="n">
-        <v>2755.806928794324</v>
+        <v>2755.806928794325</v>
       </c>
       <c r="V5" t="n">
-        <v>2647.352951905501</v>
+        <v>2424.744041450754</v>
       </c>
       <c r="W5" t="n">
-        <v>2294.584296635387</v>
+        <v>2071.97538618064</v>
       </c>
       <c r="X5" t="n">
-        <v>1921.118538374307</v>
+        <v>2071.97538618064</v>
       </c>
       <c r="Y5" t="n">
-        <v>1530.979206398495</v>
+        <v>1681.836054204828</v>
       </c>
     </row>
     <row r="6">
@@ -4620,10 +4620,10 @@
         </is>
       </c>
       <c r="B6" t="n">
-        <v>941.5438544811087</v>
+        <v>941.5438544811086</v>
       </c>
       <c r="C6" t="n">
-        <v>767.0908251999817</v>
+        <v>767.0908251999816</v>
       </c>
       <c r="D6" t="n">
         <v>618.1564155387305</v>
@@ -4632,46 +4632,46 @@
         <v>458.9189605332749</v>
       </c>
       <c r="F6" t="n">
-        <v>312.3844025601599</v>
+        <v>312.38440256016</v>
       </c>
       <c r="G6" t="n">
-        <v>176.0213023927779</v>
+        <v>176.0213023927786</v>
       </c>
       <c r="H6" t="n">
-        <v>85.51940803064545</v>
+        <v>85.51940803064583</v>
       </c>
       <c r="I6" t="n">
-        <v>66.5121164321834</v>
+        <v>66.51211643218342</v>
       </c>
       <c r="J6" t="n">
-        <v>160.1893859228007</v>
+        <v>160.189385922801</v>
       </c>
       <c r="K6" t="n">
-        <v>398.4535849031479</v>
+        <v>398.4535849031481</v>
       </c>
       <c r="L6" t="n">
-        <v>765.1517452158132</v>
+        <v>765.1517452158135</v>
       </c>
       <c r="M6" t="n">
         <v>1212.428070438129</v>
       </c>
       <c r="N6" t="n">
-        <v>1685.951113992583</v>
+        <v>1685.951113992584</v>
       </c>
       <c r="O6" t="n">
-        <v>2096.912393410638</v>
+        <v>2096.912393410639</v>
       </c>
       <c r="P6" t="n">
-        <v>2407.411984886741</v>
+        <v>2407.411984886742</v>
       </c>
       <c r="Q6" t="n">
         <v>2565.053542533341</v>
       </c>
       <c r="R6" t="n">
-        <v>2564.909189125856</v>
+        <v>2564.909189125857</v>
       </c>
       <c r="S6" t="n">
-        <v>2435.471302619336</v>
+        <v>2435.471302619337</v>
       </c>
       <c r="T6" t="n">
         <v>2242.828302297192</v>
@@ -4699,76 +4699,76 @@
         </is>
       </c>
       <c r="B7" t="n">
-        <v>163.837793613838</v>
+        <v>553.2677753977071</v>
       </c>
       <c r="C7" t="n">
-        <v>163.837793613838</v>
+        <v>384.3315924698002</v>
       </c>
       <c r="D7" t="n">
-        <v>163.837793613838</v>
+        <v>234.2149530574645</v>
       </c>
       <c r="E7" t="n">
-        <v>163.837793613838</v>
+        <v>234.2149530574645</v>
       </c>
       <c r="F7" t="n">
-        <v>163.837793613838</v>
+        <v>234.2149530574645</v>
       </c>
       <c r="G7" t="n">
-        <v>163.837793613838</v>
+        <v>66.51211643218343</v>
       </c>
       <c r="H7" t="n">
-        <v>163.837793613838</v>
+        <v>66.51211643218343</v>
       </c>
       <c r="I7" t="n">
-        <v>66.5121164321834</v>
+        <v>66.51211643218343</v>
       </c>
       <c r="J7" t="n">
-        <v>78.33486996962286</v>
+        <v>78.33486996962289</v>
       </c>
       <c r="K7" t="n">
-        <v>176.6457242372932</v>
+        <v>176.6457242372933</v>
       </c>
       <c r="L7" t="n">
         <v>332.3555681596505</v>
       </c>
       <c r="M7" t="n">
-        <v>499.7880494588483</v>
+        <v>499.7880494588484</v>
       </c>
       <c r="N7" t="n">
-        <v>671.0968864886958</v>
+        <v>671.0968864886959</v>
       </c>
       <c r="O7" t="n">
-        <v>809.0152357068855</v>
+        <v>809.0152357068856</v>
       </c>
       <c r="P7" t="n">
-        <v>907.9662384596442</v>
+        <v>907.9662384596443</v>
       </c>
       <c r="Q7" t="n">
-        <v>920.8870058181849</v>
+        <v>920.887005818185</v>
       </c>
       <c r="R7" t="n">
-        <v>920.8870058181849</v>
+        <v>920.887005818185</v>
       </c>
       <c r="S7" t="n">
-        <v>920.8870058181849</v>
+        <v>920.887005818185</v>
       </c>
       <c r="T7" t="n">
-        <v>920.8870058181849</v>
+        <v>920.887005818185</v>
       </c>
       <c r="U7" t="n">
-        <v>631.7841389438285</v>
+        <v>920.887005818185</v>
       </c>
       <c r="V7" t="n">
-        <v>631.7841389438285</v>
+        <v>734.9162402279468</v>
       </c>
       <c r="W7" t="n">
-        <v>345.4862584440777</v>
+        <v>734.9162402279468</v>
       </c>
       <c r="X7" t="n">
-        <v>345.4862584440777</v>
+        <v>734.9162402279468</v>
       </c>
       <c r="Y7" t="n">
-        <v>345.4862584440777</v>
+        <v>734.9162402279468</v>
       </c>
     </row>
     <row r="8">
@@ -4778,13 +4778,13 @@
         </is>
       </c>
       <c r="B8" t="n">
-        <v>1959.379186075721</v>
+        <v>1986.901740067214</v>
       </c>
       <c r="C8" t="n">
-        <v>1590.416669135309</v>
+        <v>1617.939223126803</v>
       </c>
       <c r="D8" t="n">
-        <v>1232.150970528558</v>
+        <v>1617.939223126803</v>
       </c>
       <c r="E8" t="n">
         <v>1232.150970528558</v>
@@ -4799,7 +4799,7 @@
         <v>108.5090151927147</v>
       </c>
       <c r="I8" t="n">
-        <v>66.5121164321834</v>
+        <v>66.51211643218339</v>
       </c>
       <c r="J8" t="n">
         <v>255.3912473912088</v>
@@ -4808,46 +4808,46 @@
         <v>589.2106210810553</v>
       </c>
       <c r="L8" t="n">
-        <v>1040.244834329464</v>
+        <v>1040.244834329463</v>
       </c>
       <c r="M8" t="n">
-        <v>1573.776739001388</v>
+        <v>1573.776739001387</v>
       </c>
       <c r="N8" t="n">
-        <v>2120.555556060171</v>
+        <v>2120.55555606017</v>
       </c>
       <c r="O8" t="n">
-        <v>2623.528026939508</v>
+        <v>2623.528026939507</v>
       </c>
       <c r="P8" t="n">
         <v>3018.302393296685</v>
       </c>
       <c r="Q8" t="n">
-        <v>3266.588755052368</v>
+        <v>3266.588755052367</v>
       </c>
       <c r="R8" t="n">
         <v>3325.60582160917</v>
       </c>
       <c r="S8" t="n">
-        <v>3325.60582160917</v>
+        <v>3215.315153136265</v>
       </c>
       <c r="T8" t="n">
-        <v>3119.628073993392</v>
+        <v>3009.337405520487</v>
       </c>
       <c r="U8" t="n">
-        <v>2866.097597267229</v>
+        <v>2755.806928794323</v>
       </c>
       <c r="V8" t="n">
-        <v>2736.118358115654</v>
+        <v>2424.744041450752</v>
       </c>
       <c r="W8" t="n">
-        <v>2736.118358115654</v>
+        <v>2373.501580131336</v>
       </c>
       <c r="X8" t="n">
-        <v>2736.118358115654</v>
+        <v>2373.501580131336</v>
       </c>
       <c r="Y8" t="n">
-        <v>2345.979026139843</v>
+        <v>2373.501580131336</v>
       </c>
     </row>
     <row r="9">
@@ -4878,13 +4878,13 @@
         <v>85.51940803064576</v>
       </c>
       <c r="I9" t="n">
-        <v>66.5121164321834</v>
+        <v>66.51211643218339</v>
       </c>
       <c r="J9" t="n">
-        <v>160.1893859228007</v>
+        <v>160.1893859228006</v>
       </c>
       <c r="K9" t="n">
-        <v>398.4535849031479</v>
+        <v>398.4535849031475</v>
       </c>
       <c r="L9" t="n">
         <v>765.151745215813</v>
@@ -4936,31 +4936,31 @@
         </is>
       </c>
       <c r="B10" t="n">
-        <v>666.202517612298</v>
+        <v>66.51211643218339</v>
       </c>
       <c r="C10" t="n">
-        <v>497.2663346843912</v>
+        <v>66.51211643218339</v>
       </c>
       <c r="D10" t="n">
-        <v>347.1496952720554</v>
+        <v>66.51211643218339</v>
       </c>
       <c r="E10" t="n">
-        <v>212.7293032143256</v>
+        <v>66.51211643218339</v>
       </c>
       <c r="F10" t="n">
-        <v>212.7293032143256</v>
+        <v>66.51211643218339</v>
       </c>
       <c r="G10" t="n">
-        <v>212.7293032143256</v>
+        <v>66.51211643218339</v>
       </c>
       <c r="H10" t="n">
-        <v>66.5121164321834</v>
+        <v>66.51211643218339</v>
       </c>
       <c r="I10" t="n">
-        <v>66.5121164321834</v>
+        <v>66.51211643218339</v>
       </c>
       <c r="J10" t="n">
-        <v>78.33486996962286</v>
+        <v>78.33486996962284</v>
       </c>
       <c r="K10" t="n">
         <v>176.6457242372932</v>
@@ -4999,13 +4999,13 @@
         <v>666.202517612298</v>
       </c>
       <c r="W10" t="n">
-        <v>666.202517612298</v>
+        <v>376.7853475753374</v>
       </c>
       <c r="X10" t="n">
-        <v>666.202517612298</v>
+        <v>148.7957966773201</v>
       </c>
       <c r="Y10" t="n">
-        <v>666.202517612298</v>
+        <v>66.51211643218339</v>
       </c>
     </row>
     <row r="11">
@@ -5015,13 +5015,13 @@
         </is>
       </c>
       <c r="B11" t="n">
-        <v>2317.776026551875</v>
+        <v>2317.776026551874</v>
       </c>
       <c r="C11" t="n">
-        <v>1948.813509611463</v>
+        <v>1948.813509611462</v>
       </c>
       <c r="D11" t="n">
-        <v>1590.547811004712</v>
+        <v>1590.547811004713</v>
       </c>
       <c r="E11" t="n">
         <v>1204.759558406469</v>
@@ -5033,7 +5033,7 @@
         <v>379.8308874362686</v>
       </c>
       <c r="H11" t="n">
-        <v>93.81666304797187</v>
+        <v>93.81666304797186</v>
       </c>
       <c r="I11" t="n">
         <v>95.34095638192593</v>
@@ -5045,46 +5045,46 @@
         <v>852.8523611075807</v>
       </c>
       <c r="L11" t="n">
-        <v>1478.611553332387</v>
+        <v>1478.611553332386</v>
       </c>
       <c r="M11" t="n">
-        <v>2206.558663014779</v>
+        <v>2206.558663014778</v>
       </c>
       <c r="N11" t="n">
-        <v>2950.898526355937</v>
+        <v>2950.898526355936</v>
       </c>
       <c r="O11" t="n">
-        <v>3640.42229106801</v>
+        <v>3640.422291068009</v>
       </c>
       <c r="P11" t="n">
         <v>4194.413870694707</v>
       </c>
       <c r="Q11" t="n">
-        <v>4562.265728852255</v>
+        <v>4562.265728852254</v>
       </c>
       <c r="R11" t="n">
         <v>4690.833152398593</v>
       </c>
       <c r="S11" t="n">
-        <v>4606.285157492578</v>
+        <v>4606.285157492577</v>
       </c>
       <c r="T11" t="n">
-        <v>4405.252601474784</v>
+        <v>4405.252601474783</v>
       </c>
       <c r="U11" t="n">
-        <v>4151.812499466573</v>
+        <v>4151.812499466572</v>
       </c>
       <c r="V11" t="n">
-        <v>3820.749612123002</v>
+        <v>3820.749612123001</v>
       </c>
       <c r="W11" t="n">
-        <v>3467.980956852888</v>
+        <v>3467.980956852887</v>
       </c>
       <c r="X11" t="n">
-        <v>3094.515198591808</v>
+        <v>3094.515198591807</v>
       </c>
       <c r="Y11" t="n">
-        <v>2704.375866615997</v>
+        <v>2704.375866615996</v>
       </c>
     </row>
     <row r="12">
@@ -5112,25 +5112,25 @@
         <v>178.4809954028057</v>
       </c>
       <c r="H12" t="n">
-        <v>93.81666304797187</v>
+        <v>93.81666304797186</v>
       </c>
       <c r="I12" t="n">
-        <v>93.81666304797187</v>
+        <v>95.584050252739</v>
       </c>
       <c r="J12" t="n">
-        <v>243.4633055756266</v>
+        <v>245.2306927803937</v>
       </c>
       <c r="K12" t="n">
-        <v>577.3880777468471</v>
+        <v>579.1554649516142</v>
       </c>
       <c r="L12" t="n">
-        <v>1072.713683962606</v>
+        <v>1074.481071167373</v>
       </c>
       <c r="M12" t="n">
-        <v>1268.578514636218</v>
+        <v>1671.859558793924</v>
       </c>
       <c r="N12" t="n">
-        <v>1896.176478190825</v>
+        <v>1671.859558793924</v>
       </c>
       <c r="O12" t="n">
         <v>1896.176478190825</v>
@@ -5173,13 +5173,13 @@
         </is>
       </c>
       <c r="B13" t="n">
-        <v>1098.667160263526</v>
+        <v>950.7540666811333</v>
       </c>
       <c r="C13" t="n">
-        <v>929.7309773356194</v>
+        <v>781.8178837532264</v>
       </c>
       <c r="D13" t="n">
-        <v>779.6143379232838</v>
+        <v>631.7012443408906</v>
       </c>
       <c r="E13" t="n">
         <v>631.7012443408906</v>
@@ -5194,55 +5194,55 @@
         <v>175.9033664000583</v>
       </c>
       <c r="I13" t="n">
-        <v>93.81666304797187</v>
+        <v>93.81666304797186</v>
       </c>
       <c r="J13" t="n">
         <v>174.0526814782957</v>
       </c>
       <c r="K13" t="n">
-        <v>435.7419440038342</v>
+        <v>435.741944003834</v>
       </c>
       <c r="L13" t="n">
-        <v>826.1405381797744</v>
+        <v>826.1405381797741</v>
       </c>
       <c r="M13" t="n">
         <v>1248.150240910809</v>
       </c>
       <c r="N13" t="n">
-        <v>1665.560112570817</v>
+        <v>1665.560112570815</v>
       </c>
       <c r="O13" t="n">
-        <v>2035.089393279802</v>
+        <v>2035.0893932798</v>
       </c>
       <c r="P13" t="n">
-        <v>2327.76484885336</v>
+        <v>2327.764848853359</v>
       </c>
       <c r="Q13" t="n">
-        <v>2446.96308358026</v>
+        <v>2446.963083580258</v>
       </c>
       <c r="R13" t="n">
-        <v>2379.917379832662</v>
+        <v>2379.91737983266</v>
       </c>
       <c r="S13" t="n">
-        <v>2379.917379832662</v>
+        <v>2197.062545487564</v>
       </c>
       <c r="T13" t="n">
-        <v>2379.917379832662</v>
+        <v>2186.371995553553</v>
       </c>
       <c r="U13" t="n">
-        <v>2090.84215317686</v>
+        <v>1897.296768897751</v>
       </c>
       <c r="V13" t="n">
-        <v>2018.514925172274</v>
+        <v>1642.612280691864</v>
       </c>
       <c r="W13" t="n">
-        <v>1729.097755135313</v>
+        <v>1353.195110654903</v>
       </c>
       <c r="X13" t="n">
-        <v>1501.108204237296</v>
+        <v>1353.195110654903</v>
       </c>
       <c r="Y13" t="n">
-        <v>1280.315625093766</v>
+        <v>1132.402531511373</v>
       </c>
     </row>
     <row r="14">
@@ -5258,55 +5258,55 @@
         <v>1948.813509611462</v>
       </c>
       <c r="D14" t="n">
-        <v>1590.547811004712</v>
+        <v>1590.547811004713</v>
       </c>
       <c r="E14" t="n">
-        <v>1204.759558406468</v>
+        <v>1204.759558406469</v>
       </c>
       <c r="F14" t="n">
-        <v>793.7736536168602</v>
+        <v>793.7736536168611</v>
       </c>
       <c r="G14" t="n">
         <v>379.8308874362686</v>
       </c>
       <c r="H14" t="n">
-        <v>93.81666304797187</v>
+        <v>93.81666304797186</v>
       </c>
       <c r="I14" t="n">
-        <v>95.34095638192616</v>
+        <v>95.34095638192503</v>
       </c>
       <c r="J14" t="n">
-        <v>378.1925803111717</v>
+        <v>378.1925803111712</v>
       </c>
       <c r="K14" t="n">
-        <v>852.8523611075809</v>
+        <v>852.8523611075804</v>
       </c>
       <c r="L14" t="n">
-        <v>1478.611553332387</v>
+        <v>1478.611553332386</v>
       </c>
       <c r="M14" t="n">
-        <v>2206.558663014779</v>
+        <v>2206.558663014778</v>
       </c>
       <c r="N14" t="n">
-        <v>2950.898526355937</v>
+        <v>2950.898526355936</v>
       </c>
       <c r="O14" t="n">
-        <v>3640.42229106801</v>
+        <v>3640.422291068009</v>
       </c>
       <c r="P14" t="n">
-        <v>4194.413870694707</v>
+        <v>4194.413870694706</v>
       </c>
       <c r="Q14" t="n">
-        <v>4562.265728852255</v>
+        <v>4562.265728852254</v>
       </c>
       <c r="R14" t="n">
         <v>4690.833152398593</v>
       </c>
       <c r="S14" t="n">
-        <v>4606.285157492578</v>
+        <v>4606.285157492577</v>
       </c>
       <c r="T14" t="n">
-        <v>4405.252601474784</v>
+        <v>4405.252601474783</v>
       </c>
       <c r="U14" t="n">
         <v>4151.812499466572</v>
@@ -5349,34 +5349,34 @@
         <v>178.4809954028057</v>
       </c>
       <c r="H15" t="n">
-        <v>93.81666304797187</v>
+        <v>93.81666304797186</v>
       </c>
       <c r="I15" t="n">
-        <v>93.81666304797187</v>
+        <v>95.584050252739</v>
       </c>
       <c r="J15" t="n">
-        <v>243.4633055756266</v>
+        <v>245.2306927803937</v>
       </c>
       <c r="K15" t="n">
-        <v>577.3880777468471</v>
+        <v>579.1554649516142</v>
       </c>
       <c r="L15" t="n">
-        <v>1072.713683962606</v>
+        <v>1074.481071167373</v>
       </c>
       <c r="M15" t="n">
-        <v>1072.713683962606</v>
+        <v>1671.859558793924</v>
       </c>
       <c r="N15" t="n">
-        <v>1307.627092998424</v>
+        <v>2001.151557821488</v>
       </c>
       <c r="O15" t="n">
-        <v>1859.536823237711</v>
+        <v>2553.061288060775</v>
       </c>
       <c r="P15" t="n">
-        <v>2283.159972732779</v>
+        <v>2553.061288060775</v>
       </c>
       <c r="Q15" t="n">
-        <v>2516.421633107662</v>
+        <v>2553.061288060775</v>
       </c>
       <c r="R15" t="n">
         <v>2553.061288060775</v>
@@ -5410,43 +5410,43 @@
         </is>
       </c>
       <c r="B16" t="n">
-        <v>513.8536007400717</v>
+        <v>808.8888553856859</v>
       </c>
       <c r="C16" t="n">
-        <v>344.9174178121648</v>
+        <v>639.952672457779</v>
       </c>
       <c r="D16" t="n">
-        <v>344.9174178121648</v>
+        <v>632.7243904253734</v>
       </c>
       <c r="E16" t="n">
-        <v>344.9174178121648</v>
+        <v>484.8112968429803</v>
       </c>
       <c r="F16" t="n">
-        <v>344.9174178121648</v>
+        <v>484.8112968429803</v>
       </c>
       <c r="G16" t="n">
-        <v>177.7213185270447</v>
+        <v>317.6151975578602</v>
       </c>
       <c r="H16" t="n">
         <v>175.9033664000583</v>
       </c>
       <c r="I16" t="n">
-        <v>93.81666304797187</v>
+        <v>93.81666304797186</v>
       </c>
       <c r="J16" t="n">
-        <v>174.0526814782957</v>
+        <v>174.0526814782956</v>
       </c>
       <c r="K16" t="n">
         <v>435.7419440038342</v>
       </c>
       <c r="L16" t="n">
-        <v>826.1405381797744</v>
+        <v>826.1405381797742</v>
       </c>
       <c r="M16" t="n">
         <v>1248.150240910809</v>
       </c>
       <c r="N16" t="n">
-        <v>1665.560112570817</v>
+        <v>1665.560112570818</v>
       </c>
       <c r="O16" t="n">
         <v>2035.089393279802</v>
@@ -5458,28 +5458,28 @@
         <v>2446.96308358026</v>
       </c>
       <c r="R16" t="n">
-        <v>2379.917379832663</v>
+        <v>2446.96308358026</v>
       </c>
       <c r="S16" t="n">
-        <v>2197.062545487567</v>
+        <v>2264.108249235164</v>
       </c>
       <c r="T16" t="n">
-        <v>1977.461080510508</v>
+        <v>2044.506784258106</v>
       </c>
       <c r="U16" t="n">
-        <v>1688.385853854707</v>
+        <v>1755.431557602303</v>
       </c>
       <c r="V16" t="n">
-        <v>1433.70136564882</v>
+        <v>1500.747069396416</v>
       </c>
       <c r="W16" t="n">
-        <v>1144.284195611859</v>
+        <v>1211.329899359456</v>
       </c>
       <c r="X16" t="n">
-        <v>916.2946447138415</v>
+        <v>1211.329899359456</v>
       </c>
       <c r="Y16" t="n">
-        <v>695.5020655703114</v>
+        <v>990.5373202159257</v>
       </c>
     </row>
     <row r="17">
@@ -5489,7 +5489,7 @@
         </is>
       </c>
       <c r="B17" t="n">
-        <v>2317.776026551875</v>
+        <v>2317.776026551874</v>
       </c>
       <c r="C17" t="n">
         <v>1948.813509611463</v>
@@ -5507,25 +5507,25 @@
         <v>379.8308874362686</v>
       </c>
       <c r="H17" t="n">
-        <v>93.81666304797187</v>
+        <v>93.81666304797186</v>
       </c>
       <c r="I17" t="n">
-        <v>95.34095638192593</v>
+        <v>95.34095638192591</v>
       </c>
       <c r="J17" t="n">
-        <v>378.1925803111717</v>
+        <v>378.1925803111714</v>
       </c>
       <c r="K17" t="n">
-        <v>852.8523611075813</v>
+        <v>852.8523611075805</v>
       </c>
       <c r="L17" t="n">
-        <v>1478.611553332387</v>
+        <v>1478.611553332386</v>
       </c>
       <c r="M17" t="n">
-        <v>2206.558663014779</v>
+        <v>2206.558663014778</v>
       </c>
       <c r="N17" t="n">
-        <v>2950.898526355937</v>
+        <v>2950.898526355936</v>
       </c>
       <c r="O17" t="n">
         <v>3640.42229106801</v>
@@ -5540,25 +5540,25 @@
         <v>4690.833152398593</v>
       </c>
       <c r="S17" t="n">
-        <v>4606.285157492578</v>
+        <v>4606.285157492577</v>
       </c>
       <c r="T17" t="n">
-        <v>4405.252601474784</v>
+        <v>4405.252601474783</v>
       </c>
       <c r="U17" t="n">
-        <v>4151.812499466573</v>
+        <v>4151.812499466572</v>
       </c>
       <c r="V17" t="n">
-        <v>3820.749612123002</v>
+        <v>3820.749612123001</v>
       </c>
       <c r="W17" t="n">
-        <v>3467.980956852888</v>
+        <v>3467.980956852887</v>
       </c>
       <c r="X17" t="n">
-        <v>3094.515198591808</v>
+        <v>3094.515198591807</v>
       </c>
       <c r="Y17" t="n">
-        <v>2704.375866615997</v>
+        <v>2704.375866615996</v>
       </c>
     </row>
     <row r="18">
@@ -5586,25 +5586,25 @@
         <v>178.4809954028057</v>
       </c>
       <c r="H18" t="n">
-        <v>93.81666304797187</v>
+        <v>93.81666304797186</v>
       </c>
       <c r="I18" t="n">
-        <v>93.81666304797187</v>
+        <v>95.584050252739</v>
       </c>
       <c r="J18" t="n">
-        <v>93.81666304797187</v>
+        <v>245.2306927803937</v>
       </c>
       <c r="K18" t="n">
-        <v>427.7414352191925</v>
+        <v>579.1554649516142</v>
       </c>
       <c r="L18" t="n">
-        <v>923.0670414349511</v>
+        <v>1074.481071167373</v>
       </c>
       <c r="M18" t="n">
-        <v>1520.445529061503</v>
+        <v>1501.840175011101</v>
       </c>
       <c r="N18" t="n">
-        <v>1577.52840832642</v>
+        <v>2129.438138565707</v>
       </c>
       <c r="O18" t="n">
         <v>2129.438138565707</v>
@@ -5647,40 +5647,40 @@
         </is>
       </c>
       <c r="B19" t="n">
-        <v>741.8431516380884</v>
+        <v>803.8641191832229</v>
       </c>
       <c r="C19" t="n">
-        <v>572.9069687101816</v>
+        <v>634.927936255316</v>
       </c>
       <c r="D19" t="n">
-        <v>549.6145409888042</v>
+        <v>484.8112968429803</v>
       </c>
       <c r="E19" t="n">
-        <v>549.6145409888042</v>
+        <v>484.8112968429803</v>
       </c>
       <c r="F19" t="n">
-        <v>402.7245934908938</v>
+        <v>484.8112968429803</v>
       </c>
       <c r="G19" t="n">
-        <v>235.5284942057738</v>
+        <v>317.6151975578602</v>
       </c>
       <c r="H19" t="n">
-        <v>93.81666304797187</v>
+        <v>175.9033664000583</v>
       </c>
       <c r="I19" t="n">
-        <v>93.81666304797187</v>
+        <v>93.81666304797186</v>
       </c>
       <c r="J19" t="n">
-        <v>174.0526814782957</v>
+        <v>174.0526814782956</v>
       </c>
       <c r="K19" t="n">
-        <v>435.7419440038343</v>
+        <v>435.7419440038342</v>
       </c>
       <c r="L19" t="n">
-        <v>826.1405381797745</v>
+        <v>826.1405381797742</v>
       </c>
       <c r="M19" t="n">
-        <v>1248.150240910809</v>
+        <v>1248.150240910808</v>
       </c>
       <c r="N19" t="n">
         <v>1665.560112570817</v>
@@ -5689,34 +5689,34 @@
         <v>2035.089393279802</v>
       </c>
       <c r="P19" t="n">
-        <v>2327.764848853361</v>
+        <v>2327.76484885336</v>
       </c>
       <c r="Q19" t="n">
         <v>2446.96308358026</v>
       </c>
       <c r="R19" t="n">
-        <v>2379.917379832663</v>
+        <v>2379.917379832662</v>
       </c>
       <c r="S19" t="n">
-        <v>2197.062545487567</v>
+        <v>2232.388575724832</v>
       </c>
       <c r="T19" t="n">
-        <v>1977.461080510508</v>
+        <v>2012.787110747773</v>
       </c>
       <c r="U19" t="n">
-        <v>1688.385853854706</v>
+        <v>1723.711884091971</v>
       </c>
       <c r="V19" t="n">
-        <v>1433.701365648819</v>
+        <v>1723.711884091971</v>
       </c>
       <c r="W19" t="n">
-        <v>1144.284195611858</v>
+        <v>1434.29471405501</v>
       </c>
       <c r="X19" t="n">
-        <v>1144.284195611858</v>
+        <v>1206.305163156993</v>
       </c>
       <c r="Y19" t="n">
-        <v>923.4916164683282</v>
+        <v>985.5125840134626</v>
       </c>
     </row>
     <row r="20">
@@ -5741,19 +5741,19 @@
         <v>793.7736536168611</v>
       </c>
       <c r="G20" t="n">
-        <v>379.8308874362683</v>
+        <v>379.8308874362686</v>
       </c>
       <c r="H20" t="n">
-        <v>93.8166630479716</v>
+        <v>93.81666304797186</v>
       </c>
       <c r="I20" t="n">
-        <v>95.34095638192593</v>
+        <v>95.34095638192599</v>
       </c>
       <c r="J20" t="n">
-        <v>378.192580311172</v>
+        <v>378.1925803111715</v>
       </c>
       <c r="K20" t="n">
-        <v>852.8523611075813</v>
+        <v>852.8523611075802</v>
       </c>
       <c r="L20" t="n">
         <v>1478.611553332387</v>
@@ -5765,34 +5765,34 @@
         <v>2950.898526355937</v>
       </c>
       <c r="O20" t="n">
-        <v>3640.42229106801</v>
+        <v>3640.422291068009</v>
       </c>
       <c r="P20" t="n">
         <v>4194.413870694707</v>
       </c>
       <c r="Q20" t="n">
-        <v>4562.265728852255</v>
+        <v>4562.265728852254</v>
       </c>
       <c r="R20" t="n">
         <v>4690.833152398593</v>
       </c>
       <c r="S20" t="n">
-        <v>4606.285157492578</v>
+        <v>4606.285157492577</v>
       </c>
       <c r="T20" t="n">
-        <v>4405.252601474784</v>
+        <v>4405.252601474783</v>
       </c>
       <c r="U20" t="n">
         <v>4151.812499466573</v>
       </c>
       <c r="V20" t="n">
-        <v>3820.749612123002</v>
+        <v>3820.749612123003</v>
       </c>
       <c r="W20" t="n">
-        <v>3467.980956852888</v>
+        <v>3467.980956852889</v>
       </c>
       <c r="X20" t="n">
-        <v>3094.515198591808</v>
+        <v>3094.515198591809</v>
       </c>
       <c r="Y20" t="n">
         <v>2704.375866615997</v>
@@ -5823,25 +5823,25 @@
         <v>178.4809954028057</v>
       </c>
       <c r="H21" t="n">
-        <v>93.81666304797187</v>
+        <v>93.81666304797186</v>
       </c>
       <c r="I21" t="n">
-        <v>93.81666304797187</v>
+        <v>95.58405025273902</v>
       </c>
       <c r="J21" t="n">
-        <v>93.81666304797187</v>
+        <v>245.2306927803937</v>
       </c>
       <c r="K21" t="n">
-        <v>93.81666304797187</v>
+        <v>579.1554649516142</v>
       </c>
       <c r="L21" t="n">
-        <v>589.1422692637306</v>
+        <v>1074.481071167373</v>
       </c>
       <c r="M21" t="n">
-        <v>1186.520756890282</v>
+        <v>1501.8401750111</v>
       </c>
       <c r="N21" t="n">
-        <v>1814.118720444889</v>
+        <v>2129.438138565707</v>
       </c>
       <c r="O21" t="n">
         <v>2129.438138565707</v>
@@ -5884,76 +5884,76 @@
         </is>
       </c>
       <c r="B22" t="n">
-        <v>577.8620388433917</v>
+        <v>956.9553291057241</v>
       </c>
       <c r="C22" t="n">
-        <v>408.9258559154848</v>
+        <v>788.0191461778173</v>
       </c>
       <c r="D22" t="n">
-        <v>408.9258559154848</v>
+        <v>637.9025067654817</v>
       </c>
       <c r="E22" t="n">
-        <v>261.0127623330917</v>
+        <v>489.9894131830886</v>
       </c>
       <c r="F22" t="n">
-        <v>261.0127623330917</v>
+        <v>343.0994656851783</v>
       </c>
       <c r="G22" t="n">
-        <v>93.81666304797187</v>
+        <v>175.9033664000582</v>
       </c>
       <c r="H22" t="n">
-        <v>93.81666304797187</v>
+        <v>175.9033664000582</v>
       </c>
       <c r="I22" t="n">
-        <v>93.81666304797187</v>
+        <v>93.81666304797186</v>
       </c>
       <c r="J22" t="n">
-        <v>174.0526814782957</v>
+        <v>174.0526814782958</v>
       </c>
       <c r="K22" t="n">
-        <v>435.7419440038341</v>
+        <v>435.7419440038343</v>
       </c>
       <c r="L22" t="n">
-        <v>826.1405381797742</v>
+        <v>826.1405381797745</v>
       </c>
       <c r="M22" t="n">
         <v>1248.150240910809</v>
       </c>
       <c r="N22" t="n">
-        <v>1665.560112570817</v>
+        <v>1665.560112570818</v>
       </c>
       <c r="O22" t="n">
-        <v>2035.089393279802</v>
+        <v>2035.089393279803</v>
       </c>
       <c r="P22" t="n">
         <v>2327.764848853361</v>
       </c>
       <c r="Q22" t="n">
-        <v>2446.96308358026</v>
+        <v>2446.963083580261</v>
       </c>
       <c r="R22" t="n">
-        <v>2379.917379832663</v>
+        <v>2446.963083580261</v>
       </c>
       <c r="S22" t="n">
-        <v>2261.070983590887</v>
+        <v>2264.108249235165</v>
       </c>
       <c r="T22" t="n">
-        <v>2041.469518613829</v>
+        <v>2264.108249235165</v>
       </c>
       <c r="U22" t="n">
-        <v>1752.394291958027</v>
+        <v>1975.033022579363</v>
       </c>
       <c r="V22" t="n">
-        <v>1497.70980375214</v>
+        <v>1876.803094014472</v>
       </c>
       <c r="W22" t="n">
-        <v>1208.292633715179</v>
+        <v>1587.385923977511</v>
       </c>
       <c r="X22" t="n">
-        <v>980.3030828171616</v>
+        <v>1359.396373079494</v>
       </c>
       <c r="Y22" t="n">
-        <v>759.5105036736314</v>
+        <v>1138.603793935964</v>
       </c>
     </row>
     <row r="23">
@@ -5963,10 +5963,10 @@
         </is>
       </c>
       <c r="B23" t="n">
-        <v>2317.776026551875</v>
+        <v>2317.776026551874</v>
       </c>
       <c r="C23" t="n">
-        <v>1948.813509611463</v>
+        <v>1948.813509611462</v>
       </c>
       <c r="D23" t="n">
         <v>1590.547811004712</v>
@@ -5975,10 +5975,10 @@
         <v>1204.759558406468</v>
       </c>
       <c r="F23" t="n">
-        <v>793.7736536168607</v>
+        <v>793.7736536168609</v>
       </c>
       <c r="G23" t="n">
-        <v>379.8308874362681</v>
+        <v>379.8308874362686</v>
       </c>
       <c r="H23" t="n">
         <v>93.81666304797187</v>
@@ -6020,19 +6020,19 @@
         <v>4405.252601474784</v>
       </c>
       <c r="U23" t="n">
-        <v>4151.812499466573</v>
+        <v>4151.812499466572</v>
       </c>
       <c r="V23" t="n">
-        <v>3820.749612123002</v>
+        <v>3820.749612123001</v>
       </c>
       <c r="W23" t="n">
-        <v>3467.980956852888</v>
+        <v>3467.980956852887</v>
       </c>
       <c r="X23" t="n">
-        <v>3094.515198591808</v>
+        <v>3094.515198591807</v>
       </c>
       <c r="Y23" t="n">
-        <v>2704.375866615997</v>
+        <v>2704.375866615996</v>
       </c>
     </row>
     <row r="24">
@@ -6069,22 +6069,22 @@
         <v>245.2306927803937</v>
       </c>
       <c r="K24" t="n">
-        <v>245.2306927803937</v>
+        <v>579.1554649516142</v>
       </c>
       <c r="L24" t="n">
-        <v>740.5562989961525</v>
+        <v>1074.481071167373</v>
       </c>
       <c r="M24" t="n">
-        <v>740.5562989961525</v>
+        <v>1671.859558793925</v>
       </c>
       <c r="N24" t="n">
-        <v>1344.266747951538</v>
+        <v>2299.457522348532</v>
       </c>
       <c r="O24" t="n">
-        <v>1896.176478190825</v>
+        <v>2553.061288060775</v>
       </c>
       <c r="P24" t="n">
-        <v>2319.799627685893</v>
+        <v>2553.061288060775</v>
       </c>
       <c r="Q24" t="n">
         <v>2553.061288060775</v>
@@ -6121,40 +6121,40 @@
         </is>
       </c>
       <c r="B25" t="n">
-        <v>802.9288273958734</v>
+        <v>800.6374272687975</v>
       </c>
       <c r="C25" t="n">
-        <v>633.9926444679666</v>
+        <v>631.7012443408906</v>
       </c>
       <c r="D25" t="n">
-        <v>484.8112968429803</v>
+        <v>631.7012443408906</v>
       </c>
       <c r="E25" t="n">
-        <v>484.8112968429803</v>
+        <v>631.7012443408906</v>
       </c>
       <c r="F25" t="n">
         <v>484.8112968429803</v>
       </c>
       <c r="G25" t="n">
-        <v>317.6151975578602</v>
+        <v>317.6151975578603</v>
       </c>
       <c r="H25" t="n">
         <v>175.9033664000583</v>
       </c>
       <c r="I25" t="n">
-        <v>93.81666304797187</v>
+        <v>93.81666304797189</v>
       </c>
       <c r="J25" t="n">
         <v>174.0526814782957</v>
       </c>
       <c r="K25" t="n">
-        <v>435.7419440038341</v>
+        <v>435.7419440038339</v>
       </c>
       <c r="L25" t="n">
-        <v>826.1405381797742</v>
+        <v>826.140538179774</v>
       </c>
       <c r="M25" t="n">
-        <v>1248.150240910809</v>
+        <v>1248.150240910808</v>
       </c>
       <c r="N25" t="n">
         <v>1665.560112570817</v>
@@ -6163,13 +6163,13 @@
         <v>2035.089393279802</v>
       </c>
       <c r="P25" t="n">
-        <v>2327.764848853361</v>
+        <v>2327.76484885336</v>
       </c>
       <c r="Q25" t="n">
         <v>2446.96308358026</v>
       </c>
       <c r="R25" t="n">
-        <v>2379.917379832663</v>
+        <v>2379.917379832662</v>
       </c>
       <c r="S25" t="n">
         <v>2197.062545487567</v>
@@ -6178,19 +6178,19 @@
         <v>1977.461080510508</v>
       </c>
       <c r="U25" t="n">
-        <v>1977.461080510508</v>
+        <v>1688.385853854706</v>
       </c>
       <c r="V25" t="n">
-        <v>1722.776592304621</v>
+        <v>1433.701365648819</v>
       </c>
       <c r="W25" t="n">
-        <v>1433.359422267661</v>
+        <v>1210.275442997055</v>
       </c>
       <c r="X25" t="n">
-        <v>1205.369871369643</v>
+        <v>982.2858920990374</v>
       </c>
       <c r="Y25" t="n">
-        <v>984.5772922261132</v>
+        <v>982.2858920990373</v>
       </c>
     </row>
     <row r="26">
@@ -6221,13 +6221,13 @@
         <v>93.81666304797187</v>
       </c>
       <c r="I26" t="n">
-        <v>95.34095638192548</v>
+        <v>95.34095638192593</v>
       </c>
       <c r="J26" t="n">
-        <v>378.1925803111716</v>
+        <v>378.1925803111712</v>
       </c>
       <c r="K26" t="n">
-        <v>852.8523611075808</v>
+        <v>852.8523611075805</v>
       </c>
       <c r="L26" t="n">
         <v>1478.611553332387</v>
@@ -6266,7 +6266,7 @@
         <v>3467.980956852888</v>
       </c>
       <c r="X26" t="n">
-        <v>3094.515198591808</v>
+        <v>3094.515198591809</v>
       </c>
       <c r="Y26" t="n">
         <v>2704.375866615997</v>
@@ -6300,31 +6300,31 @@
         <v>93.81666304797187</v>
       </c>
       <c r="I27" t="n">
-        <v>93.81666304797187</v>
+        <v>95.58405025273903</v>
       </c>
       <c r="J27" t="n">
-        <v>93.81666304797187</v>
+        <v>245.2306927803937</v>
       </c>
       <c r="K27" t="n">
-        <v>93.81666304797187</v>
+        <v>579.1554649516142</v>
       </c>
       <c r="L27" t="n">
-        <v>93.81666304797187</v>
+        <v>1074.481071167373</v>
       </c>
       <c r="M27" t="n">
-        <v>691.1951506745238</v>
+        <v>1671.859558793925</v>
       </c>
       <c r="N27" t="n">
-        <v>1318.79311422913</v>
+        <v>2299.457522348532</v>
       </c>
       <c r="O27" t="n">
-        <v>1870.702844468417</v>
+        <v>2553.061288060775</v>
       </c>
       <c r="P27" t="n">
-        <v>2294.325993963485</v>
+        <v>2553.061288060775</v>
       </c>
       <c r="Q27" t="n">
-        <v>2527.587654338368</v>
+        <v>2553.061288060775</v>
       </c>
       <c r="R27" t="n">
         <v>2553.061288060775</v>
@@ -6370,7 +6370,7 @@
         <v>533.5814564942655</v>
       </c>
       <c r="F28" t="n">
-        <v>411.2214559580114</v>
+        <v>411.2214559580113</v>
       </c>
       <c r="G28" t="n">
         <v>268.5553036345476</v>
@@ -6379,13 +6379,13 @@
         <v>151.373419438402</v>
       </c>
       <c r="I28" t="n">
-        <v>93.81666304797187</v>
+        <v>93.81666304797189</v>
       </c>
       <c r="J28" t="n">
-        <v>198.094482495415</v>
+        <v>198.0944824954149</v>
       </c>
       <c r="K28" t="n">
-        <v>483.8255460380729</v>
+        <v>483.8255460380728</v>
       </c>
       <c r="L28" t="n">
         <v>898.2659412311323</v>
@@ -6406,7 +6406,7 @@
         <v>2639.297491717215</v>
       </c>
       <c r="R28" t="n">
-        <v>2596.781734931274</v>
+        <v>2596.781734931273</v>
       </c>
       <c r="S28" t="n">
         <v>2438.456847547834</v>
@@ -6437,19 +6437,19 @@
         </is>
       </c>
       <c r="B29" t="n">
-        <v>2317.776026551874</v>
+        <v>2317.776026551875</v>
       </c>
       <c r="C29" t="n">
-        <v>1948.813509611462</v>
+        <v>1948.813509611463</v>
       </c>
       <c r="D29" t="n">
-        <v>1590.547811004712</v>
+        <v>1590.547811004713</v>
       </c>
       <c r="E29" t="n">
-        <v>1204.759558406468</v>
+        <v>1204.759558406469</v>
       </c>
       <c r="F29" t="n">
-        <v>793.7736536168609</v>
+        <v>793.7736536168611</v>
       </c>
       <c r="G29" t="n">
         <v>379.8308874362686</v>
@@ -6458,13 +6458,13 @@
         <v>93.81666304797187</v>
       </c>
       <c r="I29" t="n">
-        <v>95.34095638192595</v>
+        <v>95.34095638192593</v>
       </c>
       <c r="J29" t="n">
-        <v>378.1925803111715</v>
+        <v>378.192580311172</v>
       </c>
       <c r="K29" t="n">
-        <v>852.8523611075807</v>
+        <v>852.8523611075813</v>
       </c>
       <c r="L29" t="n">
         <v>1478.611553332387</v>
@@ -6494,19 +6494,19 @@
         <v>4405.252601474784</v>
       </c>
       <c r="U29" t="n">
-        <v>4151.812499466572</v>
+        <v>4151.812499466573</v>
       </c>
       <c r="V29" t="n">
-        <v>3820.749612123001</v>
+        <v>3820.749612123002</v>
       </c>
       <c r="W29" t="n">
-        <v>3467.980956852887</v>
+        <v>3467.980956852888</v>
       </c>
       <c r="X29" t="n">
-        <v>3094.515198591807</v>
+        <v>3094.515198591808</v>
       </c>
       <c r="Y29" t="n">
-        <v>2704.375866615996</v>
+        <v>2704.375866615997</v>
       </c>
     </row>
     <row r="30">
@@ -6537,25 +6537,25 @@
         <v>93.81666304797187</v>
       </c>
       <c r="I30" t="n">
-        <v>93.81666304797187</v>
+        <v>95.58405025273903</v>
       </c>
       <c r="J30" t="n">
-        <v>93.81666304797187</v>
+        <v>245.2306927803937</v>
       </c>
       <c r="K30" t="n">
-        <v>93.81666304797187</v>
+        <v>579.1554649516142</v>
       </c>
       <c r="L30" t="n">
-        <v>352.5519571452614</v>
+        <v>1074.481071167373</v>
       </c>
       <c r="M30" t="n">
-        <v>949.9304447718133</v>
+        <v>1671.859558793925</v>
       </c>
       <c r="N30" t="n">
-        <v>1577.52840832642</v>
+        <v>2299.457522348532</v>
       </c>
       <c r="O30" t="n">
-        <v>2129.438138565707</v>
+        <v>2553.061288060775</v>
       </c>
       <c r="P30" t="n">
         <v>2553.061288060775</v>
@@ -6595,37 +6595,37 @@
         </is>
       </c>
       <c r="B31" t="n">
-        <v>926.9575315319324</v>
+        <v>926.9575315319332</v>
       </c>
       <c r="C31" t="n">
-        <v>782.5512955656818</v>
+        <v>782.5512955656826</v>
       </c>
       <c r="D31" t="n">
-        <v>656.9646031150023</v>
+        <v>656.9646031150032</v>
       </c>
       <c r="E31" t="n">
-        <v>533.5814564942655</v>
+        <v>533.5814564942654</v>
       </c>
       <c r="F31" t="n">
         <v>411.2214559580113</v>
       </c>
       <c r="G31" t="n">
-        <v>268.5553036345474</v>
+        <v>268.5553036345476</v>
       </c>
       <c r="H31" t="n">
         <v>151.373419438402</v>
       </c>
       <c r="I31" t="n">
-        <v>93.81666304797189</v>
+        <v>93.81666304797187</v>
       </c>
       <c r="J31" t="n">
         <v>198.094482495415</v>
       </c>
       <c r="K31" t="n">
-        <v>483.8255460380729</v>
+        <v>483.825546038073</v>
       </c>
       <c r="L31" t="n">
-        <v>898.2659412311323</v>
+        <v>898.2659412311325</v>
       </c>
       <c r="M31" t="n">
         <v>1344.317444979286</v>
@@ -6637,25 +6637,25 @@
         <v>2179.340199382518</v>
       </c>
       <c r="P31" t="n">
-        <v>2496.057455973196</v>
+        <v>2496.057455973197</v>
       </c>
       <c r="Q31" t="n">
-        <v>2639.297491717215</v>
+        <v>2639.297491717216</v>
       </c>
       <c r="R31" t="n">
         <v>2596.781734931274</v>
       </c>
       <c r="S31" t="n">
-        <v>2438.456847547834</v>
+        <v>2438.456847547835</v>
       </c>
       <c r="T31" t="n">
         <v>2243.385329532432</v>
       </c>
       <c r="U31" t="n">
-        <v>1978.840049838285</v>
+        <v>1978.840049838286</v>
       </c>
       <c r="V31" t="n">
-        <v>1748.685508594055</v>
+        <v>1748.685508594056</v>
       </c>
       <c r="W31" t="n">
         <v>1483.798285518751</v>
@@ -6664,7 +6664,7 @@
         <v>1280.33868158239</v>
       </c>
       <c r="Y31" t="n">
-        <v>1084.076049400516</v>
+        <v>1084.076049400517</v>
       </c>
     </row>
     <row r="32">
@@ -6680,37 +6680,37 @@
         <v>1948.813509611463</v>
       </c>
       <c r="D32" t="n">
-        <v>1590.547811004712</v>
+        <v>1590.547811004713</v>
       </c>
       <c r="E32" t="n">
-        <v>1204.759558406468</v>
+        <v>1204.759558406469</v>
       </c>
       <c r="F32" t="n">
-        <v>793.7736536168607</v>
+        <v>793.7736536168611</v>
       </c>
       <c r="G32" t="n">
         <v>379.8308874362686</v>
       </c>
       <c r="H32" t="n">
-        <v>93.81666304797187</v>
+        <v>93.81666304797186</v>
       </c>
       <c r="I32" t="n">
-        <v>95.34095638192616</v>
+        <v>95.34095638192599</v>
       </c>
       <c r="J32" t="n">
-        <v>378.1925803111717</v>
+        <v>378.1925803111715</v>
       </c>
       <c r="K32" t="n">
-        <v>852.8523611075809</v>
+        <v>852.8523611075802</v>
       </c>
       <c r="L32" t="n">
         <v>1478.611553332387</v>
       </c>
       <c r="M32" t="n">
-        <v>2206.558663014779</v>
+        <v>2206.558663014778</v>
       </c>
       <c r="N32" t="n">
-        <v>2950.898526355937</v>
+        <v>2950.898526355936</v>
       </c>
       <c r="O32" t="n">
         <v>3640.42229106801</v>
@@ -6719,13 +6719,13 @@
         <v>4194.413870694707</v>
       </c>
       <c r="Q32" t="n">
-        <v>4562.265728852255</v>
+        <v>4562.265728852254</v>
       </c>
       <c r="R32" t="n">
         <v>4690.833152398593</v>
       </c>
       <c r="S32" t="n">
-        <v>4606.285157492578</v>
+        <v>4606.285157492577</v>
       </c>
       <c r="T32" t="n">
         <v>4405.252601474784</v>
@@ -6734,13 +6734,13 @@
         <v>4151.812499466573</v>
       </c>
       <c r="V32" t="n">
-        <v>3820.749612123002</v>
+        <v>3820.749612123003</v>
       </c>
       <c r="W32" t="n">
-        <v>3467.980956852888</v>
+        <v>3467.980956852889</v>
       </c>
       <c r="X32" t="n">
-        <v>3094.515198591808</v>
+        <v>3094.515198591809</v>
       </c>
       <c r="Y32" t="n">
         <v>2704.375866615997</v>
@@ -6771,10 +6771,10 @@
         <v>178.4809954028057</v>
       </c>
       <c r="H33" t="n">
-        <v>93.81666304797187</v>
+        <v>93.81666304797186</v>
       </c>
       <c r="I33" t="n">
-        <v>95.58405025273903</v>
+        <v>95.58405025273902</v>
       </c>
       <c r="J33" t="n">
         <v>245.2306927803937</v>
@@ -6832,37 +6832,37 @@
         </is>
       </c>
       <c r="B34" t="n">
-        <v>926.9575315319324</v>
+        <v>926.9575315319322</v>
       </c>
       <c r="C34" t="n">
-        <v>782.5512955656818</v>
+        <v>782.5512955656816</v>
       </c>
       <c r="D34" t="n">
-        <v>656.9646031150023</v>
+        <v>656.9646031150022</v>
       </c>
       <c r="E34" t="n">
-        <v>533.5814564942655</v>
+        <v>533.5814564942654</v>
       </c>
       <c r="F34" t="n">
         <v>411.2214559580113</v>
       </c>
       <c r="G34" t="n">
-        <v>268.5553036345476</v>
+        <v>268.5553036345475</v>
       </c>
       <c r="H34" t="n">
-        <v>151.373419438402</v>
+        <v>151.3734194384019</v>
       </c>
       <c r="I34" t="n">
-        <v>93.81666304797189</v>
+        <v>93.81666304797186</v>
       </c>
       <c r="J34" t="n">
-        <v>198.094482495415</v>
+        <v>198.0944824954151</v>
       </c>
       <c r="K34" t="n">
-        <v>483.8255460380729</v>
+        <v>483.8255460380731</v>
       </c>
       <c r="L34" t="n">
-        <v>898.2659412311324</v>
+        <v>898.2659412311325</v>
       </c>
       <c r="M34" t="n">
         <v>1344.317444979286</v>
@@ -6877,28 +6877,28 @@
         <v>2496.057455973196</v>
       </c>
       <c r="Q34" t="n">
-        <v>2639.297491717215</v>
+        <v>2639.297491717216</v>
       </c>
       <c r="R34" t="n">
-        <v>2596.781734931274</v>
+        <v>2596.781734931273</v>
       </c>
       <c r="S34" t="n">
-        <v>2438.456847547835</v>
+        <v>2438.456847547834</v>
       </c>
       <c r="T34" t="n">
         <v>2243.385329532432</v>
       </c>
       <c r="U34" t="n">
-        <v>1978.840049838286</v>
+        <v>1978.840049838285</v>
       </c>
       <c r="V34" t="n">
         <v>1748.685508594055</v>
       </c>
       <c r="W34" t="n">
-        <v>1483.798285518751</v>
+        <v>1483.79828551875</v>
       </c>
       <c r="X34" t="n">
-        <v>1280.33868158239</v>
+        <v>1280.338681582389</v>
       </c>
       <c r="Y34" t="n">
         <v>1084.076049400516</v>
@@ -6911,19 +6911,19 @@
         </is>
       </c>
       <c r="B35" t="n">
-        <v>2317.776026551875</v>
+        <v>2317.776026551874</v>
       </c>
       <c r="C35" t="n">
-        <v>1948.813509611463</v>
+        <v>1948.813509611462</v>
       </c>
       <c r="D35" t="n">
-        <v>1590.547811004713</v>
+        <v>1590.547811004712</v>
       </c>
       <c r="E35" t="n">
-        <v>1204.759558406469</v>
+        <v>1204.759558406468</v>
       </c>
       <c r="F35" t="n">
-        <v>793.7736536168613</v>
+        <v>793.7736536168609</v>
       </c>
       <c r="G35" t="n">
         <v>379.8308874362686</v>
@@ -6932,13 +6932,13 @@
         <v>93.81666304797187</v>
       </c>
       <c r="I35" t="n">
-        <v>95.34095638192595</v>
+        <v>95.3409563819265</v>
       </c>
       <c r="J35" t="n">
-        <v>378.1925803111715</v>
+        <v>378.192580311172</v>
       </c>
       <c r="K35" t="n">
-        <v>852.8523611075807</v>
+        <v>852.8523611075813</v>
       </c>
       <c r="L35" t="n">
         <v>1478.611553332387</v>
@@ -6968,19 +6968,19 @@
         <v>4405.252601474784</v>
       </c>
       <c r="U35" t="n">
-        <v>4151.812499466573</v>
+        <v>4151.812499466572</v>
       </c>
       <c r="V35" t="n">
-        <v>3820.749612123002</v>
+        <v>3820.749612123001</v>
       </c>
       <c r="W35" t="n">
-        <v>3467.980956852888</v>
+        <v>3467.980956852887</v>
       </c>
       <c r="X35" t="n">
-        <v>3094.515198591808</v>
+        <v>3094.515198591807</v>
       </c>
       <c r="Y35" t="n">
-        <v>2704.375866615997</v>
+        <v>2704.375866615996</v>
       </c>
     </row>
     <row r="36">
@@ -7069,10 +7069,10 @@
         </is>
       </c>
       <c r="B37" t="n">
-        <v>926.957531531932</v>
+        <v>926.9575315319323</v>
       </c>
       <c r="C37" t="n">
-        <v>782.5512955656814</v>
+        <v>782.5512955656816</v>
       </c>
       <c r="D37" t="n">
         <v>656.9646031150021</v>
@@ -7081,10 +7081,10 @@
         <v>533.5814564942652</v>
       </c>
       <c r="F37" t="n">
-        <v>411.2214559580112</v>
+        <v>411.2214559580111</v>
       </c>
       <c r="G37" t="n">
-        <v>268.5553036345475</v>
+        <v>268.5553036345477</v>
       </c>
       <c r="H37" t="n">
         <v>151.373419438402</v>
@@ -7093,13 +7093,13 @@
         <v>93.81666304797189</v>
       </c>
       <c r="J37" t="n">
-        <v>198.0944824954151</v>
+        <v>198.094482495415</v>
       </c>
       <c r="K37" t="n">
-        <v>483.8255460380731</v>
+        <v>483.8255460380728</v>
       </c>
       <c r="L37" t="n">
-        <v>898.2659412311324</v>
+        <v>898.265941231132</v>
       </c>
       <c r="M37" t="n">
         <v>1344.317444979286</v>
@@ -7108,37 +7108,37 @@
         <v>1785.769117656414</v>
       </c>
       <c r="O37" t="n">
-        <v>2179.340199382519</v>
+        <v>2179.340199382518</v>
       </c>
       <c r="P37" t="n">
-        <v>2496.057455973197</v>
+        <v>2496.057455973196</v>
       </c>
       <c r="Q37" t="n">
-        <v>2639.297491717216</v>
+        <v>2639.297491717215</v>
       </c>
       <c r="R37" t="n">
-        <v>2596.781734931274</v>
+        <v>2596.781734931273</v>
       </c>
       <c r="S37" t="n">
-        <v>2438.456847547835</v>
+        <v>2438.456847547834</v>
       </c>
       <c r="T37" t="n">
-        <v>2243.385329532432</v>
+        <v>2243.385329532431</v>
       </c>
       <c r="U37" t="n">
-        <v>1978.840049838285</v>
+        <v>1978.840049838286</v>
       </c>
       <c r="V37" t="n">
-        <v>1748.685508594054</v>
+        <v>1748.685508594055</v>
       </c>
       <c r="W37" t="n">
-        <v>1483.79828551875</v>
+        <v>1483.798285518751</v>
       </c>
       <c r="X37" t="n">
-        <v>1280.338681582389</v>
+        <v>1280.33868158239</v>
       </c>
       <c r="Y37" t="n">
-        <v>1084.076049400515</v>
+        <v>1084.076049400516</v>
       </c>
     </row>
     <row r="38">
@@ -7148,19 +7148,19 @@
         </is>
       </c>
       <c r="B38" t="n">
-        <v>2317.776026551875</v>
+        <v>2317.776026551874</v>
       </c>
       <c r="C38" t="n">
-        <v>1948.813509611463</v>
+        <v>1948.813509611462</v>
       </c>
       <c r="D38" t="n">
-        <v>1590.547811004713</v>
+        <v>1590.547811004712</v>
       </c>
       <c r="E38" t="n">
-        <v>1204.759558406469</v>
+        <v>1204.759558406468</v>
       </c>
       <c r="F38" t="n">
-        <v>793.7736536168613</v>
+        <v>793.7736536168609</v>
       </c>
       <c r="G38" t="n">
         <v>379.8308874362686</v>
@@ -7205,19 +7205,19 @@
         <v>4405.252601474784</v>
       </c>
       <c r="U38" t="n">
-        <v>4151.812499466573</v>
+        <v>4151.812499466572</v>
       </c>
       <c r="V38" t="n">
-        <v>3820.749612123002</v>
+        <v>3820.749612123001</v>
       </c>
       <c r="W38" t="n">
-        <v>3467.980956852888</v>
+        <v>3467.980956852887</v>
       </c>
       <c r="X38" t="n">
-        <v>3094.515198591808</v>
+        <v>3094.515198591807</v>
       </c>
       <c r="Y38" t="n">
-        <v>2704.375866615997</v>
+        <v>2704.375866615996</v>
       </c>
     </row>
     <row r="39">
@@ -7260,16 +7260,16 @@
         <v>1074.481071167373</v>
       </c>
       <c r="M39" t="n">
-        <v>1074.481071167373</v>
+        <v>1671.859558793925</v>
       </c>
       <c r="N39" t="n">
-        <v>1344.266747951538</v>
+        <v>2299.457522348532</v>
       </c>
       <c r="O39" t="n">
-        <v>1896.176478190825</v>
+        <v>2553.061288060775</v>
       </c>
       <c r="P39" t="n">
-        <v>2319.799627685893</v>
+        <v>2553.061288060775</v>
       </c>
       <c r="Q39" t="n">
         <v>2553.061288060775</v>
@@ -7306,25 +7306,25 @@
         </is>
       </c>
       <c r="B40" t="n">
-        <v>926.9575315319321</v>
+        <v>926.9575315319324</v>
       </c>
       <c r="C40" t="n">
-        <v>782.5512955656815</v>
+        <v>782.5512955656818</v>
       </c>
       <c r="D40" t="n">
-        <v>656.9646031150021</v>
+        <v>656.9646031150023</v>
       </c>
       <c r="E40" t="n">
-        <v>533.5814564942652</v>
+        <v>533.5814564942655</v>
       </c>
       <c r="F40" t="n">
-        <v>411.2214559580111</v>
+        <v>411.2214559580114</v>
       </c>
       <c r="G40" t="n">
-        <v>268.5553036345476</v>
+        <v>268.555303634548</v>
       </c>
       <c r="H40" t="n">
-        <v>151.373419438402</v>
+        <v>151.3734194384024</v>
       </c>
       <c r="I40" t="n">
         <v>93.81666304797189</v>
@@ -7333,7 +7333,7 @@
         <v>198.094482495415</v>
       </c>
       <c r="K40" t="n">
-        <v>483.825546038073</v>
+        <v>483.8255460380729</v>
       </c>
       <c r="L40" t="n">
         <v>898.2659412311324</v>
@@ -7357,22 +7357,22 @@
         <v>2596.781734931274</v>
       </c>
       <c r="S40" t="n">
-        <v>2438.456847547835</v>
+        <v>2438.456847547834</v>
       </c>
       <c r="T40" t="n">
         <v>2243.385329532432</v>
       </c>
       <c r="U40" t="n">
-        <v>1978.840049838285</v>
+        <v>1978.840049838286</v>
       </c>
       <c r="V40" t="n">
         <v>1748.685508594055</v>
       </c>
       <c r="W40" t="n">
-        <v>1483.79828551875</v>
+        <v>1483.798285518751</v>
       </c>
       <c r="X40" t="n">
-        <v>1280.338681582389</v>
+        <v>1280.33868158239</v>
       </c>
       <c r="Y40" t="n">
         <v>1084.076049400516</v>
@@ -7406,7 +7406,7 @@
         <v>93.81666304797187</v>
       </c>
       <c r="I41" t="n">
-        <v>95.3409563819265</v>
+        <v>95.34095638192595</v>
       </c>
       <c r="J41" t="n">
         <v>378.192580311172</v>
@@ -7549,13 +7549,13 @@
         <v>782.5512955656814</v>
       </c>
       <c r="D43" t="n">
-        <v>656.9646031150019</v>
+        <v>656.9646031150022</v>
       </c>
       <c r="E43" t="n">
-        <v>533.581456494265</v>
+        <v>533.5814564942654</v>
       </c>
       <c r="F43" t="n">
-        <v>411.2214559580109</v>
+        <v>411.2214559580113</v>
       </c>
       <c r="G43" t="n">
         <v>268.5553036345476</v>
@@ -7567,13 +7567,13 @@
         <v>93.81666304797189</v>
       </c>
       <c r="J43" t="n">
-        <v>198.094482495415</v>
+        <v>198.0944824954151</v>
       </c>
       <c r="K43" t="n">
-        <v>483.8255460380728</v>
+        <v>483.8255460380731</v>
       </c>
       <c r="L43" t="n">
-        <v>898.2659412311323</v>
+        <v>898.2659412311325</v>
       </c>
       <c r="M43" t="n">
         <v>1344.317444979286</v>
@@ -7591,10 +7591,10 @@
         <v>2639.297491717215</v>
       </c>
       <c r="R43" t="n">
-        <v>2596.781734931274</v>
+        <v>2596.781734931273</v>
       </c>
       <c r="S43" t="n">
-        <v>2438.456847547835</v>
+        <v>2438.456847547834</v>
       </c>
       <c r="T43" t="n">
         <v>2243.385329532432</v>
@@ -7725,28 +7725,28 @@
         <v>95.58405025273903</v>
       </c>
       <c r="J45" t="n">
-        <v>245.2306927803937</v>
+        <v>95.58405025273903</v>
       </c>
       <c r="K45" t="n">
-        <v>579.1554649516142</v>
+        <v>95.58405025273903</v>
       </c>
       <c r="L45" t="n">
-        <v>1074.481071167373</v>
+        <v>590.9096564684977</v>
       </c>
       <c r="M45" t="n">
-        <v>1671.859558793925</v>
+        <v>1188.28814409505</v>
       </c>
       <c r="N45" t="n">
-        <v>2129.438138565707</v>
+        <v>1815.886107649656</v>
       </c>
       <c r="O45" t="n">
-        <v>2129.438138565707</v>
+        <v>1859.536823237711</v>
       </c>
       <c r="P45" t="n">
-        <v>2553.061288060775</v>
+        <v>2283.159972732779</v>
       </c>
       <c r="Q45" t="n">
-        <v>2553.061288060775</v>
+        <v>2516.421633107662</v>
       </c>
       <c r="R45" t="n">
         <v>2553.061288060775</v>
@@ -7780,22 +7780,22 @@
         </is>
       </c>
       <c r="B46" t="n">
-        <v>926.9575315319324</v>
+        <v>926.9575315319325</v>
       </c>
       <c r="C46" t="n">
-        <v>782.5512955656818</v>
+        <v>782.5512955656819</v>
       </c>
       <c r="D46" t="n">
-        <v>656.9646031150023</v>
+        <v>656.9646031150024</v>
       </c>
       <c r="E46" t="n">
-        <v>533.5814564942655</v>
+        <v>533.5814564942656</v>
       </c>
       <c r="F46" t="n">
-        <v>411.2214559580113</v>
+        <v>411.2214559580115</v>
       </c>
       <c r="G46" t="n">
-        <v>268.5553036345476</v>
+        <v>268.5553036345477</v>
       </c>
       <c r="H46" t="n">
         <v>151.373419438402</v>
@@ -22544,7 +22544,7 @@
         </is>
       </c>
       <c r="B2" t="n">
-        <v>0</v>
+        <v>382.7338416634806</v>
       </c>
       <c r="C2" t="n">
         <v>0</v>
@@ -22553,19 +22553,19 @@
         <v>0</v>
       </c>
       <c r="E2" t="n">
-        <v>0</v>
+        <v>381.9303700722618</v>
       </c>
       <c r="F2" t="n">
-        <v>406.8760457417114</v>
+        <v>264.5249025926671</v>
       </c>
       <c r="G2" t="n">
-        <v>37.11996887520207</v>
+        <v>410.9811492522526</v>
       </c>
       <c r="H2" t="n">
-        <v>295.2163363185219</v>
+        <v>0</v>
       </c>
       <c r="I2" t="n">
-        <v>43.86785806562904</v>
+        <v>43.86785806562892</v>
       </c>
       <c r="J2" t="n">
         <v>0</v>
@@ -22595,10 +22595,10 @@
         <v>0</v>
       </c>
       <c r="S2" t="n">
-        <v>110.5418770458108</v>
+        <v>0</v>
       </c>
       <c r="T2" t="n">
-        <v>204.1780969433633</v>
+        <v>0</v>
       </c>
       <c r="U2" t="n">
         <v>0</v>
@@ -22613,7 +22613,7 @@
         <v>0</v>
       </c>
       <c r="Y2" t="n">
-        <v>386.2379386560536</v>
+        <v>0</v>
       </c>
     </row>
     <row r="3">
@@ -22629,13 +22629,13 @@
         <v>0</v>
       </c>
       <c r="D3" t="n">
-        <v>0</v>
+        <v>52.21325120110353</v>
       </c>
       <c r="E3" t="n">
         <v>0</v>
       </c>
       <c r="F3" t="n">
-        <v>52.21325120110565</v>
+        <v>0</v>
       </c>
       <c r="G3" t="n">
         <v>0</v>
@@ -22702,10 +22702,10 @@
         </is>
       </c>
       <c r="B4" t="n">
-        <v>0</v>
+        <v>110.1641534855133</v>
       </c>
       <c r="C4" t="n">
-        <v>0</v>
+        <v>167.2468210986278</v>
       </c>
       <c r="D4" t="n">
         <v>0</v>
@@ -22717,13 +22717,13 @@
         <v>0</v>
       </c>
       <c r="G4" t="n">
-        <v>133.6699222610851</v>
+        <v>166.0524636397191</v>
       </c>
       <c r="H4" t="n">
-        <v>144.9920054808266</v>
+        <v>144.9920054808265</v>
       </c>
       <c r="I4" t="n">
-        <v>97.15402040370429</v>
+        <v>97.15402040370427</v>
       </c>
       <c r="J4" t="n">
         <v>0</v>
@@ -22750,13 +22750,13 @@
         <v>0</v>
       </c>
       <c r="R4" t="n">
-        <v>90.13067551456432</v>
+        <v>0</v>
       </c>
       <c r="S4" t="n">
-        <v>190.2335559203904</v>
+        <v>190.2335559203903</v>
       </c>
       <c r="T4" t="n">
-        <v>219.6628404482119</v>
+        <v>0</v>
       </c>
       <c r="U4" t="n">
         <v>286.2132921354687</v>
@@ -23422,7 +23422,7 @@
         <v>0</v>
       </c>
       <c r="E13" t="n">
-        <v>0</v>
+        <v>146.4339626465692</v>
       </c>
       <c r="F13" t="n">
         <v>0</v>
@@ -23464,22 +23464,22 @@
         <v>0</v>
       </c>
       <c r="S13" t="n">
-        <v>181.0262860016446</v>
+        <v>0</v>
       </c>
       <c r="T13" t="n">
-        <v>217.4054503272883</v>
+        <v>206.8218058926168</v>
       </c>
       <c r="U13" t="n">
         <v>0</v>
       </c>
       <c r="V13" t="n">
-        <v>180.5336875992876</v>
+        <v>0</v>
       </c>
       <c r="W13" t="n">
         <v>0</v>
       </c>
       <c r="X13" t="n">
-        <v>0</v>
+        <v>225.7096553890372</v>
       </c>
       <c r="Y13" t="n">
         <v>0</v>
@@ -23656,10 +23656,10 @@
         <v>0</v>
       </c>
       <c r="D16" t="n">
-        <v>148.6154730182124</v>
+        <v>141.4594738061309</v>
       </c>
       <c r="E16" t="n">
-        <v>146.4339626465692</v>
+        <v>0</v>
       </c>
       <c r="F16" t="n">
         <v>145.4210480229312</v>
@@ -23668,7 +23668,7 @@
         <v>0</v>
       </c>
       <c r="H16" t="n">
-        <v>138.4949402405073</v>
+        <v>0</v>
       </c>
       <c r="I16" t="n">
         <v>0</v>
@@ -23698,7 +23698,7 @@
         <v>0</v>
       </c>
       <c r="R16" t="n">
-        <v>0</v>
+        <v>66.3752467101217</v>
       </c>
       <c r="S16" t="n">
         <v>0</v>
@@ -23716,7 +23716,7 @@
         <v>0</v>
       </c>
       <c r="X16" t="n">
-        <v>0</v>
+        <v>225.7096553890372</v>
       </c>
       <c r="Y16" t="n">
         <v>0</v>
@@ -23893,13 +23893,13 @@
         <v>0</v>
       </c>
       <c r="D19" t="n">
-        <v>125.5559695740487</v>
+        <v>0</v>
       </c>
       <c r="E19" t="n">
         <v>146.4339626465692</v>
       </c>
       <c r="F19" t="n">
-        <v>0</v>
+        <v>145.4210480229312</v>
       </c>
       <c r="G19" t="n">
         <v>0</v>
@@ -23908,7 +23908,7 @@
         <v>0</v>
       </c>
       <c r="I19" t="n">
-        <v>81.26583631856553</v>
+        <v>0</v>
       </c>
       <c r="J19" t="n">
         <v>0</v>
@@ -23938,7 +23938,7 @@
         <v>0</v>
       </c>
       <c r="S19" t="n">
-        <v>0</v>
+        <v>34.97276993489277</v>
       </c>
       <c r="T19" t="n">
         <v>0</v>
@@ -23947,13 +23947,13 @@
         <v>0</v>
       </c>
       <c r="V19" t="n">
-        <v>0</v>
+        <v>252.137643323828</v>
       </c>
       <c r="W19" t="n">
         <v>0</v>
       </c>
       <c r="X19" t="n">
-        <v>225.7096553890372</v>
+        <v>0</v>
       </c>
       <c r="Y19" t="n">
         <v>0</v>
@@ -24130,22 +24130,22 @@
         <v>0</v>
       </c>
       <c r="D22" t="n">
-        <v>148.6154730182124</v>
+        <v>0</v>
       </c>
       <c r="E22" t="n">
         <v>0</v>
       </c>
       <c r="F22" t="n">
-        <v>145.4210480229312</v>
+        <v>0</v>
       </c>
       <c r="G22" t="n">
         <v>0</v>
       </c>
       <c r="H22" t="n">
-        <v>140.2947128462239</v>
+        <v>140.2947128462238</v>
       </c>
       <c r="I22" t="n">
-        <v>81.26583631856553</v>
+        <v>0</v>
       </c>
       <c r="J22" t="n">
         <v>0</v>
@@ -24172,19 +24172,19 @@
         <v>0</v>
       </c>
       <c r="R22" t="n">
-        <v>0</v>
+        <v>66.37524671012162</v>
       </c>
       <c r="S22" t="n">
-        <v>63.36835372228688</v>
+        <v>0</v>
       </c>
       <c r="T22" t="n">
-        <v>0</v>
+        <v>217.4054503272882</v>
       </c>
       <c r="U22" t="n">
         <v>0</v>
       </c>
       <c r="V22" t="n">
-        <v>0</v>
+        <v>154.8900140445857</v>
       </c>
       <c r="W22" t="n">
         <v>0</v>
@@ -24367,13 +24367,13 @@
         <v>0</v>
       </c>
       <c r="D25" t="n">
-        <v>0.925938869475857</v>
+        <v>148.6154730182124</v>
       </c>
       <c r="E25" t="n">
         <v>146.4339626465692</v>
       </c>
       <c r="F25" t="n">
-        <v>145.4210480229312</v>
+        <v>0</v>
       </c>
       <c r="G25" t="n">
         <v>0</v>
@@ -24418,19 +24418,19 @@
         <v>0</v>
       </c>
       <c r="U25" t="n">
-        <v>286.1844743892441</v>
+        <v>0</v>
       </c>
       <c r="V25" t="n">
         <v>0</v>
       </c>
       <c r="W25" t="n">
-        <v>0</v>
+        <v>65.33133491134438</v>
       </c>
       <c r="X25" t="n">
         <v>0</v>
       </c>
       <c r="Y25" t="n">
-        <v>0</v>
+        <v>218.5846533520948</v>
       </c>
     </row>
     <row r="26">
@@ -26311,7 +26311,7 @@
         </is>
       </c>
       <c r="B2" t="n">
-        <v>16230.4555807183</v>
+        <v>16230.45558071831</v>
       </c>
       <c r="C2" t="n">
         <v>20526.04424660709</v>
@@ -26323,10 +26323,10 @@
         <v>20178.66499225015</v>
       </c>
       <c r="F2" t="n">
-        <v>20178.66499225016</v>
+        <v>20178.66499225015</v>
       </c>
       <c r="G2" t="n">
-        <v>20178.66499225016</v>
+        <v>20178.66499225015</v>
       </c>
       <c r="H2" t="n">
         <v>20178.66499225015</v>
@@ -26335,19 +26335,19 @@
         <v>20178.66499225015</v>
       </c>
       <c r="J2" t="n">
-        <v>20526.0442466071</v>
+        <v>20526.04424660708</v>
       </c>
       <c r="K2" t="n">
-        <v>20526.0442466071</v>
+        <v>20526.04424660709</v>
       </c>
       <c r="L2" t="n">
         <v>20526.04424660709</v>
       </c>
       <c r="M2" t="n">
+        <v>20526.0442466071</v>
+      </c>
+      <c r="N2" t="n">
         <v>20526.04424660709</v>
-      </c>
-      <c r="N2" t="n">
-        <v>20526.0442466071</v>
       </c>
       <c r="O2" t="n">
         <v>20526.0442466071</v>
@@ -26363,16 +26363,16 @@
         </is>
       </c>
       <c r="B3" t="n">
-        <v>1308430.533701948</v>
+        <v>1308430.533701949</v>
       </c>
       <c r="C3" t="n">
-        <v>19312.30676833895</v>
+        <v>19312.30676833837</v>
       </c>
       <c r="D3" t="n">
         <v>0</v>
       </c>
       <c r="E3" t="n">
-        <v>325412.4618073552</v>
+        <v>325412.461807355</v>
       </c>
       <c r="F3" t="n">
         <v>0</v>
@@ -26381,28 +26381,28 @@
         <v>0</v>
       </c>
       <c r="H3" t="n">
-        <v>0</v>
+        <v>5.684341886080801e-11</v>
       </c>
       <c r="I3" t="n">
         <v>0</v>
       </c>
       <c r="J3" t="n">
-        <v>232219.4755097967</v>
+        <v>232219.4755097968</v>
       </c>
       <c r="K3" t="n">
-        <v>4661.989000940795</v>
+        <v>4661.989000940849</v>
       </c>
       <c r="L3" t="n">
         <v>0</v>
       </c>
       <c r="M3" t="n">
-        <v>85055.02793551187</v>
+        <v>85055.0279355119</v>
       </c>
       <c r="N3" t="n">
         <v>0</v>
       </c>
       <c r="O3" t="n">
-        <v>19427.71799363176</v>
+        <v>19427.71799363179</v>
       </c>
       <c r="P3" t="n">
         <v>0</v>
@@ -26415,46 +26415,46 @@
         </is>
       </c>
       <c r="B4" t="n">
-        <v>572.0114859742</v>
+        <v>572.0114859742005</v>
       </c>
       <c r="C4" t="n">
-        <v>93596.74410405259</v>
+        <v>93596.74410405252</v>
       </c>
       <c r="D4" t="n">
-        <v>93596.74410405256</v>
+        <v>93596.7441040526</v>
       </c>
       <c r="E4" t="n">
+        <v>15436.64000687968</v>
+      </c>
+      <c r="F4" t="n">
+        <v>15436.64000687971</v>
+      </c>
+      <c r="G4" t="n">
+        <v>15436.64000687973</v>
+      </c>
+      <c r="H4" t="n">
+        <v>15436.64000687972</v>
+      </c>
+      <c r="I4" t="n">
         <v>15436.64000687967</v>
       </c>
-      <c r="F4" t="n">
-        <v>15436.64000687963</v>
-      </c>
-      <c r="G4" t="n">
-        <v>15436.64000687967</v>
-      </c>
-      <c r="H4" t="n">
-        <v>15436.64000687967</v>
-      </c>
-      <c r="I4" t="n">
-        <v>15436.64000687969</v>
-      </c>
       <c r="J4" t="n">
-        <v>23427.49926997314</v>
+        <v>23427.49926997316</v>
       </c>
       <c r="K4" t="n">
-        <v>23427.49926997314</v>
+        <v>23427.49926997315</v>
       </c>
       <c r="L4" t="n">
-        <v>23427.49926997316</v>
+        <v>23427.49926997317</v>
       </c>
       <c r="M4" t="n">
-        <v>23427.49926997314</v>
+        <v>23427.49926997312</v>
       </c>
       <c r="N4" t="n">
         <v>23427.49926997314</v>
       </c>
       <c r="O4" t="n">
-        <v>23427.49926997313</v>
+        <v>23427.49926997314</v>
       </c>
       <c r="P4" t="n">
         <v>23427.49926997313</v>
@@ -26519,37 +26519,37 @@
         </is>
       </c>
       <c r="B6" t="n">
-        <v>-1399282.453730708</v>
+        <v>-1399712.012597297</v>
       </c>
       <c r="C6" t="n">
-        <v>-200316.9471871777</v>
+        <v>-200316.9471871771</v>
       </c>
       <c r="D6" t="n">
-        <v>-181004.6404188388</v>
+        <v>-181004.6404188387</v>
       </c>
       <c r="E6" t="n">
-        <v>-421792.9666458919</v>
+        <v>-421827.7045713274</v>
       </c>
       <c r="F6" t="n">
-        <v>-96380.50483853658</v>
+        <v>-96415.24276397236</v>
       </c>
       <c r="G6" t="n">
-        <v>-96380.50483853662</v>
+        <v>-96415.24276397238</v>
       </c>
       <c r="H6" t="n">
-        <v>-96380.50483853664</v>
+        <v>-96415.24276397242</v>
       </c>
       <c r="I6" t="n">
-        <v>-96380.50483853665</v>
+        <v>-96415.24276397226</v>
       </c>
       <c r="J6" t="n">
-        <v>-338285.0463870781</v>
+        <v>-338285.0463870783</v>
       </c>
       <c r="K6" t="n">
-        <v>-110727.5598782222</v>
+        <v>-110727.5598782223</v>
       </c>
       <c r="L6" t="n">
-        <v>-106065.5708772815</v>
+        <v>-106065.5708772813</v>
       </c>
       <c r="M6" t="n">
         <v>-191120.5988127933</v>
@@ -26701,7 +26701,7 @@
         <v>0</v>
       </c>
       <c r="H2" t="n">
-        <v>0</v>
+        <v>7.105427357601002e-14</v>
       </c>
       <c r="I2" t="n">
         <v>0</v>
@@ -26710,22 +26710,22 @@
         <v>24.28464749203973</v>
       </c>
       <c r="K2" t="n">
+        <v>24.28464749203976</v>
+      </c>
+      <c r="L2" t="n">
+        <v>24.28464749203976</v>
+      </c>
+      <c r="M2" t="n">
+        <v>24.28464749203969</v>
+      </c>
+      <c r="N2" t="n">
         <v>24.28464749203973</v>
       </c>
-      <c r="L2" t="n">
-        <v>24.28464749203973</v>
-      </c>
-      <c r="M2" t="n">
-        <v>24.28464749203975</v>
-      </c>
-      <c r="N2" t="n">
+      <c r="O2" t="n">
         <v>24.28464749203974</v>
       </c>
-      <c r="O2" t="n">
-        <v>24.28464749203971</v>
-      </c>
       <c r="P2" t="n">
-        <v>24.28464749203973</v>
+        <v>24.2846474920397</v>
       </c>
     </row>
     <row r="3">
@@ -26735,7 +26735,7 @@
         </is>
       </c>
       <c r="B3" t="n">
-        <v>1074.995080392017</v>
+        <v>1074.995080392018</v>
       </c>
       <c r="C3" t="n">
         <v>1089.776700593298</v>
@@ -26787,13 +26787,13 @@
         </is>
       </c>
       <c r="B4" t="n">
-        <v>813.2873580749605</v>
+        <v>813.2873580749607</v>
       </c>
       <c r="C4" t="n">
-        <v>831.4014554022925</v>
+        <v>831.4014554022929</v>
       </c>
       <c r="D4" t="n">
-        <v>831.4014554022925</v>
+        <v>831.4014554022924</v>
       </c>
       <c r="E4" t="n">
         <v>1172.708288099648</v>
@@ -26923,7 +26923,7 @@
         <v>0</v>
       </c>
       <c r="H2" t="n">
-        <v>0</v>
+        <v>7.105427357601002e-14</v>
       </c>
       <c r="I2" t="n">
         <v>0</v>
@@ -26932,7 +26932,7 @@
         <v>24.28464749203973</v>
       </c>
       <c r="K2" t="n">
-        <v>0</v>
+        <v>3.197442310920451e-14</v>
       </c>
       <c r="L2" t="n">
         <v>0</v>
@@ -26944,7 +26944,7 @@
         <v>0</v>
       </c>
       <c r="O2" t="n">
-        <v>24.2846474920397</v>
+        <v>24.28464749203973</v>
       </c>
       <c r="P2" t="n">
         <v>0</v>
@@ -26957,16 +26957,16 @@
         </is>
       </c>
       <c r="B3" t="n">
-        <v>1074.995080392017</v>
+        <v>1074.995080392018</v>
       </c>
       <c r="C3" t="n">
-        <v>14.78162020128116</v>
+        <v>14.78162020128048</v>
       </c>
       <c r="D3" t="n">
         <v>0</v>
       </c>
       <c r="E3" t="n">
-        <v>278.1987997483754</v>
+        <v>278.1987997483752</v>
       </c>
       <c r="F3" t="n">
         <v>0</v>
@@ -27009,16 +27009,16 @@
         </is>
       </c>
       <c r="B4" t="n">
-        <v>813.2873580749605</v>
+        <v>813.2873580749607</v>
       </c>
       <c r="C4" t="n">
-        <v>18.11409732733205</v>
+        <v>18.11409732733216</v>
       </c>
       <c r="D4" t="n">
         <v>0</v>
       </c>
       <c r="E4" t="n">
-        <v>341.3068326973558</v>
+        <v>341.3068326973557</v>
       </c>
       <c r="F4" t="n">
         <v>0</v>
@@ -27033,16 +27033,16 @@
         <v>0</v>
       </c>
       <c r="J4" t="n">
-        <v>813.2873580749604</v>
+        <v>813.2873580749607</v>
       </c>
       <c r="K4" t="n">
-        <v>18.11409732733205</v>
+        <v>18.11409732733216</v>
       </c>
       <c r="L4" t="n">
         <v>0</v>
       </c>
       <c r="M4" t="n">
-        <v>341.3068326973558</v>
+        <v>341.306832697356</v>
       </c>
       <c r="N4" t="n">
         <v>0</v>
@@ -27160,7 +27160,7 @@
         <v>0</v>
       </c>
       <c r="M2" t="n">
-        <v>0</v>
+        <v>7.105427357601002e-14</v>
       </c>
       <c r="N2" t="n">
         <v>0</v>
@@ -27169,7 +27169,7 @@
         <v>24.28464749203973</v>
       </c>
       <c r="P2" t="n">
-        <v>0</v>
+        <v>3.197442310920451e-14</v>
       </c>
     </row>
     <row r="3">
@@ -27255,16 +27255,16 @@
         <v>0</v>
       </c>
       <c r="J4" t="n">
-        <v>813.2873580749605</v>
+        <v>813.2873580749607</v>
       </c>
       <c r="K4" t="n">
-        <v>18.11409732733205</v>
+        <v>18.11409732733216</v>
       </c>
       <c r="L4" t="n">
         <v>0</v>
       </c>
       <c r="M4" t="n">
-        <v>341.3068326973558</v>
+        <v>341.3068326973557</v>
       </c>
       <c r="N4" t="n">
         <v>0</v>
@@ -27616,22 +27616,22 @@
         <v>0</v>
       </c>
       <c r="C5" t="n">
-        <v>365.2728917710076</v>
+        <v>0</v>
       </c>
       <c r="D5" t="n">
         <v>0</v>
       </c>
       <c r="E5" t="n">
-        <v>381.9303700722618</v>
+        <v>0</v>
       </c>
       <c r="F5" t="n">
-        <v>0</v>
+        <v>400</v>
       </c>
       <c r="G5" t="n">
         <v>400</v>
       </c>
       <c r="H5" t="n">
-        <v>0</v>
+        <v>197.8549825149999</v>
       </c>
       <c r="I5" t="n">
         <v>41.57692977292595</v>
@@ -27673,13 +27673,13 @@
         <v>0</v>
       </c>
       <c r="V5" t="n">
-        <v>220.382821350201</v>
+        <v>0</v>
       </c>
       <c r="W5" t="n">
         <v>0</v>
       </c>
       <c r="X5" t="n">
-        <v>0</v>
+        <v>369.731100678469</v>
       </c>
       <c r="Y5" t="n">
         <v>0</v>
@@ -27774,10 +27774,10 @@
         <v>0</v>
       </c>
       <c r="C7" t="n">
-        <v>167.2468210986278</v>
+        <v>0</v>
       </c>
       <c r="D7" t="n">
-        <v>148.6154730182124</v>
+        <v>0</v>
       </c>
       <c r="E7" t="n">
         <v>146.4339626465692</v>
@@ -27786,13 +27786,13 @@
         <v>145.4210480229312</v>
       </c>
       <c r="G7" t="n">
-        <v>166.0258082590282</v>
+        <v>0</v>
       </c>
       <c r="H7" t="n">
         <v>144.7550149143208</v>
       </c>
       <c r="I7" t="n">
-        <v>0</v>
+        <v>96.35242040983809</v>
       </c>
       <c r="J7" t="n">
         <v>0</v>
@@ -27828,13 +27828,13 @@
         <v>219.5489492761692</v>
       </c>
       <c r="U7" t="n">
-        <v>0</v>
+        <v>286.2118382056129</v>
       </c>
       <c r="V7" t="n">
-        <v>252.137643323828</v>
+        <v>68.02658538949217</v>
       </c>
       <c r="W7" t="n">
-        <v>3.088096641837808</v>
+        <v>286.522998336591</v>
       </c>
       <c r="X7" t="n">
         <v>225.7096553890372</v>
@@ -27856,10 +27856,10 @@
         <v>0</v>
       </c>
       <c r="D8" t="n">
-        <v>0</v>
+        <v>354.683041620683</v>
       </c>
       <c r="E8" t="n">
-        <v>381.9303700722618</v>
+        <v>0</v>
       </c>
       <c r="F8" t="n">
         <v>0</v>
@@ -27901,7 +27901,7 @@
         <v>0</v>
       </c>
       <c r="S8" t="n">
-        <v>109.1877617881758</v>
+        <v>0</v>
       </c>
       <c r="T8" t="n">
         <v>0</v>
@@ -27910,16 +27910,16 @@
         <v>0</v>
       </c>
       <c r="V8" t="n">
-        <v>199.0728117100763</v>
+        <v>0</v>
       </c>
       <c r="W8" t="n">
-        <v>349.240968717413</v>
+        <v>298.510932011191</v>
       </c>
       <c r="X8" t="n">
         <v>369.731100678469</v>
       </c>
       <c r="Y8" t="n">
-        <v>0</v>
+        <v>386.2379386560536</v>
       </c>
     </row>
     <row r="9">
@@ -28011,13 +28011,13 @@
         <v>179.8319801819373</v>
       </c>
       <c r="C10" t="n">
-        <v>0</v>
+        <v>167.2468210986278</v>
       </c>
       <c r="D10" t="n">
-        <v>0</v>
+        <v>148.6154730182124</v>
       </c>
       <c r="E10" t="n">
-        <v>13.35777450941671</v>
+        <v>146.4339626465692</v>
       </c>
       <c r="F10" t="n">
         <v>145.4210480229312</v>
@@ -28026,7 +28026,7 @@
         <v>166.0258082590282</v>
       </c>
       <c r="H10" t="n">
-        <v>0</v>
+        <v>144.7550149143208</v>
       </c>
       <c r="I10" t="n">
         <v>96.35242040983809</v>
@@ -28071,13 +28071,13 @@
         <v>0</v>
       </c>
       <c r="W10" t="n">
-        <v>286.522998336591</v>
+        <v>0</v>
       </c>
       <c r="X10" t="n">
-        <v>225.7096553890372</v>
+        <v>0</v>
       </c>
       <c r="Y10" t="n">
-        <v>218.5846533520948</v>
+        <v>137.1238099094095</v>
       </c>
     </row>
     <row r="11">
@@ -28093,7 +28093,7 @@
         <v>0</v>
       </c>
       <c r="D11" t="n">
-        <v>0</v>
+        <v>9.003997547551989e-13</v>
       </c>
       <c r="E11" t="n">
         <v>0</v>
@@ -28281,7 +28281,7 @@
         <v>0</v>
       </c>
       <c r="N13" t="n">
-        <v>0</v>
+        <v>-7.032208304403594e-13</v>
       </c>
       <c r="O13" t="n">
         <v>0</v>
@@ -28330,7 +28330,7 @@
         <v>0</v>
       </c>
       <c r="D14" t="n">
-        <v>0</v>
+        <v>9.003997547551989e-13</v>
       </c>
       <c r="E14" t="n">
         <v>0</v>
@@ -28564,7 +28564,7 @@
         <v>0</v>
       </c>
       <c r="C17" t="n">
-        <v>0</v>
+        <v>1.364242052659392e-12</v>
       </c>
       <c r="D17" t="n">
         <v>0</v>
@@ -28855,7 +28855,7 @@
         <v>0</v>
       </c>
       <c r="U20" t="n">
-        <v>0</v>
+        <v>1.13686837721616e-12</v>
       </c>
       <c r="V20" t="n">
         <v>0</v>
@@ -29053,7 +29053,7 @@
         <v>0</v>
       </c>
       <c r="H23" t="n">
-        <v>5.115907697472721e-13</v>
+        <v>0</v>
       </c>
       <c r="I23" t="n">
         <v>0</v>
@@ -29338,7 +29338,7 @@
         <v>0</v>
       </c>
       <c r="X26" t="n">
-        <v>0</v>
+        <v>4.547473508864641e-13</v>
       </c>
       <c r="Y26" t="n">
         <v>0</v>
@@ -29667,76 +29667,76 @@
         </is>
       </c>
       <c r="B31" t="n">
-        <v>24.28464749203973</v>
+        <v>24.28464749203976</v>
       </c>
       <c r="C31" t="n">
-        <v>24.28464749203973</v>
+        <v>24.28464749203976</v>
       </c>
       <c r="D31" t="n">
-        <v>24.28464749203973</v>
+        <v>24.28464749203976</v>
       </c>
       <c r="E31" t="n">
-        <v>24.28464749203973</v>
+        <v>24.28464749203976</v>
       </c>
       <c r="F31" t="n">
-        <v>24.28464749203973</v>
+        <v>24.28464749203976</v>
       </c>
       <c r="G31" t="n">
-        <v>24.28464749203973</v>
+        <v>24.28464749203976</v>
       </c>
       <c r="H31" t="n">
-        <v>24.28464749203973</v>
+        <v>24.28464749203976</v>
       </c>
       <c r="I31" t="n">
-        <v>24.28464749203973</v>
+        <v>24.28464749203976</v>
       </c>
       <c r="J31" t="n">
-        <v>24.28464749203973</v>
+        <v>24.28464749203976</v>
       </c>
       <c r="K31" t="n">
-        <v>24.28464749203973</v>
+        <v>24.28464749203976</v>
       </c>
       <c r="L31" t="n">
-        <v>24.28464749203973</v>
+        <v>24.28464749203976</v>
       </c>
       <c r="M31" t="n">
-        <v>24.28464749203973</v>
+        <v>24.28464749203976</v>
       </c>
       <c r="N31" t="n">
-        <v>24.28464749203973</v>
+        <v>24.28464749203976</v>
       </c>
       <c r="O31" t="n">
-        <v>24.28464749203973</v>
+        <v>24.28464749203976</v>
       </c>
       <c r="P31" t="n">
-        <v>24.28464749203973</v>
+        <v>24.28464749203976</v>
       </c>
       <c r="Q31" t="n">
-        <v>24.28464749203973</v>
+        <v>24.28464749203976</v>
       </c>
       <c r="R31" t="n">
-        <v>24.28464749203973</v>
+        <v>24.28464749203976</v>
       </c>
       <c r="S31" t="n">
-        <v>24.28464749203973</v>
+        <v>24.28464749203976</v>
       </c>
       <c r="T31" t="n">
-        <v>24.28464749203973</v>
+        <v>24.28464749203976</v>
       </c>
       <c r="U31" t="n">
-        <v>24.28464749203973</v>
+        <v>24.28464749203976</v>
       </c>
       <c r="V31" t="n">
-        <v>24.28464749203973</v>
+        <v>24.28464749203976</v>
       </c>
       <c r="W31" t="n">
-        <v>24.28464749203973</v>
+        <v>24.28464749203976</v>
       </c>
       <c r="X31" t="n">
-        <v>24.28464749203973</v>
+        <v>24.28464749203976</v>
       </c>
       <c r="Y31" t="n">
-        <v>24.28464749203973</v>
+        <v>24.28464749203976</v>
       </c>
     </row>
     <row r="32">
@@ -29761,7 +29761,7 @@
         <v>0</v>
       </c>
       <c r="G32" t="n">
-        <v>5.115907697472721e-13</v>
+        <v>0</v>
       </c>
       <c r="H32" t="n">
         <v>0</v>
@@ -29800,7 +29800,7 @@
         <v>0</v>
       </c>
       <c r="T32" t="n">
-        <v>0</v>
+        <v>5.684341886080801e-13</v>
       </c>
       <c r="U32" t="n">
         <v>0</v>
@@ -29904,76 +29904,76 @@
         </is>
       </c>
       <c r="B34" t="n">
-        <v>24.28464749203973</v>
+        <v>24.28464749203976</v>
       </c>
       <c r="C34" t="n">
-        <v>24.28464749203973</v>
+        <v>24.28464749203976</v>
       </c>
       <c r="D34" t="n">
-        <v>24.28464749203973</v>
+        <v>24.28464749203976</v>
       </c>
       <c r="E34" t="n">
-        <v>24.28464749203973</v>
+        <v>24.28464749203976</v>
       </c>
       <c r="F34" t="n">
-        <v>24.28464749203973</v>
+        <v>24.28464749203976</v>
       </c>
       <c r="G34" t="n">
-        <v>24.28464749203973</v>
+        <v>24.28464749203976</v>
       </c>
       <c r="H34" t="n">
-        <v>24.28464749203973</v>
+        <v>24.28464749203976</v>
       </c>
       <c r="I34" t="n">
-        <v>24.28464749203973</v>
+        <v>24.28464749203976</v>
       </c>
       <c r="J34" t="n">
-        <v>24.28464749203973</v>
+        <v>24.28464749203976</v>
       </c>
       <c r="K34" t="n">
-        <v>24.28464749203973</v>
+        <v>24.28464749203976</v>
       </c>
       <c r="L34" t="n">
-        <v>24.28464749203973</v>
+        <v>24.28464749203976</v>
       </c>
       <c r="M34" t="n">
-        <v>24.28464749203973</v>
+        <v>24.28464749203976</v>
       </c>
       <c r="N34" t="n">
-        <v>24.28464749203973</v>
+        <v>24.28464749203976</v>
       </c>
       <c r="O34" t="n">
-        <v>24.28464749203973</v>
+        <v>24.28464749203976</v>
       </c>
       <c r="P34" t="n">
-        <v>24.28464749203973</v>
+        <v>24.28464749203976</v>
       </c>
       <c r="Q34" t="n">
-        <v>24.28464749203973</v>
+        <v>24.28464749203976</v>
       </c>
       <c r="R34" t="n">
-        <v>24.28464749203973</v>
+        <v>24.28464749203976</v>
       </c>
       <c r="S34" t="n">
-        <v>24.28464749203973</v>
+        <v>24.28464749203976</v>
       </c>
       <c r="T34" t="n">
-        <v>24.28464749203973</v>
+        <v>24.28464749203976</v>
       </c>
       <c r="U34" t="n">
-        <v>24.28464749203973</v>
+        <v>24.28464749203976</v>
       </c>
       <c r="V34" t="n">
-        <v>24.28464749203973</v>
+        <v>24.28464749203976</v>
       </c>
       <c r="W34" t="n">
-        <v>24.28464749203973</v>
+        <v>24.28464749203976</v>
       </c>
       <c r="X34" t="n">
-        <v>24.28464749203973</v>
+        <v>24.28464749203976</v>
       </c>
       <c r="Y34" t="n">
-        <v>24.28464749203973</v>
+        <v>24.28464749203976</v>
       </c>
     </row>
     <row r="35">
@@ -30141,76 +30141,76 @@
         </is>
       </c>
       <c r="B37" t="n">
-        <v>24.28464749203975</v>
+        <v>24.28464749203969</v>
       </c>
       <c r="C37" t="n">
-        <v>24.28464749203975</v>
+        <v>24.28464749203969</v>
       </c>
       <c r="D37" t="n">
-        <v>24.28464749203975</v>
+        <v>24.28464749203969</v>
       </c>
       <c r="E37" t="n">
-        <v>24.28464749203975</v>
+        <v>24.28464749203969</v>
       </c>
       <c r="F37" t="n">
-        <v>24.28464749203975</v>
+        <v>24.28464749203969</v>
       </c>
       <c r="G37" t="n">
-        <v>24.28464749203975</v>
+        <v>24.28464749203969</v>
       </c>
       <c r="H37" t="n">
-        <v>24.28464749203975</v>
+        <v>24.28464749203969</v>
       </c>
       <c r="I37" t="n">
-        <v>24.28464749203975</v>
+        <v>24.28464749203969</v>
       </c>
       <c r="J37" t="n">
-        <v>24.28464749203975</v>
+        <v>24.28464749203969</v>
       </c>
       <c r="K37" t="n">
-        <v>24.28464749203975</v>
+        <v>24.28464749203969</v>
       </c>
       <c r="L37" t="n">
-        <v>24.28464749203975</v>
+        <v>24.28464749203969</v>
       </c>
       <c r="M37" t="n">
-        <v>24.28464749203975</v>
+        <v>24.28464749203969</v>
       </c>
       <c r="N37" t="n">
-        <v>24.28464749203975</v>
+        <v>24.28464749203969</v>
       </c>
       <c r="O37" t="n">
-        <v>24.28464749203975</v>
+        <v>24.28464749203969</v>
       </c>
       <c r="P37" t="n">
-        <v>24.28464749203975</v>
+        <v>24.28464749203969</v>
       </c>
       <c r="Q37" t="n">
-        <v>24.28464749203975</v>
+        <v>24.28464749203969</v>
       </c>
       <c r="R37" t="n">
-        <v>24.28464749203975</v>
+        <v>24.28464749203969</v>
       </c>
       <c r="S37" t="n">
-        <v>24.28464749203975</v>
+        <v>24.28464749203969</v>
       </c>
       <c r="T37" t="n">
-        <v>24.28464749203975</v>
+        <v>24.28464749203969</v>
       </c>
       <c r="U37" t="n">
-        <v>24.28464749203975</v>
+        <v>24.28464749203969</v>
       </c>
       <c r="V37" t="n">
-        <v>24.28464749203975</v>
+        <v>24.28464749203969</v>
       </c>
       <c r="W37" t="n">
-        <v>24.28464749203975</v>
+        <v>24.28464749203969</v>
       </c>
       <c r="X37" t="n">
-        <v>24.28464749203975</v>
+        <v>24.28464749203969</v>
       </c>
       <c r="Y37" t="n">
-        <v>24.28464749203975</v>
+        <v>24.28464749203969</v>
       </c>
     </row>
     <row r="38">
@@ -30378,76 +30378,76 @@
         </is>
       </c>
       <c r="B40" t="n">
-        <v>24.28464749203974</v>
+        <v>24.28464749203973</v>
       </c>
       <c r="C40" t="n">
-        <v>24.28464749203974</v>
+        <v>24.28464749203973</v>
       </c>
       <c r="D40" t="n">
-        <v>24.28464749203974</v>
+        <v>24.28464749203973</v>
       </c>
       <c r="E40" t="n">
-        <v>24.28464749203974</v>
+        <v>24.28464749203973</v>
       </c>
       <c r="F40" t="n">
-        <v>24.28464749203974</v>
+        <v>24.28464749203973</v>
       </c>
       <c r="G40" t="n">
-        <v>24.28464749203974</v>
+        <v>24.28464749203973</v>
       </c>
       <c r="H40" t="n">
-        <v>24.28464749203974</v>
+        <v>24.28464749203973</v>
       </c>
       <c r="I40" t="n">
-        <v>24.28464749203974</v>
+        <v>24.28464749203973</v>
       </c>
       <c r="J40" t="n">
-        <v>24.28464749203974</v>
+        <v>24.28464749203973</v>
       </c>
       <c r="K40" t="n">
-        <v>24.28464749203974</v>
+        <v>24.28464749203973</v>
       </c>
       <c r="L40" t="n">
-        <v>24.28464749203974</v>
+        <v>24.28464749203973</v>
       </c>
       <c r="M40" t="n">
-        <v>24.28464749203974</v>
+        <v>24.28464749203973</v>
       </c>
       <c r="N40" t="n">
-        <v>24.28464749203974</v>
+        <v>24.28464749203973</v>
       </c>
       <c r="O40" t="n">
-        <v>24.28464749203974</v>
+        <v>24.28464749203973</v>
       </c>
       <c r="P40" t="n">
-        <v>24.28464749203974</v>
+        <v>24.28464749203973</v>
       </c>
       <c r="Q40" t="n">
-        <v>24.28464749203974</v>
+        <v>24.28464749203973</v>
       </c>
       <c r="R40" t="n">
-        <v>24.28464749203974</v>
+        <v>24.28464749203973</v>
       </c>
       <c r="S40" t="n">
-        <v>24.28464749203974</v>
+        <v>24.28464749203973</v>
       </c>
       <c r="T40" t="n">
-        <v>24.28464749203974</v>
+        <v>24.28464749203973</v>
       </c>
       <c r="U40" t="n">
-        <v>24.28464749203974</v>
+        <v>24.28464749203973</v>
       </c>
       <c r="V40" t="n">
-        <v>24.28464749203974</v>
+        <v>24.28464749203973</v>
       </c>
       <c r="W40" t="n">
-        <v>24.28464749203974</v>
+        <v>24.28464749203973</v>
       </c>
       <c r="X40" t="n">
-        <v>24.28464749203974</v>
+        <v>24.28464749203973</v>
       </c>
       <c r="Y40" t="n">
-        <v>24.28464749203974</v>
+        <v>24.28464749203973</v>
       </c>
     </row>
     <row r="41">
@@ -30615,76 +30615,76 @@
         </is>
       </c>
       <c r="B43" t="n">
-        <v>24.28464749203971</v>
+        <v>24.28464749203974</v>
       </c>
       <c r="C43" t="n">
-        <v>24.28464749203971</v>
+        <v>24.28464749203974</v>
       </c>
       <c r="D43" t="n">
-        <v>24.28464749203971</v>
+        <v>24.28464749203974</v>
       </c>
       <c r="E43" t="n">
-        <v>24.28464749203971</v>
+        <v>24.28464749203974</v>
       </c>
       <c r="F43" t="n">
-        <v>24.28464749203971</v>
+        <v>24.28464749203974</v>
       </c>
       <c r="G43" t="n">
-        <v>24.28464749203971</v>
+        <v>24.28464749203974</v>
       </c>
       <c r="H43" t="n">
-        <v>24.28464749203971</v>
+        <v>24.28464749203974</v>
       </c>
       <c r="I43" t="n">
-        <v>24.28464749203971</v>
+        <v>24.28464749203974</v>
       </c>
       <c r="J43" t="n">
-        <v>24.28464749203971</v>
+        <v>24.28464749203974</v>
       </c>
       <c r="K43" t="n">
-        <v>24.28464749203971</v>
+        <v>24.28464749203974</v>
       </c>
       <c r="L43" t="n">
-        <v>24.28464749203971</v>
+        <v>24.28464749203974</v>
       </c>
       <c r="M43" t="n">
-        <v>24.28464749203971</v>
+        <v>24.28464749203974</v>
       </c>
       <c r="N43" t="n">
-        <v>24.28464749203971</v>
+        <v>24.28464749203974</v>
       </c>
       <c r="O43" t="n">
-        <v>24.28464749203971</v>
+        <v>24.28464749203974</v>
       </c>
       <c r="P43" t="n">
-        <v>24.28464749203971</v>
+        <v>24.28464749203974</v>
       </c>
       <c r="Q43" t="n">
-        <v>24.28464749203971</v>
+        <v>24.28464749203974</v>
       </c>
       <c r="R43" t="n">
-        <v>24.28464749203971</v>
+        <v>24.28464749203974</v>
       </c>
       <c r="S43" t="n">
-        <v>24.28464749203971</v>
+        <v>24.28464749203974</v>
       </c>
       <c r="T43" t="n">
-        <v>24.28464749203971</v>
+        <v>24.28464749203974</v>
       </c>
       <c r="U43" t="n">
-        <v>24.28464749203971</v>
+        <v>24.28464749203974</v>
       </c>
       <c r="V43" t="n">
-        <v>24.28464749203971</v>
+        <v>24.28464749203974</v>
       </c>
       <c r="W43" t="n">
-        <v>24.28464749203971</v>
+        <v>24.28464749203974</v>
       </c>
       <c r="X43" t="n">
-        <v>24.28464749203971</v>
+        <v>24.28464749203974</v>
       </c>
       <c r="Y43" t="n">
-        <v>24.28464749203971</v>
+        <v>24.28464749203974</v>
       </c>
     </row>
     <row r="44">
@@ -30852,76 +30852,76 @@
         </is>
       </c>
       <c r="B46" t="n">
-        <v>24.28464749203973</v>
+        <v>24.2846474920397</v>
       </c>
       <c r="C46" t="n">
-        <v>24.28464749203973</v>
+        <v>24.2846474920397</v>
       </c>
       <c r="D46" t="n">
-        <v>24.28464749203973</v>
+        <v>24.2846474920397</v>
       </c>
       <c r="E46" t="n">
-        <v>24.28464749203973</v>
+        <v>24.2846474920397</v>
       </c>
       <c r="F46" t="n">
-        <v>24.28464749203973</v>
+        <v>24.2846474920397</v>
       </c>
       <c r="G46" t="n">
-        <v>24.28464749203973</v>
+        <v>24.2846474920397</v>
       </c>
       <c r="H46" t="n">
-        <v>24.28464749203973</v>
+        <v>24.2846474920397</v>
       </c>
       <c r="I46" t="n">
-        <v>24.28464749203973</v>
+        <v>24.2846474920397</v>
       </c>
       <c r="J46" t="n">
-        <v>24.28464749203973</v>
+        <v>24.2846474920397</v>
       </c>
       <c r="K46" t="n">
-        <v>24.28464749203973</v>
+        <v>24.2846474920397</v>
       </c>
       <c r="L46" t="n">
-        <v>24.28464749203973</v>
+        <v>24.2846474920397</v>
       </c>
       <c r="M46" t="n">
-        <v>24.28464749203973</v>
+        <v>24.2846474920397</v>
       </c>
       <c r="N46" t="n">
-        <v>24.28464749203973</v>
+        <v>24.2846474920397</v>
       </c>
       <c r="O46" t="n">
-        <v>24.28464749203973</v>
+        <v>24.2846474920397</v>
       </c>
       <c r="P46" t="n">
-        <v>24.28464749203973</v>
+        <v>24.2846474920397</v>
       </c>
       <c r="Q46" t="n">
-        <v>24.28464749203973</v>
+        <v>24.2846474920397</v>
       </c>
       <c r="R46" t="n">
-        <v>24.28464749203973</v>
+        <v>24.2846474920397</v>
       </c>
       <c r="S46" t="n">
-        <v>24.28464749203973</v>
+        <v>24.2846474920397</v>
       </c>
       <c r="T46" t="n">
-        <v>24.28464749203973</v>
+        <v>24.2846474920397</v>
       </c>
       <c r="U46" t="n">
-        <v>24.28464749203973</v>
+        <v>24.2846474920397</v>
       </c>
       <c r="V46" t="n">
-        <v>24.28464749203973</v>
+        <v>24.2846474920397</v>
       </c>
       <c r="W46" t="n">
-        <v>24.28464749203973</v>
+        <v>24.2846474920397</v>
       </c>
       <c r="X46" t="n">
-        <v>24.28464749203973</v>
+        <v>24.2846474920397</v>
       </c>
       <c r="Y46" t="n">
-        <v>24.28464749203973</v>
+        <v>24.2846474920397</v>
       </c>
     </row>
   </sheetData>
@@ -31039,49 +31039,49 @@
         <v>0</v>
       </c>
       <c r="G2" t="n">
-        <v>4.321588262882478</v>
+        <v>4.32158826288248</v>
       </c>
       <c r="H2" t="n">
-        <v>44.25846579724519</v>
+        <v>44.25846579724521</v>
       </c>
       <c r="I2" t="n">
-        <v>166.6080315047769</v>
+        <v>166.608031504777</v>
       </c>
       <c r="J2" t="n">
-        <v>366.789401826822</v>
+        <v>366.7894018268223</v>
       </c>
       <c r="K2" t="n">
-        <v>549.7222329946375</v>
+        <v>549.7222329946378</v>
       </c>
       <c r="L2" t="n">
-        <v>681.9790397948271</v>
+        <v>681.9790397948276</v>
       </c>
       <c r="M2" t="n">
-        <v>758.8330850648634</v>
+        <v>758.8330850648639</v>
       </c>
       <c r="N2" t="n">
-        <v>771.1117977167784</v>
+        <v>771.1117977167788</v>
       </c>
       <c r="O2" t="n">
-        <v>728.1390044277406</v>
+        <v>728.139004427741</v>
       </c>
       <c r="P2" t="n">
-        <v>621.4497941878294</v>
+        <v>621.4497941878298</v>
       </c>
       <c r="Q2" t="n">
-        <v>466.6829145233505</v>
+        <v>466.6829145233508</v>
       </c>
       <c r="R2" t="n">
-        <v>271.4659687182917</v>
+        <v>271.4659687182918</v>
       </c>
       <c r="S2" t="n">
-        <v>98.47819254043456</v>
+        <v>98.47819254043462</v>
       </c>
       <c r="T2" t="n">
-        <v>18.91775262076806</v>
+        <v>18.91775262076807</v>
       </c>
       <c r="U2" t="n">
-        <v>0.3457270610305981</v>
+        <v>0.3457270610305984</v>
       </c>
       <c r="V2" t="n">
         <v>0</v>
@@ -31118,49 +31118,49 @@
         <v>0</v>
       </c>
       <c r="G3" t="n">
-        <v>2.312253569145093</v>
+        <v>2.312253569145095</v>
       </c>
       <c r="H3" t="n">
-        <v>22.33150157569078</v>
+        <v>22.33150157569079</v>
       </c>
       <c r="I3" t="n">
-        <v>79.61048472714468</v>
+        <v>79.61048472714472</v>
       </c>
       <c r="J3" t="n">
-        <v>218.4572549690985</v>
+        <v>218.4572549690987</v>
       </c>
       <c r="K3" t="n">
-        <v>373.3782441018198</v>
+        <v>373.37824410182</v>
       </c>
       <c r="L3" t="n">
-        <v>502.0531269321398</v>
+        <v>502.0531269321401</v>
       </c>
       <c r="M3" t="n">
-        <v>585.8723188136493</v>
+        <v>585.8723188136496</v>
       </c>
       <c r="N3" t="n">
-        <v>601.3786157751531</v>
+        <v>601.3786157751534</v>
       </c>
       <c r="O3" t="n">
-        <v>550.1439445851486</v>
+        <v>550.1439445851489</v>
       </c>
       <c r="P3" t="n">
-        <v>441.5390170764873</v>
+        <v>441.5390170764875</v>
       </c>
       <c r="Q3" t="n">
-        <v>295.1571398087667</v>
+        <v>295.1571398087669</v>
       </c>
       <c r="R3" t="n">
-        <v>143.5625505474472</v>
+        <v>143.5625505474473</v>
       </c>
       <c r="S3" t="n">
-        <v>42.94909590056783</v>
+        <v>42.94909590056785</v>
       </c>
       <c r="T3" t="n">
-        <v>9.320004517738335</v>
+        <v>9.32000451773834</v>
       </c>
       <c r="U3" t="n">
-        <v>0.152121945338493</v>
+        <v>0.1521219453384932</v>
       </c>
       <c r="V3" t="n">
         <v>0</v>
@@ -31197,49 +31197,49 @@
         <v>0</v>
       </c>
       <c r="G4" t="n">
-        <v>1.938515718739703</v>
+        <v>1.938515718739704</v>
       </c>
       <c r="H4" t="n">
-        <v>17.23516702661301</v>
+        <v>17.23516702661302</v>
       </c>
       <c r="I4" t="n">
-        <v>58.29645452355399</v>
+        <v>58.29645452355403</v>
       </c>
       <c r="J4" t="n">
-        <v>137.053061314897</v>
+        <v>137.0530613148971</v>
       </c>
       <c r="K4" t="n">
-        <v>225.2202807772127</v>
+        <v>225.2202807772128</v>
       </c>
       <c r="L4" t="n">
-        <v>288.2044187660828</v>
+        <v>288.2044187660829</v>
       </c>
       <c r="M4" t="n">
-        <v>303.8711503475336</v>
+        <v>303.8711503475337</v>
       </c>
       <c r="N4" t="n">
-        <v>296.6457735776858</v>
+        <v>296.645773577686</v>
       </c>
       <c r="O4" t="n">
-        <v>274.0003854087719</v>
+        <v>274.0003854087721</v>
       </c>
       <c r="P4" t="n">
-        <v>234.4546647464818</v>
+        <v>234.4546647464819</v>
       </c>
       <c r="Q4" t="n">
-        <v>162.3242571391946</v>
+        <v>162.3242571391947</v>
       </c>
       <c r="R4" t="n">
-        <v>87.16271586260517</v>
+        <v>87.16271586260521</v>
       </c>
       <c r="S4" t="n">
-        <v>33.7830421165819</v>
+        <v>33.78304211658192</v>
       </c>
       <c r="T4" t="n">
-        <v>8.282748980069638</v>
+        <v>8.282748980069643</v>
       </c>
       <c r="U4" t="n">
-        <v>0.1057372210221657</v>
+        <v>0.1057372210221658</v>
       </c>
       <c r="V4" t="n">
         <v>0</v>
@@ -31750,37 +31750,37 @@
         <v>0</v>
       </c>
       <c r="G11" t="n">
-        <v>5.499398996348433</v>
+        <v>5.499398996348432</v>
       </c>
       <c r="H11" t="n">
-        <v>56.32071997135341</v>
+        <v>56.3207199713534</v>
       </c>
       <c r="I11" t="n">
-        <v>212.0155798067232</v>
+        <v>212.0155798067231</v>
       </c>
       <c r="J11" t="n">
-        <v>466.7546155663283</v>
+        <v>466.7546155663281</v>
       </c>
       <c r="K11" t="n">
-        <v>699.5441750817575</v>
+        <v>699.5441750817574</v>
       </c>
       <c r="L11" t="n">
-        <v>867.846407116256</v>
+        <v>867.8464071162559</v>
       </c>
       <c r="M11" t="n">
-        <v>965.6463440175675</v>
+        <v>965.6463440175673</v>
       </c>
       <c r="N11" t="n">
-        <v>981.2715114159425</v>
+        <v>981.2715114159424</v>
       </c>
       <c r="O11" t="n">
-        <v>926.5868626460027</v>
+        <v>926.5868626460026</v>
       </c>
       <c r="P11" t="n">
-        <v>790.8204499236507</v>
+        <v>790.8204499236506</v>
       </c>
       <c r="Q11" t="n">
-        <v>593.8732233669223</v>
+        <v>593.8732233669222</v>
       </c>
       <c r="R11" t="n">
         <v>345.4516222043725</v>
@@ -31789,10 +31789,10 @@
         <v>125.31755462929</v>
       </c>
       <c r="T11" t="n">
-        <v>24.07361910651528</v>
+        <v>24.07361910651527</v>
       </c>
       <c r="U11" t="n">
-        <v>0.4399519197078746</v>
+        <v>0.4399519197078745</v>
       </c>
       <c r="V11" t="n">
         <v>0</v>
@@ -31835,28 +31835,28 @@
         <v>28.417755205211</v>
       </c>
       <c r="I12" t="n">
-        <v>99.52238</v>
+        <v>101.3076196007749</v>
       </c>
       <c r="J12" t="n">
-        <v>277.9958514420755</v>
+        <v>277.9958514420754</v>
       </c>
       <c r="K12" t="n">
         <v>475.1391886422585</v>
       </c>
       <c r="L12" t="n">
-        <v>638.8832749473072</v>
+        <v>638.8832749473071</v>
       </c>
       <c r="M12" t="n">
-        <v>339.9772972286971</v>
+        <v>745.5466476862119</v>
       </c>
       <c r="N12" t="n">
-        <v>765.2790490071785</v>
+        <v>131.3417120833333</v>
       </c>
       <c r="O12" t="n">
-        <v>142.5962444444444</v>
+        <v>369.1789913100002</v>
       </c>
       <c r="P12" t="n">
-        <v>561.8765786214698</v>
+        <v>561.8765786214697</v>
       </c>
       <c r="Q12" t="n">
         <v>375.599612848529</v>
@@ -31865,10 +31865,10 @@
         <v>145.679503963964</v>
       </c>
       <c r="S12" t="n">
-        <v>54.65449286742438</v>
+        <v>54.65449286742437</v>
       </c>
       <c r="T12" t="n">
-        <v>11.86008947937734</v>
+        <v>11.86008947937733</v>
       </c>
       <c r="U12" t="n">
         <v>0.1935814387275954</v>
@@ -31914,28 +31914,28 @@
         <v>21.9324596612157</v>
       </c>
       <c r="I13" t="n">
-        <v>74.18463860869275</v>
+        <v>74.18463860869274</v>
       </c>
       <c r="J13" t="n">
         <v>174.4056633796261</v>
       </c>
       <c r="K13" t="n">
-        <v>286.6020802355178</v>
+        <v>286.6020802355177</v>
       </c>
       <c r="L13" t="n">
-        <v>366.7519890588153</v>
+        <v>366.7519890588152</v>
       </c>
       <c r="M13" t="n">
-        <v>386.6885500392045</v>
+        <v>386.6885500392044</v>
       </c>
       <c r="N13" t="n">
         <v>377.4939606106788</v>
       </c>
       <c r="O13" t="n">
-        <v>348.6767717920058</v>
+        <v>348.6767717920056</v>
       </c>
       <c r="P13" t="n">
-        <v>298.3532140417315</v>
+        <v>298.3532140417314</v>
       </c>
       <c r="Q13" t="n">
         <v>206.5643005515927</v>
@@ -31944,7 +31944,7 @@
         <v>110.9181446670478</v>
       </c>
       <c r="S13" t="n">
-        <v>42.99031203532766</v>
+        <v>42.99031203532765</v>
       </c>
       <c r="T13" t="n">
         <v>10.54013910099322</v>
@@ -31987,37 +31987,37 @@
         <v>0</v>
       </c>
       <c r="G14" t="n">
-        <v>5.499398996348433</v>
+        <v>5.499398996348432</v>
       </c>
       <c r="H14" t="n">
-        <v>56.32071997135341</v>
+        <v>56.3207199713534</v>
       </c>
       <c r="I14" t="n">
-        <v>212.0155798067232</v>
+        <v>212.0155798067231</v>
       </c>
       <c r="J14" t="n">
-        <v>466.7546155663283</v>
+        <v>466.7546155663281</v>
       </c>
       <c r="K14" t="n">
-        <v>699.5441750817575</v>
+        <v>699.5441750817574</v>
       </c>
       <c r="L14" t="n">
-        <v>867.846407116256</v>
+        <v>867.8464071162559</v>
       </c>
       <c r="M14" t="n">
-        <v>965.6463440175675</v>
+        <v>965.6463440175673</v>
       </c>
       <c r="N14" t="n">
-        <v>981.2715114159425</v>
+        <v>981.2715114159424</v>
       </c>
       <c r="O14" t="n">
-        <v>926.5868626460027</v>
+        <v>926.5868626460026</v>
       </c>
       <c r="P14" t="n">
-        <v>790.8204499236507</v>
+        <v>790.8204499236506</v>
       </c>
       <c r="Q14" t="n">
-        <v>593.8732233669223</v>
+        <v>593.8732233669222</v>
       </c>
       <c r="R14" t="n">
         <v>345.4516222043725</v>
@@ -32026,10 +32026,10 @@
         <v>125.31755462929</v>
       </c>
       <c r="T14" t="n">
-        <v>24.07361910651528</v>
+        <v>24.07361910651527</v>
       </c>
       <c r="U14" t="n">
-        <v>0.4399519197078746</v>
+        <v>0.4399519197078745</v>
       </c>
       <c r="V14" t="n">
         <v>0</v>
@@ -32072,40 +32072,40 @@
         <v>28.417755205211</v>
       </c>
       <c r="I15" t="n">
-        <v>99.52238</v>
+        <v>101.3076196007749</v>
       </c>
       <c r="J15" t="n">
-        <v>277.9958514420755</v>
+        <v>277.9958514420754</v>
       </c>
       <c r="K15" t="n">
         <v>475.1391886422585</v>
       </c>
       <c r="L15" t="n">
-        <v>638.8832749473072</v>
+        <v>638.8832749473071</v>
       </c>
       <c r="M15" t="n">
-        <v>142.1340339220183</v>
+        <v>745.5466476862119</v>
       </c>
       <c r="N15" t="n">
-        <v>368.6279838366855</v>
+        <v>463.9598929192562</v>
       </c>
       <c r="O15" t="n">
-        <v>700.0808204437243</v>
+        <v>700.0808204437242</v>
       </c>
       <c r="P15" t="n">
-        <v>561.8765786214698</v>
+        <v>133.9744074143302</v>
       </c>
       <c r="Q15" t="n">
-        <v>375.599612848529</v>
+        <v>139.9817740860215</v>
       </c>
       <c r="R15" t="n">
-        <v>182.6892564418561</v>
+        <v>145.679503963964</v>
       </c>
       <c r="S15" t="n">
-        <v>54.65449286742438</v>
+        <v>54.65449286742437</v>
       </c>
       <c r="T15" t="n">
-        <v>11.86008947937734</v>
+        <v>11.86008947937733</v>
       </c>
       <c r="U15" t="n">
         <v>0.1935814387275954</v>
@@ -32151,28 +32151,28 @@
         <v>21.9324596612157</v>
       </c>
       <c r="I16" t="n">
-        <v>74.18463860869275</v>
+        <v>74.18463860869274</v>
       </c>
       <c r="J16" t="n">
         <v>174.4056633796261</v>
       </c>
       <c r="K16" t="n">
-        <v>286.6020802355178</v>
+        <v>286.6020802355177</v>
       </c>
       <c r="L16" t="n">
-        <v>366.7519890588153</v>
+        <v>366.7519890588152</v>
       </c>
       <c r="M16" t="n">
-        <v>386.6885500392045</v>
+        <v>386.6885500392044</v>
       </c>
       <c r="N16" t="n">
         <v>377.4939606106788</v>
       </c>
       <c r="O16" t="n">
-        <v>348.6767717920058</v>
+        <v>348.6767717920056</v>
       </c>
       <c r="P16" t="n">
-        <v>298.3532140417315</v>
+        <v>298.3532140417314</v>
       </c>
       <c r="Q16" t="n">
         <v>206.5643005515927</v>
@@ -32181,7 +32181,7 @@
         <v>110.9181446670478</v>
       </c>
       <c r="S16" t="n">
-        <v>42.99031203532766</v>
+        <v>42.99031203532765</v>
       </c>
       <c r="T16" t="n">
         <v>10.54013910099322</v>
@@ -32224,37 +32224,37 @@
         <v>0</v>
       </c>
       <c r="G17" t="n">
-        <v>5.499398996348433</v>
+        <v>5.499398996348432</v>
       </c>
       <c r="H17" t="n">
-        <v>56.32071997135341</v>
+        <v>56.3207199713534</v>
       </c>
       <c r="I17" t="n">
-        <v>212.0155798067232</v>
+        <v>212.0155798067231</v>
       </c>
       <c r="J17" t="n">
-        <v>466.7546155663283</v>
+        <v>466.7546155663281</v>
       </c>
       <c r="K17" t="n">
-        <v>699.5441750817575</v>
+        <v>699.5441750817574</v>
       </c>
       <c r="L17" t="n">
-        <v>867.846407116256</v>
+        <v>867.8464071162559</v>
       </c>
       <c r="M17" t="n">
-        <v>965.6463440175675</v>
+        <v>965.6463440175673</v>
       </c>
       <c r="N17" t="n">
-        <v>981.2715114159425</v>
+        <v>981.2715114159424</v>
       </c>
       <c r="O17" t="n">
-        <v>926.5868626460027</v>
+        <v>926.5868626460034</v>
       </c>
       <c r="P17" t="n">
-        <v>790.8204499236507</v>
+        <v>790.8204499236506</v>
       </c>
       <c r="Q17" t="n">
-        <v>593.8732233669223</v>
+        <v>593.8732233669222</v>
       </c>
       <c r="R17" t="n">
         <v>345.4516222043725</v>
@@ -32263,10 +32263,10 @@
         <v>125.31755462929</v>
       </c>
       <c r="T17" t="n">
-        <v>24.07361910651528</v>
+        <v>24.07361910651527</v>
       </c>
       <c r="U17" t="n">
-        <v>0.4399519197078746</v>
+        <v>0.4399519197078745</v>
       </c>
       <c r="V17" t="n">
         <v>0</v>
@@ -32309,28 +32309,28 @@
         <v>28.417755205211</v>
       </c>
       <c r="I18" t="n">
-        <v>99.52238</v>
+        <v>101.3076196007749</v>
       </c>
       <c r="J18" t="n">
-        <v>126.8376266666667</v>
+        <v>277.9958514420754</v>
       </c>
       <c r="K18" t="n">
         <v>475.1391886422585</v>
       </c>
       <c r="L18" t="n">
-        <v>638.8832749473072</v>
+        <v>638.8832749473071</v>
       </c>
       <c r="M18" t="n">
-        <v>745.5466476862121</v>
+        <v>573.8098963904301</v>
       </c>
       <c r="N18" t="n">
-        <v>189.0011860883002</v>
+        <v>765.2790490071783</v>
       </c>
       <c r="O18" t="n">
-        <v>700.0808204437243</v>
+        <v>142.5962444444444</v>
       </c>
       <c r="P18" t="n">
-        <v>561.8765786214698</v>
+        <v>561.8765786214697</v>
       </c>
       <c r="Q18" t="n">
         <v>139.9817740860215</v>
@@ -32339,10 +32339,10 @@
         <v>145.679503963964</v>
       </c>
       <c r="S18" t="n">
-        <v>54.65449286742438</v>
+        <v>54.65449286742437</v>
       </c>
       <c r="T18" t="n">
-        <v>11.86008947937734</v>
+        <v>11.86008947937733</v>
       </c>
       <c r="U18" t="n">
         <v>0.1935814387275954</v>
@@ -32388,28 +32388,28 @@
         <v>21.9324596612157</v>
       </c>
       <c r="I19" t="n">
-        <v>74.18463860869275</v>
+        <v>74.18463860869274</v>
       </c>
       <c r="J19" t="n">
         <v>174.4056633796261</v>
       </c>
       <c r="K19" t="n">
-        <v>286.6020802355178</v>
+        <v>286.6020802355177</v>
       </c>
       <c r="L19" t="n">
-        <v>366.7519890588153</v>
+        <v>366.7519890588152</v>
       </c>
       <c r="M19" t="n">
-        <v>386.6885500392045</v>
+        <v>386.6885500392044</v>
       </c>
       <c r="N19" t="n">
         <v>377.4939606106788</v>
       </c>
       <c r="O19" t="n">
-        <v>348.6767717920058</v>
+        <v>348.6767717920056</v>
       </c>
       <c r="P19" t="n">
-        <v>298.3532140417315</v>
+        <v>298.3532140417314</v>
       </c>
       <c r="Q19" t="n">
         <v>206.5643005515927</v>
@@ -32418,7 +32418,7 @@
         <v>110.9181446670478</v>
       </c>
       <c r="S19" t="n">
-        <v>42.99031203532766</v>
+        <v>42.99031203532765</v>
       </c>
       <c r="T19" t="n">
         <v>10.54013910099322</v>
@@ -32546,25 +32546,25 @@
         <v>28.417755205211</v>
       </c>
       <c r="I21" t="n">
-        <v>99.52238</v>
+        <v>101.3076196007749</v>
       </c>
       <c r="J21" t="n">
-        <v>126.8376266666667</v>
+        <v>277.9958514420755</v>
       </c>
       <c r="K21" t="n">
-        <v>137.841438974359</v>
+        <v>475.1391886422585</v>
       </c>
       <c r="L21" t="n">
         <v>638.8832749473072</v>
       </c>
       <c r="M21" t="n">
-        <v>745.5466476862121</v>
+        <v>573.8098963904297</v>
       </c>
       <c r="N21" t="n">
         <v>765.2790490071785</v>
       </c>
       <c r="O21" t="n">
-        <v>461.1007071927452</v>
+        <v>142.5962444444444</v>
       </c>
       <c r="P21" t="n">
         <v>561.8765786214698</v>
@@ -32725,7 +32725,7 @@
         <v>926.5868626460027</v>
       </c>
       <c r="P23" t="n">
-        <v>790.8204499236507</v>
+        <v>790.820449923651</v>
       </c>
       <c r="Q23" t="n">
         <v>593.8732233669223</v>
@@ -32789,25 +32789,25 @@
         <v>277.9958514420755</v>
       </c>
       <c r="K24" t="n">
-        <v>137.841438974359</v>
+        <v>475.1391886422585</v>
       </c>
       <c r="L24" t="n">
         <v>638.8832749473072</v>
       </c>
       <c r="M24" t="n">
-        <v>142.1340339220183</v>
+        <v>745.5466476862121</v>
       </c>
       <c r="N24" t="n">
-        <v>741.1502463817021</v>
+        <v>765.2790490071785</v>
       </c>
       <c r="O24" t="n">
-        <v>700.0808204437243</v>
+        <v>398.7616643558013</v>
       </c>
       <c r="P24" t="n">
-        <v>561.8765786214698</v>
+        <v>133.9744074143302</v>
       </c>
       <c r="Q24" t="n">
-        <v>375.599612848529</v>
+        <v>139.9817740860215</v>
       </c>
       <c r="R24" t="n">
         <v>145.679503963964</v>
@@ -33020,16 +33020,16 @@
         <v>28.417755205211</v>
       </c>
       <c r="I27" t="n">
-        <v>99.52238</v>
+        <v>101.3076196007749</v>
       </c>
       <c r="J27" t="n">
-        <v>126.8376266666667</v>
+        <v>277.9958514420755</v>
       </c>
       <c r="K27" t="n">
-        <v>137.841438974359</v>
+        <v>475.1391886422585</v>
       </c>
       <c r="L27" t="n">
-        <v>138.5543797798742</v>
+        <v>638.8832749473072</v>
       </c>
       <c r="M27" t="n">
         <v>745.5466476862121</v>
@@ -33038,16 +33038,16 @@
         <v>765.2790490071785</v>
       </c>
       <c r="O27" t="n">
-        <v>700.0808204437243</v>
+        <v>398.7616643558013</v>
       </c>
       <c r="P27" t="n">
-        <v>561.8765786214698</v>
+        <v>133.9744074143302</v>
       </c>
       <c r="Q27" t="n">
-        <v>375.599612848529</v>
+        <v>139.9817740860215</v>
       </c>
       <c r="R27" t="n">
-        <v>171.4104471179106</v>
+        <v>145.679503963964</v>
       </c>
       <c r="S27" t="n">
         <v>54.65449286742438</v>
@@ -33193,7 +33193,7 @@
         <v>965.6463440175675</v>
       </c>
       <c r="N29" t="n">
-        <v>981.2715114159428</v>
+        <v>981.2715114159425</v>
       </c>
       <c r="O29" t="n">
         <v>926.5868626460027</v>
@@ -33257,16 +33257,16 @@
         <v>28.417755205211</v>
       </c>
       <c r="I30" t="n">
-        <v>99.52238</v>
+        <v>101.3076196007749</v>
       </c>
       <c r="J30" t="n">
-        <v>126.8376266666667</v>
+        <v>277.9958514420755</v>
       </c>
       <c r="K30" t="n">
-        <v>137.841438974359</v>
+        <v>475.1391886422585</v>
       </c>
       <c r="L30" t="n">
-        <v>399.9031616963283</v>
+        <v>638.8832749473072</v>
       </c>
       <c r="M30" t="n">
         <v>745.5466476862121</v>
@@ -33275,10 +33275,10 @@
         <v>765.2790490071785</v>
       </c>
       <c r="O30" t="n">
-        <v>700.0808204437243</v>
+        <v>398.7616643558013</v>
       </c>
       <c r="P30" t="n">
-        <v>561.8765786214698</v>
+        <v>133.9744074143302</v>
       </c>
       <c r="Q30" t="n">
         <v>139.9817740860215</v>
@@ -33652,7 +33652,7 @@
         <v>56.32071997135341</v>
       </c>
       <c r="I35" t="n">
-        <v>212.0155798067232</v>
+        <v>212.0155798067237</v>
       </c>
       <c r="J35" t="n">
         <v>466.7546155663283</v>
@@ -33670,7 +33670,7 @@
         <v>981.2715114159425</v>
       </c>
       <c r="O35" t="n">
-        <v>926.5868626460029</v>
+        <v>926.5868626460027</v>
       </c>
       <c r="P35" t="n">
         <v>790.8204499236507</v>
@@ -33980,19 +33980,19 @@
         <v>638.8832749473072</v>
       </c>
       <c r="M39" t="n">
-        <v>142.1340339220183</v>
+        <v>745.5466476862121</v>
       </c>
       <c r="N39" t="n">
-        <v>403.8524967138027</v>
+        <v>765.2790490071785</v>
       </c>
       <c r="O39" t="n">
-        <v>700.0808204437243</v>
+        <v>398.7616643558013</v>
       </c>
       <c r="P39" t="n">
-        <v>561.8765786214698</v>
+        <v>133.9744074143302</v>
       </c>
       <c r="Q39" t="n">
-        <v>375.599612848529</v>
+        <v>139.9817740860215</v>
       </c>
       <c r="R39" t="n">
         <v>145.679503963964</v>
@@ -34126,10 +34126,10 @@
         <v>56.32071997135341</v>
       </c>
       <c r="I41" t="n">
-        <v>212.0155798067237</v>
+        <v>212.0155798067232</v>
       </c>
       <c r="J41" t="n">
-        <v>466.7546155663283</v>
+        <v>466.7546155663288</v>
       </c>
       <c r="K41" t="n">
         <v>699.5441750817575</v>
@@ -34384,13 +34384,13 @@
         <v>926.5868626460027</v>
       </c>
       <c r="P44" t="n">
-        <v>790.8204499236507</v>
+        <v>790.820449923651</v>
       </c>
       <c r="Q44" t="n">
         <v>593.8732233669223</v>
       </c>
       <c r="R44" t="n">
-        <v>345.4516222043729</v>
+        <v>345.4516222043725</v>
       </c>
       <c r="S44" t="n">
         <v>125.31755462929</v>
@@ -34445,10 +34445,10 @@
         <v>101.3076196007749</v>
       </c>
       <c r="J45" t="n">
-        <v>277.9958514420755</v>
+        <v>126.8376266666667</v>
       </c>
       <c r="K45" t="n">
-        <v>475.1391886422585</v>
+        <v>137.841438974359</v>
       </c>
       <c r="L45" t="n">
         <v>638.8832749473072</v>
@@ -34457,19 +34457,19 @@
         <v>745.5466476862121</v>
       </c>
       <c r="N45" t="n">
-        <v>593.5422977113961</v>
+        <v>765.2790490071785</v>
       </c>
       <c r="O45" t="n">
-        <v>142.5962444444444</v>
+        <v>186.6878763515707</v>
       </c>
       <c r="P45" t="n">
         <v>561.8765786214698</v>
       </c>
       <c r="Q45" t="n">
-        <v>139.9817740860215</v>
+        <v>375.599612848529</v>
       </c>
       <c r="R45" t="n">
-        <v>145.679503963964</v>
+        <v>182.6892564418561</v>
       </c>
       <c r="S45" t="n">
         <v>54.65449286742438</v>
@@ -34696,31 +34696,31 @@
         <v>0</v>
       </c>
       <c r="J2" t="n">
-        <v>185.7434973001357</v>
+        <v>185.743497300136</v>
       </c>
       <c r="K2" t="n">
-        <v>329.6323819496569</v>
+        <v>329.6323819496573</v>
       </c>
       <c r="L2" t="n">
-        <v>446.2126248248399</v>
+        <v>446.2126248248404</v>
       </c>
       <c r="M2" t="n">
-        <v>528.4868518375907</v>
+        <v>528.4868518375912</v>
       </c>
       <c r="N2" t="n">
-        <v>541.6987341201875</v>
+        <v>541.698734120188</v>
       </c>
       <c r="O2" t="n">
-        <v>498.0407930060538</v>
+        <v>498.0407930060543</v>
       </c>
       <c r="P2" t="n">
-        <v>390.2167984325599</v>
+        <v>390.2167984325602</v>
       </c>
       <c r="Q2" t="n">
-        <v>244.377224648901</v>
+        <v>244.3772246489013</v>
       </c>
       <c r="R2" t="n">
-        <v>55.88043090415954</v>
+        <v>55.88043090415971</v>
       </c>
       <c r="S2" t="n">
         <v>0</v>
@@ -34775,28 +34775,28 @@
         <v>0</v>
       </c>
       <c r="J3" t="n">
-        <v>91.61962830243183</v>
+        <v>91.61962830243198</v>
       </c>
       <c r="K3" t="n">
-        <v>235.5368051274608</v>
+        <v>235.536805127461</v>
       </c>
       <c r="L3" t="n">
-        <v>363.4987471522656</v>
+        <v>363.4987471522659</v>
       </c>
       <c r="M3" t="n">
-        <v>443.7382848916309</v>
+        <v>443.7382848916313</v>
       </c>
       <c r="N3" t="n">
-        <v>470.0369036918198</v>
+        <v>470.0369036918202</v>
       </c>
       <c r="O3" t="n">
-        <v>407.5477001407041</v>
+        <v>407.5477001407045</v>
       </c>
       <c r="P3" t="n">
-        <v>307.564609662157</v>
+        <v>307.5646096621573</v>
       </c>
       <c r="Q3" t="n">
-        <v>155.1753657227452</v>
+        <v>155.1753657227454</v>
       </c>
       <c r="R3" t="n">
         <v>0</v>
@@ -34854,28 +34854,28 @@
         <v>0</v>
       </c>
       <c r="J4" t="n">
-        <v>10.05763987550087</v>
+        <v>10.05763987550095</v>
       </c>
       <c r="K4" t="n">
-        <v>96.20702260667733</v>
+        <v>96.20702260667747</v>
       </c>
       <c r="L4" t="n">
-        <v>153.3197424848445</v>
+        <v>153.3197424848447</v>
       </c>
       <c r="M4" t="n">
-        <v>164.9453663999285</v>
+        <v>164.9453663999287</v>
       </c>
       <c r="N4" t="n">
-        <v>168.9602291124526</v>
+        <v>168.9602291124528</v>
       </c>
       <c r="O4" t="n">
-        <v>135.5438469569291</v>
+        <v>135.5438469569293</v>
       </c>
       <c r="P4" t="n">
-        <v>96.72666069733418</v>
+        <v>96.72666069733432</v>
       </c>
       <c r="Q4" t="n">
-        <v>10.81925550974873</v>
+        <v>10.81925550974884</v>
       </c>
       <c r="R4" t="n">
         <v>0</v>
@@ -35404,31 +35404,31 @@
         <v>0</v>
       </c>
       <c r="I11" t="n">
-        <v>1.539690236317256</v>
+        <v>1.539690236317227</v>
       </c>
       <c r="J11" t="n">
-        <v>285.708711039642</v>
+        <v>285.7087110396419</v>
       </c>
       <c r="K11" t="n">
-        <v>479.454324036777</v>
+        <v>479.4543240367769</v>
       </c>
       <c r="L11" t="n">
         <v>632.0799921462688</v>
       </c>
       <c r="M11" t="n">
-        <v>735.3001107902948</v>
+        <v>735.3001107902946</v>
       </c>
       <c r="N11" t="n">
         <v>751.8584478193516</v>
       </c>
       <c r="O11" t="n">
-        <v>696.488651224316</v>
+        <v>696.4886512243158</v>
       </c>
       <c r="P11" t="n">
         <v>559.5874541683811</v>
       </c>
       <c r="Q11" t="n">
-        <v>371.5675334924728</v>
+        <v>371.5675334924726</v>
       </c>
       <c r="R11" t="n">
         <v>129.8660843902404</v>
@@ -35483,28 +35483,28 @@
         <v>0</v>
       </c>
       <c r="I12" t="n">
-        <v>0</v>
+        <v>1.785239600774901</v>
       </c>
       <c r="J12" t="n">
-        <v>151.1582247754088</v>
+        <v>151.1582247754087</v>
       </c>
       <c r="K12" t="n">
-        <v>337.2977496678996</v>
+        <v>337.2977496678995</v>
       </c>
       <c r="L12" t="n">
-        <v>500.328895167433</v>
+        <v>500.3288951674329</v>
       </c>
       <c r="M12" t="n">
-        <v>197.8432633066788</v>
+        <v>603.4126137641936</v>
       </c>
       <c r="N12" t="n">
-        <v>633.9373369238452</v>
+        <v>0</v>
       </c>
       <c r="O12" t="n">
-        <v>0</v>
+        <v>226.5827468655557</v>
       </c>
       <c r="P12" t="n">
-        <v>427.9021712071395</v>
+        <v>427.9021712071394</v>
       </c>
       <c r="Q12" t="n">
         <v>235.6178387625075</v>
@@ -35565,7 +35565,7 @@
         <v>0</v>
       </c>
       <c r="J13" t="n">
-        <v>81.04648326295336</v>
+        <v>81.04648326295333</v>
       </c>
       <c r="K13" t="n">
         <v>264.3325884096349</v>
@@ -35574,19 +35574,19 @@
         <v>394.3420143191314</v>
       </c>
       <c r="M13" t="n">
-        <v>426.2724270010451</v>
+        <v>426.272427001045</v>
       </c>
       <c r="N13" t="n">
-        <v>421.6261329899074</v>
+        <v>421.6261329899054</v>
       </c>
       <c r="O13" t="n">
-        <v>373.2618997060454</v>
+        <v>373.2618997060453</v>
       </c>
       <c r="P13" t="n">
-        <v>295.631773306625</v>
+        <v>295.6317733066249</v>
       </c>
       <c r="Q13" t="n">
-        <v>120.4022572998984</v>
+        <v>120.4022572998983</v>
       </c>
       <c r="R13" t="n">
         <v>0</v>
@@ -35641,31 +35641,31 @@
         <v>0</v>
       </c>
       <c r="I14" t="n">
-        <v>1.539690236317256</v>
+        <v>1.539690236317227</v>
       </c>
       <c r="J14" t="n">
-        <v>285.708711039642</v>
+        <v>285.7087110396419</v>
       </c>
       <c r="K14" t="n">
-        <v>479.454324036777</v>
+        <v>479.4543240367769</v>
       </c>
       <c r="L14" t="n">
         <v>632.0799921462688</v>
       </c>
       <c r="M14" t="n">
-        <v>735.3001107902948</v>
+        <v>735.3001107902946</v>
       </c>
       <c r="N14" t="n">
         <v>751.8584478193516</v>
       </c>
       <c r="O14" t="n">
-        <v>696.488651224316</v>
+        <v>696.4886512243158</v>
       </c>
       <c r="P14" t="n">
         <v>559.5874541683811</v>
       </c>
       <c r="Q14" t="n">
-        <v>371.5675334924728</v>
+        <v>371.5675334924726</v>
       </c>
       <c r="R14" t="n">
         <v>129.8660843902404</v>
@@ -35720,34 +35720,34 @@
         <v>0</v>
       </c>
       <c r="I15" t="n">
-        <v>0</v>
+        <v>1.785239600774901</v>
       </c>
       <c r="J15" t="n">
-        <v>151.1582247754088</v>
+        <v>151.1582247754087</v>
       </c>
       <c r="K15" t="n">
-        <v>337.2977496678996</v>
+        <v>337.2977496678995</v>
       </c>
       <c r="L15" t="n">
-        <v>500.328895167433</v>
+        <v>500.3288951674329</v>
       </c>
       <c r="M15" t="n">
-        <v>0</v>
+        <v>603.4126137641936</v>
       </c>
       <c r="N15" t="n">
-        <v>237.2862717533522</v>
+        <v>332.6181808359229</v>
       </c>
       <c r="O15" t="n">
-        <v>557.4845759992799</v>
+        <v>557.4845759992797</v>
       </c>
       <c r="P15" t="n">
-        <v>427.9021712071395</v>
+        <v>0</v>
       </c>
       <c r="Q15" t="n">
-        <v>235.6178387625075</v>
+        <v>0</v>
       </c>
       <c r="R15" t="n">
-        <v>37.00975247789211</v>
+        <v>0</v>
       </c>
       <c r="S15" t="n">
         <v>0</v>
@@ -35802,7 +35802,7 @@
         <v>0</v>
       </c>
       <c r="J16" t="n">
-        <v>81.04648326295336</v>
+        <v>81.04648326295333</v>
       </c>
       <c r="K16" t="n">
         <v>264.3325884096349</v>
@@ -35811,19 +35811,19 @@
         <v>394.3420143191314</v>
       </c>
       <c r="M16" t="n">
-        <v>426.2724270010451</v>
+        <v>426.272427001045</v>
       </c>
       <c r="N16" t="n">
-        <v>421.6261329899074</v>
+        <v>421.6261329899073</v>
       </c>
       <c r="O16" t="n">
-        <v>373.2618997060454</v>
+        <v>373.2618997060453</v>
       </c>
       <c r="P16" t="n">
-        <v>295.631773306625</v>
+        <v>295.6317733066249</v>
       </c>
       <c r="Q16" t="n">
-        <v>120.4022572998984</v>
+        <v>120.4022572998983</v>
       </c>
       <c r="R16" t="n">
         <v>0</v>
@@ -35878,31 +35878,31 @@
         <v>0</v>
       </c>
       <c r="I17" t="n">
-        <v>1.539690236317256</v>
+        <v>1.539690236317227</v>
       </c>
       <c r="J17" t="n">
-        <v>285.708711039642</v>
+        <v>285.7087110396419</v>
       </c>
       <c r="K17" t="n">
-        <v>479.454324036777</v>
+        <v>479.4543240367769</v>
       </c>
       <c r="L17" t="n">
         <v>632.0799921462688</v>
       </c>
       <c r="M17" t="n">
-        <v>735.3001107902948</v>
+        <v>735.3001107902946</v>
       </c>
       <c r="N17" t="n">
         <v>751.8584478193516</v>
       </c>
       <c r="O17" t="n">
-        <v>696.488651224316</v>
+        <v>696.4886512243166</v>
       </c>
       <c r="P17" t="n">
         <v>559.5874541683811</v>
       </c>
       <c r="Q17" t="n">
-        <v>371.5675334924728</v>
+        <v>371.5675334924726</v>
       </c>
       <c r="R17" t="n">
         <v>129.8660843902404</v>
@@ -35957,28 +35957,28 @@
         <v>0</v>
       </c>
       <c r="I18" t="n">
-        <v>0</v>
+        <v>1.785239600774901</v>
       </c>
       <c r="J18" t="n">
-        <v>0</v>
+        <v>151.1582247754087</v>
       </c>
       <c r="K18" t="n">
-        <v>337.2977496678996</v>
+        <v>337.2977496678995</v>
       </c>
       <c r="L18" t="n">
-        <v>500.328895167433</v>
+        <v>500.3288951674329</v>
       </c>
       <c r="M18" t="n">
-        <v>603.4126137641938</v>
+        <v>431.6758624684119</v>
       </c>
       <c r="N18" t="n">
-        <v>57.65947400496688</v>
+        <v>633.937336923845</v>
       </c>
       <c r="O18" t="n">
-        <v>557.4845759992799</v>
+        <v>0</v>
       </c>
       <c r="P18" t="n">
-        <v>427.9021712071395</v>
+        <v>427.9021712071394</v>
       </c>
       <c r="Q18" t="n">
         <v>0</v>
@@ -36039,7 +36039,7 @@
         <v>0</v>
       </c>
       <c r="J19" t="n">
-        <v>81.04648326295336</v>
+        <v>81.04648326295333</v>
       </c>
       <c r="K19" t="n">
         <v>264.3325884096349</v>
@@ -36048,19 +36048,19 @@
         <v>394.3420143191314</v>
       </c>
       <c r="M19" t="n">
-        <v>426.2724270010451</v>
+        <v>426.272427001045</v>
       </c>
       <c r="N19" t="n">
-        <v>421.6261329899074</v>
+        <v>421.6261329899073</v>
       </c>
       <c r="O19" t="n">
-        <v>373.2618997060454</v>
+        <v>373.2618997060453</v>
       </c>
       <c r="P19" t="n">
-        <v>295.631773306625</v>
+        <v>295.6317733066249</v>
       </c>
       <c r="Q19" t="n">
-        <v>120.4022572998984</v>
+        <v>120.4022572998983</v>
       </c>
       <c r="R19" t="n">
         <v>0</v>
@@ -36194,25 +36194,25 @@
         <v>0</v>
       </c>
       <c r="I21" t="n">
-        <v>0</v>
+        <v>1.785239600774915</v>
       </c>
       <c r="J21" t="n">
-        <v>0</v>
+        <v>151.1582247754088</v>
       </c>
       <c r="K21" t="n">
-        <v>0</v>
+        <v>337.2977496678996</v>
       </c>
       <c r="L21" t="n">
         <v>500.328895167433</v>
       </c>
       <c r="M21" t="n">
-        <v>603.4126137641938</v>
+        <v>431.6758624684114</v>
       </c>
       <c r="N21" t="n">
         <v>633.9373369238452</v>
       </c>
       <c r="O21" t="n">
-        <v>318.5044627483008</v>
+        <v>0</v>
       </c>
       <c r="P21" t="n">
         <v>427.9021712071395</v>
@@ -36276,22 +36276,22 @@
         <v>0</v>
       </c>
       <c r="J22" t="n">
-        <v>81.04648326295336</v>
+        <v>81.04648326295343</v>
       </c>
       <c r="K22" t="n">
-        <v>264.3325884096349</v>
+        <v>264.332588409635</v>
       </c>
       <c r="L22" t="n">
-        <v>394.3420143191314</v>
+        <v>394.3420143191315</v>
       </c>
       <c r="M22" t="n">
         <v>426.2724270010451</v>
       </c>
       <c r="N22" t="n">
-        <v>421.6261329899074</v>
+        <v>421.6261329899075</v>
       </c>
       <c r="O22" t="n">
-        <v>373.2618997060454</v>
+        <v>373.2618997060455</v>
       </c>
       <c r="P22" t="n">
         <v>295.631773306625</v>
@@ -36373,7 +36373,7 @@
         <v>696.488651224316</v>
       </c>
       <c r="P23" t="n">
-        <v>559.5874541683811</v>
+        <v>559.5874541683816</v>
       </c>
       <c r="Q23" t="n">
         <v>371.5675334924728</v>
@@ -36437,25 +36437,25 @@
         <v>151.1582247754088</v>
       </c>
       <c r="K24" t="n">
-        <v>0</v>
+        <v>337.2977496678996</v>
       </c>
       <c r="L24" t="n">
         <v>500.328895167433</v>
       </c>
       <c r="M24" t="n">
-        <v>0</v>
+        <v>603.4126137641938</v>
       </c>
       <c r="N24" t="n">
-        <v>609.8085342983688</v>
+        <v>633.9373369238452</v>
       </c>
       <c r="O24" t="n">
-        <v>557.4845759992799</v>
+        <v>256.1654199113569</v>
       </c>
       <c r="P24" t="n">
-        <v>427.9021712071395</v>
+        <v>0</v>
       </c>
       <c r="Q24" t="n">
-        <v>235.6178387625075</v>
+        <v>0</v>
       </c>
       <c r="R24" t="n">
         <v>0</v>
@@ -36668,16 +36668,16 @@
         <v>0</v>
       </c>
       <c r="I27" t="n">
-        <v>0</v>
+        <v>1.785239600774915</v>
       </c>
       <c r="J27" t="n">
-        <v>0</v>
+        <v>151.1582247754088</v>
       </c>
       <c r="K27" t="n">
-        <v>0</v>
+        <v>337.2977496678996</v>
       </c>
       <c r="L27" t="n">
-        <v>0</v>
+        <v>500.328895167433</v>
       </c>
       <c r="M27" t="n">
         <v>603.4126137641938</v>
@@ -36686,16 +36686,16 @@
         <v>633.9373369238452</v>
       </c>
       <c r="O27" t="n">
-        <v>557.4845759992799</v>
+        <v>256.1654199113569</v>
       </c>
       <c r="P27" t="n">
-        <v>427.9021712071395</v>
+        <v>0</v>
       </c>
       <c r="Q27" t="n">
-        <v>235.6178387625075</v>
+        <v>0</v>
       </c>
       <c r="R27" t="n">
-        <v>25.73094315394662</v>
+        <v>0</v>
       </c>
       <c r="S27" t="n">
         <v>0</v>
@@ -36841,7 +36841,7 @@
         <v>735.3001107902948</v>
       </c>
       <c r="N29" t="n">
-        <v>751.8584478193519</v>
+        <v>751.8584478193516</v>
       </c>
       <c r="O29" t="n">
         <v>696.488651224316</v>
@@ -36905,16 +36905,16 @@
         <v>0</v>
       </c>
       <c r="I30" t="n">
-        <v>0</v>
+        <v>1.785239600774915</v>
       </c>
       <c r="J30" t="n">
-        <v>0</v>
+        <v>151.1582247754088</v>
       </c>
       <c r="K30" t="n">
-        <v>0</v>
+        <v>337.2977496678996</v>
       </c>
       <c r="L30" t="n">
-        <v>261.3487819164541</v>
+        <v>500.328895167433</v>
       </c>
       <c r="M30" t="n">
         <v>603.4126137641938</v>
@@ -36923,10 +36923,10 @@
         <v>633.9373369238452</v>
       </c>
       <c r="O30" t="n">
-        <v>557.4845759992799</v>
+        <v>256.1654199113569</v>
       </c>
       <c r="P30" t="n">
-        <v>427.9021712071395</v>
+        <v>0</v>
       </c>
       <c r="Q30" t="n">
         <v>0</v>
@@ -36990,19 +36990,19 @@
         <v>105.3311307549931</v>
       </c>
       <c r="K31" t="n">
-        <v>288.6172359016746</v>
+        <v>288.6172359016747</v>
       </c>
       <c r="L31" t="n">
-        <v>418.6266618111711</v>
+        <v>418.6266618111712</v>
       </c>
       <c r="M31" t="n">
-        <v>450.5570744930848</v>
+        <v>450.5570744930849</v>
       </c>
       <c r="N31" t="n">
-        <v>445.9107804819471</v>
+        <v>445.9107804819472</v>
       </c>
       <c r="O31" t="n">
-        <v>397.5465471980851</v>
+        <v>397.5465471980852</v>
       </c>
       <c r="P31" t="n">
         <v>319.9164207986647</v>
@@ -37233,13 +37233,13 @@
         <v>418.6266618111712</v>
       </c>
       <c r="M34" t="n">
-        <v>450.5570744930848</v>
+        <v>450.5570744930849</v>
       </c>
       <c r="N34" t="n">
-        <v>445.9107804819471</v>
+        <v>445.9107804819472</v>
       </c>
       <c r="O34" t="n">
-        <v>397.5465471980851</v>
+        <v>397.5465471980852</v>
       </c>
       <c r="P34" t="n">
         <v>319.9164207986647</v>
@@ -37300,7 +37300,7 @@
         <v>0</v>
       </c>
       <c r="I35" t="n">
-        <v>1.539690236317256</v>
+        <v>1.539690236317809</v>
       </c>
       <c r="J35" t="n">
         <v>285.708711039642</v>
@@ -37318,7 +37318,7 @@
         <v>751.8584478193516</v>
       </c>
       <c r="O35" t="n">
-        <v>696.4886512243162</v>
+        <v>696.488651224316</v>
       </c>
       <c r="P35" t="n">
         <v>559.5874541683811</v>
@@ -37464,25 +37464,25 @@
         <v>105.3311307549931</v>
       </c>
       <c r="K37" t="n">
-        <v>288.6172359016747</v>
+        <v>288.6172359016746</v>
       </c>
       <c r="L37" t="n">
-        <v>418.6266618111712</v>
+        <v>418.6266618111711</v>
       </c>
       <c r="M37" t="n">
-        <v>450.5570744930849</v>
+        <v>450.5570744930848</v>
       </c>
       <c r="N37" t="n">
-        <v>445.9107804819472</v>
+        <v>445.9107804819471</v>
       </c>
       <c r="O37" t="n">
-        <v>397.5465471980852</v>
+        <v>397.5465471980851</v>
       </c>
       <c r="P37" t="n">
         <v>319.9164207986647</v>
       </c>
       <c r="Q37" t="n">
-        <v>144.6869047919381</v>
+        <v>144.686904791938</v>
       </c>
       <c r="R37" t="n">
         <v>0</v>
@@ -37628,19 +37628,19 @@
         <v>500.328895167433</v>
       </c>
       <c r="M39" t="n">
-        <v>0</v>
+        <v>603.4126137641938</v>
       </c>
       <c r="N39" t="n">
-        <v>272.5107846304694</v>
+        <v>633.9373369238452</v>
       </c>
       <c r="O39" t="n">
-        <v>557.4845759992799</v>
+        <v>256.1654199113569</v>
       </c>
       <c r="P39" t="n">
-        <v>427.9021712071395</v>
+        <v>0</v>
       </c>
       <c r="Q39" t="n">
-        <v>235.6178387625075</v>
+        <v>0</v>
       </c>
       <c r="R39" t="n">
         <v>0</v>
@@ -37707,10 +37707,10 @@
         <v>418.6266618111712</v>
       </c>
       <c r="M40" t="n">
-        <v>450.5570744930849</v>
+        <v>450.5570744930848</v>
       </c>
       <c r="N40" t="n">
-        <v>445.9107804819472</v>
+        <v>445.9107804819471</v>
       </c>
       <c r="O40" t="n">
         <v>397.5465471980851</v>
@@ -37774,10 +37774,10 @@
         <v>0</v>
       </c>
       <c r="I41" t="n">
-        <v>1.539690236317809</v>
+        <v>1.539690236317256</v>
       </c>
       <c r="J41" t="n">
-        <v>285.708711039642</v>
+        <v>285.7087110396425</v>
       </c>
       <c r="K41" t="n">
         <v>479.454324036777</v>
@@ -37938,16 +37938,16 @@
         <v>105.3311307549931</v>
       </c>
       <c r="K43" t="n">
-        <v>288.6172359016746</v>
+        <v>288.6172359016747</v>
       </c>
       <c r="L43" t="n">
-        <v>418.6266618111711</v>
+        <v>418.6266618111712</v>
       </c>
       <c r="M43" t="n">
-        <v>450.5570744930848</v>
+        <v>450.5570744930849</v>
       </c>
       <c r="N43" t="n">
-        <v>445.9107804819471</v>
+        <v>445.9107804819472</v>
       </c>
       <c r="O43" t="n">
         <v>397.5465471980851</v>
@@ -37956,7 +37956,7 @@
         <v>319.9164207986647</v>
       </c>
       <c r="Q43" t="n">
-        <v>144.686904791938</v>
+        <v>144.6869047919381</v>
       </c>
       <c r="R43" t="n">
         <v>0</v>
@@ -38032,13 +38032,13 @@
         <v>696.488651224316</v>
       </c>
       <c r="P44" t="n">
-        <v>559.5874541683811</v>
+        <v>559.5874541683816</v>
       </c>
       <c r="Q44" t="n">
         <v>371.5675334924728</v>
       </c>
       <c r="R44" t="n">
-        <v>129.8660843902408</v>
+        <v>129.8660843902404</v>
       </c>
       <c r="S44" t="n">
         <v>0</v>
@@ -38093,10 +38093,10 @@
         <v>1.785239600774915</v>
       </c>
       <c r="J45" t="n">
-        <v>151.1582247754088</v>
+        <v>0</v>
       </c>
       <c r="K45" t="n">
-        <v>337.2977496678996</v>
+        <v>0</v>
       </c>
       <c r="L45" t="n">
         <v>500.328895167433</v>
@@ -38105,19 +38105,19 @@
         <v>603.4126137641938</v>
       </c>
       <c r="N45" t="n">
-        <v>462.2005856280628</v>
+        <v>633.9373369238452</v>
       </c>
       <c r="O45" t="n">
-        <v>0</v>
+        <v>44.0916319071262</v>
       </c>
       <c r="P45" t="n">
         <v>427.9021712071395</v>
       </c>
       <c r="Q45" t="n">
-        <v>0</v>
+        <v>235.6178387625075</v>
       </c>
       <c r="R45" t="n">
-        <v>0</v>
+        <v>37.00975247789211</v>
       </c>
       <c r="S45" t="n">
         <v>0</v>
@@ -38193,7 +38193,7 @@
         <v>319.9164207986647</v>
       </c>
       <c r="Q46" t="n">
-        <v>144.6869047919381</v>
+        <v>144.686904791938</v>
       </c>
       <c r="R46" t="n">
         <v>0</v>
